--- a/seeders/seedsRawData.xlsx
+++ b/seeders/seedsRawData.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smili\nodeJs\art_collection\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF04C78-9C46-43D2-92CB-2CF35D11B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993732AA-5788-4FCE-BE7D-945CDA98D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45000" yWindow="0" windowWidth="14400" windowHeight="17400" activeTab="2" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="3" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
   </bookViews>
   <sheets>
     <sheet name="artist" sheetId="1" r:id="rId1"/>
     <sheet name="exhibition" sheetId="2" r:id="rId2"/>
     <sheet name="artwork" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="7" r:id="rId4"/>
+    <sheet name="artwork_X" sheetId="7" r:id="rId4"/>
     <sheet name="exhibitionartwork" sheetId="4" r:id="rId5"/>
-    <sheet name="工作表2" sheetId="8" r:id="rId6"/>
+    <sheet name="exhibitionartwork_X" sheetId="8" r:id="rId6"/>
     <sheet name="subject" sheetId="5" r:id="rId7"/>
     <sheet name="artwork_subject" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="692">
   <si>
     <t>name</t>
   </si>
@@ -1200,9 +1199,6 @@
     <t>20160072</t>
   </si>
   <si>
-    <t>溥儒,張大千</t>
-  </si>
-  <si>
     <t>莫高窟八卦圖/孔孟之道</t>
   </si>
   <si>
@@ -2299,6 +2295,12 @@
   </si>
   <si>
     <t>subjects</t>
+  </si>
+  <si>
+    <t>溥儒 張大千</t>
+  </si>
+  <si>
+    <t>重複的</t>
   </si>
 </sst>
 </file>
@@ -2605,7 +2607,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="85">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3050,6 +3052,98 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4343,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B7D3C-9641-4757-A4D3-84371419D231}">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -4372,7 +4466,7 @@
         <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F1" t="s">
         <v>208</v>
@@ -4390,10 +4484,10 @@
         <v>212</v>
       </c>
       <c r="K1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.7">
@@ -4427,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.7">
@@ -4463,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.7">
@@ -4497,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.7">
@@ -4531,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.7">
@@ -4565,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.7">
@@ -4599,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.7">
@@ -4633,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.7">
@@ -4667,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.7">
@@ -4701,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.7">
@@ -4735,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.7">
@@ -4769,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.7">
@@ -4803,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.7">
@@ -4839,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.7">
@@ -4875,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.7">
@@ -4911,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.7">
@@ -4947,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.7">
@@ -4983,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.7">
@@ -5017,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.7">
@@ -5053,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.7">
@@ -5087,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.7">
@@ -5121,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.7">
@@ -5155,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.7">
@@ -5189,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.7">
@@ -5225,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.7">
@@ -5243,7 +5337,7 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>162</v>
@@ -5261,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.7">
@@ -5279,7 +5373,7 @@
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>166</v>
@@ -5297,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.7">
@@ -5315,7 +5409,7 @@
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>170</v>
@@ -5333,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.7">
@@ -5369,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.7">
@@ -5387,7 +5481,7 @@
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>178</v>
@@ -5405,25 +5499,25 @@
         <v>1</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.7">
       <c r="A31" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D31" s="14"/>
       <c r="F31" s="13" t="s">
         <v>158</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H31">
         <v>37</v>
@@ -5438,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.7">
@@ -5472,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.7">
@@ -5506,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.7">
@@ -5540,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.7">
@@ -5574,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.7">
@@ -5590,7 +5684,7 @@
       <c r="D36" s="29"/>
       <c r="E36" s="14"/>
       <c r="F36" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>196</v>
@@ -5608,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.7">
@@ -5624,7 +5718,7 @@
       <c r="D37" s="29"/>
       <c r="E37" s="14"/>
       <c r="F37" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>199</v>
@@ -5642,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.7">
@@ -5658,7 +5752,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="14"/>
       <c r="F38" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>202</v>
@@ -5676,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.7">
@@ -5692,7 +5786,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="14"/>
       <c r="F39" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>205</v>
@@ -5710,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.7">
@@ -5746,7 +5840,7 @@
         <v>8</v>
       </c>
       <c r="M41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="28.7">
@@ -5782,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="100.35">
@@ -5818,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="28.7">
@@ -5854,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="M44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5890,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -5926,7 +6020,7 @@
         <v>2</v>
       </c>
       <c r="M46" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.7">
@@ -5960,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="28.7">
@@ -5996,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="28.7">
@@ -6030,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.7">
@@ -6064,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="28.7">
@@ -6098,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="43">
@@ -6132,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="28.7">
@@ -6166,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.7">
@@ -6202,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.7">
@@ -6238,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16.7">
@@ -6274,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -6308,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -6344,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -6380,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -6416,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -6450,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.7">
@@ -6466,7 +6560,7 @@
       <c r="D62" s="32"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>283</v>
@@ -6484,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="28.7">
@@ -6500,7 +6594,7 @@
       <c r="D63" s="32"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>286</v>
@@ -6518,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.7">
@@ -6534,7 +6628,7 @@
       <c r="D64" s="32"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>289</v>
@@ -6552,7 +6646,7 @@
         <v>8</v>
       </c>
       <c r="M64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -6588,7 +6682,7 @@
         <v>4</v>
       </c>
       <c r="M65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -6622,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -6656,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -6690,7 +6784,7 @@
         <v>4</v>
       </c>
       <c r="M68" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -6707,7 +6801,7 @@
         <v>1996</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>132</v>
@@ -6728,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -6762,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -6798,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="M71" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="43">
@@ -6832,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="43">
@@ -6868,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="43">
@@ -6904,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="43">
@@ -6940,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -6974,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -7010,7 +7104,7 @@
         <v>2</v>
       </c>
       <c r="M77" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -7046,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -7082,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -7116,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -7152,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="28.7">
@@ -7160,10 +7254,10 @@
         <v>342</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="16"/>
@@ -7171,7 +7265,7 @@
         <v>132</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H82">
         <v>25</v>
@@ -7186,26 +7280,26 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="28.7">
       <c r="A83" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D83" s="32"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H83">
         <v>172.5</v>
@@ -7220,18 +7314,18 @@
         <v>2</v>
       </c>
       <c r="M83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>231</v>
@@ -7241,7 +7335,7 @@
         <v>223</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H84">
         <v>164</v>
@@ -7256,12 +7350,12 @@
         <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>58</v>
@@ -7275,7 +7369,7 @@
         <v>223</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H85">
         <v>69.5</v>
@@ -7290,30 +7384,30 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="28.7">
       <c r="A86" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D86" s="32">
         <v>1931</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F86" s="16" t="s">
         <v>223</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H86">
         <v>90.5</v>
@@ -7328,18 +7422,18 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="28.7">
       <c r="A87" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="16"/>
@@ -7347,7 +7441,7 @@
         <v>223</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H87">
         <v>105.3</v>
@@ -7362,18 +7456,18 @@
         <v>2</v>
       </c>
       <c r="M87" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D88" s="32"/>
       <c r="E88" s="16"/>
@@ -7381,7 +7475,7 @@
         <v>223</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H88">
         <v>34</v>
@@ -7396,12 +7490,12 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>58</v>
@@ -7415,7 +7509,7 @@
         <v>223</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H89">
         <v>116</v>
@@ -7430,18 +7524,18 @@
         <v>2</v>
       </c>
       <c r="M89" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="28.7">
       <c r="A90" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D90" s="32"/>
       <c r="E90" s="16"/>
@@ -7449,7 +7543,7 @@
         <v>223</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H90">
         <v>93.5</v>
@@ -7464,18 +7558,18 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="57.35">
       <c r="A91" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="16"/>
@@ -7483,7 +7577,7 @@
         <v>223</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H91">
         <v>38.200000000000003</v>
@@ -7498,12 +7592,12 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="28.7">
       <c r="A92" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>58</v>
@@ -7517,7 +7611,7 @@
         <v>223</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H92">
         <v>138.69999999999999</v>
@@ -7532,28 +7626,28 @@
         <v>2</v>
       </c>
       <c r="M92" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="28.7">
       <c r="A93" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16" t="s">
         <v>223</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H93">
         <v>137.5</v>
@@ -7568,18 +7662,18 @@
         <v>2</v>
       </c>
       <c r="M93" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="16"/>
@@ -7587,7 +7681,7 @@
         <v>223</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H94">
         <v>78</v>
@@ -7602,18 +7696,18 @@
         <v>2</v>
       </c>
       <c r="M94" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="16"/>
@@ -7621,7 +7715,7 @@
         <v>223</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H95">
         <v>95.5</v>
@@ -7636,12 +7730,12 @@
         <v>2</v>
       </c>
       <c r="M95" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>58</v>
@@ -7657,7 +7751,7 @@
         <v>223</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H96">
         <v>102.5</v>
@@ -7672,12 +7766,12 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>58</v>
@@ -7691,7 +7785,7 @@
         <v>223</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H97">
         <v>85</v>
@@ -7706,12 +7800,12 @@
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>58</v>
@@ -7725,7 +7819,7 @@
         <v>223</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H98">
         <v>81.5</v>
@@ -7740,28 +7834,28 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C99" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>387</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>388</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H99">
         <v>68.5</v>
@@ -7776,28 +7870,28 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H100">
         <v>35</v>
@@ -7812,28 +7906,28 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C101" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" s="33" t="s">
         <v>394</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>395</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H101">
         <v>137</v>
@@ -7848,28 +7942,28 @@
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H102">
         <v>137</v>
@@ -7884,28 +7978,28 @@
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H103">
         <v>137</v>
@@ -7920,28 +8014,28 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H104">
         <v>137</v>
@@ -7956,28 +8050,28 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C105" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D105" s="33" t="s">
         <v>404</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>405</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H105">
         <v>450</v>
@@ -7992,28 +8086,28 @@
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C106" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D106" s="33" t="s">
         <v>408</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>409</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H106">
         <v>450</v>
@@ -8028,28 +8122,28 @@
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H107">
         <v>450</v>
@@ -8064,28 +8158,28 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H108">
         <v>450</v>
@@ -8100,28 +8194,28 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C109" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D109" s="33" t="s">
         <v>415</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>416</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20" t="s">
         <v>132</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H109">
         <v>118</v>
@@ -8136,28 +8230,28 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C110" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" s="33" t="s">
         <v>419</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>420</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H110">
         <v>35</v>
@@ -8172,18 +8266,18 @@
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="43">
       <c r="A112" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="22"/>
@@ -8191,7 +8285,7 @@
         <v>132</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H112">
         <v>69.5</v>
@@ -8206,18 +8300,18 @@
         <v>1</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="22"/>
@@ -8225,7 +8319,7 @@
         <v>132</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H113">
         <v>44</v>
@@ -8240,18 +8334,18 @@
         <v>1</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B114" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D114" s="34"/>
       <c r="E114" s="22"/>
@@ -8259,7 +8353,7 @@
         <v>132</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H114">
         <v>95.5</v>
@@ -8274,18 +8368,18 @@
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="43">
       <c r="A115" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="22"/>
@@ -8293,7 +8387,7 @@
         <v>132</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H115">
         <v>96.5</v>
@@ -8308,18 +8402,18 @@
         <v>1</v>
       </c>
       <c r="M115" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="28.7">
       <c r="A116" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B116" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="22"/>
@@ -8327,7 +8421,7 @@
         <v>132</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H116">
         <v>123</v>
@@ -8342,18 +8436,18 @@
         <v>1</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="43">
       <c r="A117" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="22"/>
@@ -8361,7 +8455,7 @@
         <v>132</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H117">
         <v>43</v>
@@ -8376,18 +8470,18 @@
         <v>1</v>
       </c>
       <c r="M117" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="22"/>
@@ -8395,7 +8489,7 @@
         <v>132</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H118">
         <v>45</v>
@@ -8410,18 +8504,18 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B119" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D119" s="34"/>
       <c r="E119" s="22"/>
@@ -8429,7 +8523,7 @@
         <v>132</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H119">
         <v>134</v>
@@ -8444,30 +8538,30 @@
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="28.7">
       <c r="A120" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B120" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D120" s="34">
         <v>1980</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F120" s="22" t="s">
         <v>132</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H120">
         <v>44.5</v>
@@ -8482,18 +8576,18 @@
         <v>1</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B121" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D121" s="34" t="s">
         <v>231</v>
@@ -8503,7 +8597,7 @@
         <v>132</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H121">
         <v>129.5</v>
@@ -8518,18 +8612,18 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="28.7">
       <c r="A122" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="22"/>
@@ -8537,7 +8631,7 @@
         <v>132</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H122">
         <v>96</v>
@@ -8552,18 +8646,18 @@
         <v>1</v>
       </c>
       <c r="M122" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="22"/>
@@ -8571,7 +8665,7 @@
         <v>132</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H123">
         <v>73</v>
@@ -8586,18 +8680,18 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="28.7">
       <c r="A124" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="22"/>
@@ -8605,7 +8699,7 @@
         <v>132</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H124">
         <v>26.8</v>
@@ -8620,18 +8714,18 @@
         <v>1</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="28.7">
       <c r="A125" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="22"/>
@@ -8639,7 +8733,7 @@
         <v>132</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H125">
         <v>61.5</v>
@@ -8654,18 +8748,18 @@
         <v>1</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B126" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D126" s="34"/>
       <c r="E126" s="22"/>
@@ -8673,7 +8767,7 @@
         <v>223</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H126">
         <v>47</v>
@@ -8688,18 +8782,18 @@
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="28.7">
       <c r="A127" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D127" s="34"/>
       <c r="E127" s="22"/>
@@ -8707,7 +8801,7 @@
         <v>132</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H127">
         <v>96</v>
@@ -8722,18 +8816,18 @@
         <v>1</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B128" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D128" s="34"/>
       <c r="E128" s="22"/>
@@ -8741,7 +8835,7 @@
         <v>223</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H128">
         <v>134</v>
@@ -8756,18 +8850,18 @@
         <v>2</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B129" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D129" s="34"/>
       <c r="E129" s="22"/>
@@ -8775,7 +8869,7 @@
         <v>223</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H129">
         <v>135</v>
@@ -8790,18 +8884,18 @@
         <v>2</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B130" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="24"/>
@@ -8809,7 +8903,7 @@
         <v>132</v>
       </c>
       <c r="G130" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H130">
         <v>62</v>
@@ -8824,18 +8918,18 @@
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B131" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="24"/>
@@ -8843,7 +8937,7 @@
         <v>132</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H131">
         <v>48</v>
@@ -8858,18 +8952,18 @@
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D132" s="35" t="s">
         <v>231</v>
@@ -8879,7 +8973,7 @@
         <v>132</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H132">
         <v>31</v>
@@ -8894,28 +8988,28 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="28.7">
       <c r="A133" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B133" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H133">
         <v>34</v>
@@ -8930,26 +9024,26 @@
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="28.7">
       <c r="A134" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B134" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="24"/>
       <c r="F134" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G134" s="24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H134">
         <v>33</v>
@@ -8964,43 +9058,7 @@
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H135">
-        <v>42</v>
-      </c>
-      <c r="I135">
-        <v>62</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="M135" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -9017,7 +9075,7 @@
         <v>1963</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F136" s="24" t="s">
         <v>132</v>
@@ -9038,7 +9096,7 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="28.7">
@@ -9057,7 +9115,7 @@
         <v>132</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H137">
         <v>30</v>
@@ -9072,62 +9130,26 @@
         <v>5</v>
       </c>
       <c r="M137" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B138" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D138" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="G138" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H138">
-        <v>58</v>
-      </c>
-      <c r="I138">
-        <v>80.5</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="M138" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B139" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="24"/>
       <c r="F139" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H139">
         <v>45.5</v>
@@ -9142,26 +9164,26 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B140" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="24"/>
       <c r="F140" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H140">
         <v>61</v>
@@ -9176,26 +9198,26 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B141" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="24"/>
       <c r="F141" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G141" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H141">
         <v>45.5</v>
@@ -9210,25 +9232,25 @@
         <v>1</v>
       </c>
       <c r="M141" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="28.7">
       <c r="A142" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C142" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="D142" s="35" t="s">
         <v>496</v>
-      </c>
-      <c r="D142" s="35" t="s">
-        <v>497</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G142" s="24" t="s">
         <v>159</v>
@@ -9246,28 +9268,28 @@
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="24" t="s">
         <v>132</v>
       </c>
       <c r="G143" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H143">
         <v>29</v>
@@ -9282,18 +9304,18 @@
         <v>1</v>
       </c>
       <c r="M143" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D144" s="35" t="s">
         <v>310</v>
@@ -9303,7 +9325,7 @@
         <v>132</v>
       </c>
       <c r="G144" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H144">
         <v>19.5</v>
@@ -9318,12 +9340,12 @@
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="28.7">
       <c r="A145" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>23</v>
@@ -9332,14 +9354,14 @@
         <v>180</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="G145" s="24" t="s">
         <v>504</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>505</v>
       </c>
       <c r="H145">
         <v>77.5</v>
@@ -9354,28 +9376,28 @@
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="28.7">
       <c r="A146" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B146" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C146" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D146" s="35" t="s">
         <v>507</v>
-      </c>
-      <c r="D146" s="35" t="s">
-        <v>508</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G146" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H146">
         <v>81</v>
@@ -9390,28 +9412,28 @@
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="28.7">
       <c r="A147" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B147" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H147">
         <v>74.5</v>
@@ -9426,28 +9448,28 @@
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="28.7">
       <c r="A148" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B148" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G148" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H148">
         <v>78</v>
@@ -9462,12 +9484,12 @@
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="28.7">
       <c r="A149" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B149" s="24" t="s">
         <v>23</v>
@@ -9476,14 +9498,14 @@
         <v>180</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H149">
         <v>76.7</v>
@@ -9498,28 +9520,28 @@
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B150" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="24" t="s">
         <v>132</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H150">
         <v>60</v>
@@ -9534,28 +9556,28 @@
         <v>1</v>
       </c>
       <c r="M150" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B151" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C151" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D151" s="35" t="s">
         <v>522</v>
-      </c>
-      <c r="D151" s="35" t="s">
-        <v>523</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="24" t="s">
         <v>132</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H151">
         <v>39</v>
@@ -9570,26 +9592,26 @@
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="28.7">
       <c r="A152" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B152" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="24"/>
       <c r="F152" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G152" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H152">
         <v>26</v>
@@ -9604,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -9620,7 +9642,7 @@
       <c r="D153" s="35"/>
       <c r="E153" s="24"/>
       <c r="F153" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G153" s="24" t="s">
         <v>181</v>
@@ -9638,28 +9660,28 @@
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B154" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C154" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>527</v>
-      </c>
-      <c r="D154" s="35" t="s">
-        <v>528</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H154">
         <v>38.5</v>
@@ -9674,26 +9696,26 @@
         <v>1</v>
       </c>
       <c r="M154" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B155" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="24"/>
       <c r="F155" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G155" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H155">
         <v>36.5</v>
@@ -9708,21 +9730,21 @@
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B156" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="24" t="s">
@@ -9744,12 +9766,12 @@
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B157" s="24" t="s">
         <v>34</v>
@@ -9760,10 +9782,10 @@
       <c r="D157" s="35"/>
       <c r="E157" s="24"/>
       <c r="F157" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="G157" s="25" t="s">
         <v>535</v>
-      </c>
-      <c r="G157" s="25" t="s">
-        <v>536</v>
       </c>
       <c r="I157">
         <v>29.3</v>
@@ -9775,30 +9797,30 @@
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D158" s="35">
         <v>1956</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F158" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H158">
         <v>44</v>
@@ -9813,28 +9835,28 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B159" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C159" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="D159" s="35" t="s">
         <v>541</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>542</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H159">
         <v>91.5</v>
@@ -9849,18 +9871,18 @@
         <v>1</v>
       </c>
       <c r="M159" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B160" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="24"/>
@@ -9868,7 +9890,7 @@
         <v>158</v>
       </c>
       <c r="G160" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H160">
         <v>115.5</v>
@@ -9883,18 +9905,18 @@
         <v>1</v>
       </c>
       <c r="M160" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B161" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D161" s="35" t="s">
         <v>111</v>
@@ -9904,7 +9926,7 @@
         <v>158</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H161">
         <v>87</v>
@@ -9919,18 +9941,18 @@
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B162" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D162" s="35" t="s">
         <v>177</v>
@@ -9940,7 +9962,7 @@
         <v>158</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H162">
         <v>70</v>
@@ -9955,28 +9977,28 @@
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B163" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H163">
         <v>45</v>
@@ -9991,28 +10013,28 @@
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B164" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G164" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H164">
         <v>45</v>
@@ -10027,18 +10049,18 @@
         <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B165" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="24"/>
@@ -10046,7 +10068,7 @@
         <v>158</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H165">
         <v>44</v>
@@ -10061,28 +10083,28 @@
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B166" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C166" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="D166" s="35" t="s">
         <v>562</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>563</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G166" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H166">
         <v>73</v>
@@ -10097,18 +10119,18 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B167" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="24"/>
@@ -10116,7 +10138,7 @@
         <v>158</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H167">
         <v>109</v>
@@ -10131,18 +10153,18 @@
         <v>1</v>
       </c>
       <c r="M167" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B168" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="24"/>
@@ -10150,7 +10172,7 @@
         <v>158</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H168">
         <v>158</v>
@@ -10165,28 +10187,28 @@
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C169" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="D169" s="35" t="s">
         <v>572</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>573</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G169" s="24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H169">
         <v>74</v>
@@ -10201,18 +10223,18 @@
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="24"/>
@@ -10220,7 +10242,7 @@
         <v>158</v>
       </c>
       <c r="G170" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H170">
         <v>80</v>
@@ -10235,18 +10257,18 @@
         <v>1</v>
       </c>
       <c r="M170" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="24"/>
@@ -10254,7 +10276,7 @@
         <v>158</v>
       </c>
       <c r="G171" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H171">
         <v>53</v>
@@ -10269,28 +10291,28 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C172" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D172" s="35" t="s">
         <v>582</v>
-      </c>
-      <c r="D172" s="35" t="s">
-        <v>583</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G172" s="24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H172">
         <v>64</v>
@@ -10305,18 +10327,18 @@
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B173" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D173" s="35" t="s">
         <v>231</v>
@@ -10326,7 +10348,7 @@
         <v>158</v>
       </c>
       <c r="G173" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H173">
         <v>90</v>
@@ -10341,26 +10363,26 @@
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="28.7">
       <c r="A174" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B174" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="24"/>
       <c r="F174" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G174" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H174">
         <v>23.6</v>
@@ -10375,28 +10397,28 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B175" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D175" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G175" s="24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H175">
         <v>45</v>
@@ -10411,30 +10433,30 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B176" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D176" s="35">
         <v>1959</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F176" s="24" t="s">
         <v>223</v>
       </c>
       <c r="G176" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H176">
         <v>42</v>
@@ -10449,28 +10471,28 @@
         <v>1</v>
       </c>
       <c r="M176" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B177" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D177" s="35" t="s">
         <v>177</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G177" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H177">
         <v>44</v>
@@ -10485,24 +10507,24 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B181" t="s">
         <v>43</v>
       </c>
       <c r="C181" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F181" t="s">
         <v>223</v>
       </c>
       <c r="G181" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H181">
         <v>47.8</v>
@@ -10517,24 +10539,24 @@
         <v>1</v>
       </c>
       <c r="M181" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B182" t="s">
         <v>43</v>
       </c>
       <c r="C182" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F182" t="s">
         <v>132</v>
       </c>
       <c r="G182" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H182">
         <v>33</v>
@@ -10549,24 +10571,24 @@
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B183" t="s">
         <v>43</v>
       </c>
       <c r="C183" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F183" t="s">
         <v>132</v>
       </c>
       <c r="G183" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H183">
         <v>39</v>
@@ -10581,111 +10603,111 @@
         <v>1</v>
       </c>
       <c r="M183" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A30 A32">
-    <cfRule type="duplicateValues" dxfId="76" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A110">
-    <cfRule type="duplicateValues" dxfId="75" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="duplicateValues" dxfId="74" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="duplicateValues" dxfId="73" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A79">
-    <cfRule type="duplicateValues" dxfId="72" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A79">
-    <cfRule type="duplicateValues" dxfId="71" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A79">
-    <cfRule type="duplicateValues" dxfId="70" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A79">
-    <cfRule type="duplicateValues" dxfId="69" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="68" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="67" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="66" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A132">
-    <cfRule type="duplicateValues" dxfId="65" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="64" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A148">
-    <cfRule type="duplicateValues" dxfId="63" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="61" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A153">
-    <cfRule type="duplicateValues" dxfId="60" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="58" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="duplicateValues" dxfId="57" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" dxfId="56" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166">
-    <cfRule type="duplicateValues" dxfId="55" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167:A169">
-    <cfRule type="duplicateValues" dxfId="54" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="53" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:A172">
-    <cfRule type="duplicateValues" dxfId="52" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174">
-    <cfRule type="duplicateValues" dxfId="50" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:A176">
-    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112:A177 A181:A183">
-    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
+  <conditionalFormatting sqref="A112:A134 A181:A183 A136:A137 A139:A177">
+    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133:A144">
-    <cfRule type="duplicateValues" dxfId="47" priority="22"/>
+  <conditionalFormatting sqref="A133:A134 A136:A137 A139:A144">
+    <cfRule type="duplicateValues" dxfId="55" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135:A144">
-    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
+  <conditionalFormatting sqref="A136:A137 A139:A144">
+    <cfRule type="duplicateValues" dxfId="54" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:A161">
-    <cfRule type="duplicateValues" dxfId="45" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A30 A32:A177 A181:A1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+  <conditionalFormatting sqref="A1:A30 A32:A134 A181:A1048576 A136:A137 A139:A177">
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10694,33 +10716,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC34231-9CEA-47FA-BFD6-376FA1E0BDE0}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="28.7">
       <c r="A1" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>606</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>603</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>604</v>
       </c>
       <c r="H1" s="27">
         <v>130</v>
@@ -10735,28 +10757,28 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>608</v>
-      </c>
       <c r="D2" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H2" s="27">
         <v>27</v>
@@ -10771,28 +10793,28 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>602</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>603</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>604</v>
       </c>
       <c r="H3">
         <v>130</v>
@@ -10807,20 +10829,121 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>62</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>80.5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
+    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10831,8 +10954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DC95A6-1C20-4ED6-9D52-757DABF4343F}">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:XFD180"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -10843,10 +10966,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" t="s">
         <v>634</v>
-      </c>
-      <c r="B1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.7">
@@ -11103,7 +11226,7 @@
         <v>71</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.7">
@@ -11511,7 +11634,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -11519,7 +11642,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -11527,7 +11650,7 @@
         <v>76</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -11535,7 +11658,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -11543,7 +11666,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -11551,7 +11674,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -11559,7 +11682,7 @@
         <v>76</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -11567,7 +11690,7 @@
         <v>76</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -11575,7 +11698,7 @@
         <v>76</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -11583,7 +11706,7 @@
         <v>76</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -11591,7 +11714,7 @@
         <v>76</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -11599,7 +11722,7 @@
         <v>76</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -11607,7 +11730,7 @@
         <v>76</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -11615,7 +11738,7 @@
         <v>76</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -11623,7 +11746,7 @@
         <v>76</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -11631,7 +11754,7 @@
         <v>76</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -11639,7 +11762,7 @@
         <v>76</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -11647,7 +11770,7 @@
         <v>76</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -11655,7 +11778,7 @@
         <v>76</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -11663,7 +11786,7 @@
         <v>76</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -11671,7 +11794,7 @@
         <v>76</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -11679,7 +11802,7 @@
         <v>76</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -11687,7 +11810,7 @@
         <v>76</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -11695,7 +11818,7 @@
         <v>76</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -11703,7 +11826,7 @@
         <v>76</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -11711,7 +11834,7 @@
         <v>76</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -11719,7 +11842,7 @@
         <v>76</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -11727,7 +11850,7 @@
         <v>76</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.35">
@@ -11735,7 +11858,7 @@
         <v>74</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.35">
@@ -11743,7 +11866,7 @@
         <v>74</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.35">
@@ -11751,7 +11874,7 @@
         <v>74</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.35">
@@ -11759,7 +11882,7 @@
         <v>74</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.35">
@@ -11767,7 +11890,7 @@
         <v>74</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.35">
@@ -11775,7 +11898,7 @@
         <v>74</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.35">
@@ -11783,7 +11906,7 @@
         <v>74</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.35">
@@ -11791,7 +11914,7 @@
         <v>74</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.35">
@@ -11799,7 +11922,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.35">
@@ -11807,7 +11930,7 @@
         <v>74</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.35">
@@ -11815,7 +11938,7 @@
         <v>74</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.35">
@@ -11823,7 +11946,7 @@
         <v>74</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.35">
@@ -11831,7 +11954,7 @@
         <v>74</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.35">
@@ -11839,7 +11962,7 @@
         <v>74</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.35">
@@ -11847,7 +11970,7 @@
         <v>74</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.35">
@@ -11855,7 +11978,7 @@
         <v>74</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.35">
@@ -11863,7 +11986,7 @@
         <v>74</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.35">
@@ -11871,7 +11994,7 @@
         <v>74</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.35">
@@ -11879,7 +12002,7 @@
         <v>74</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.35">
@@ -11887,7 +12010,7 @@
         <v>74</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.35">
@@ -11895,7 +12018,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.35">
@@ -11903,7 +12026,7 @@
         <v>74</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.35">
@@ -11911,7 +12034,7 @@
         <v>74</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.35">
@@ -11951,7 +12074,7 @@
         <v>74</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.35">
@@ -11959,7 +12082,7 @@
         <v>74</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.35">
@@ -11967,7 +12090,7 @@
         <v>74</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.35">
@@ -11975,7 +12098,7 @@
         <v>74</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.35">
@@ -11983,7 +12106,7 @@
         <v>74</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.35">
@@ -11991,7 +12114,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.35">
@@ -11999,7 +12122,7 @@
         <v>74</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.35">
@@ -12007,7 +12130,7 @@
         <v>74</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.35">
@@ -12015,7 +12138,7 @@
         <v>74</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.35">
@@ -12023,7 +12146,7 @@
         <v>74</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.35">
@@ -12031,7 +12154,7 @@
         <v>74</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.35">
@@ -12039,7 +12162,7 @@
         <v>74</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.35">
@@ -12047,7 +12170,7 @@
         <v>74</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.35">
@@ -12055,7 +12178,7 @@
         <v>74</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.35">
@@ -12071,7 +12194,7 @@
         <v>74</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.35">
@@ -12079,7 +12202,7 @@
         <v>74</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.35">
@@ -12087,7 +12210,7 @@
         <v>74</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.35">
@@ -12095,7 +12218,7 @@
         <v>74</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.35">
@@ -12103,7 +12226,7 @@
         <v>74</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.35">
@@ -12111,7 +12234,7 @@
         <v>74</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.35">
@@ -12119,7 +12242,7 @@
         <v>74</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.35">
@@ -12127,7 +12250,7 @@
         <v>74</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.35">
@@ -12135,7 +12258,7 @@
         <v>74</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.35">
@@ -12143,7 +12266,7 @@
         <v>74</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.35">
@@ -12151,7 +12274,7 @@
         <v>74</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.35">
@@ -12159,7 +12282,7 @@
         <v>74</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.35">
@@ -12167,7 +12290,7 @@
         <v>74</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.35">
@@ -12175,7 +12298,7 @@
         <v>74</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.35">
@@ -12183,7 +12306,7 @@
         <v>74</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.35">
@@ -12191,7 +12314,7 @@
         <v>74</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.35">
@@ -12199,7 +12322,7 @@
         <v>74</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.35">
@@ -12207,7 +12330,7 @@
         <v>74</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.35">
@@ -12215,7 +12338,7 @@
         <v>74</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.35">
@@ -12223,7 +12346,7 @@
         <v>74</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.35">
@@ -12231,7 +12354,7 @@
         <v>74</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.35">
@@ -12239,7 +12362,7 @@
         <v>74</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.35">
@@ -12247,7 +12370,7 @@
         <v>74</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.35">
@@ -12255,7 +12378,7 @@
         <v>74</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.35">
@@ -12263,7 +12386,7 @@
         <v>74</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.35">
@@ -12271,7 +12394,7 @@
         <v>74</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.35">
@@ -12279,7 +12402,7 @@
         <v>74</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -12402,7 +12525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3459126E-43B9-4E2C-9C7A-F8309462E19F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -12413,7 +12536,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.35">
@@ -12421,7 +12544,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.35">
@@ -12429,7 +12552,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -12458,62 +12581,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -12523,57 +12646,57 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seedsRawData.xlsx
+++ b/seeders/seedsRawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smili\nodeJs\art_collection\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993732AA-5788-4FCE-BE7D-945CDA98D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D06A95-B935-4F38-B8B7-7284FCFA87D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="3" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" firstSheet="6" activeTab="9" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
   </bookViews>
   <sheets>
     <sheet name="artist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="exhibitionartwork" sheetId="4" r:id="rId5"/>
     <sheet name="exhibitionartwork_X" sheetId="8" r:id="rId6"/>
     <sheet name="subject" sheetId="5" r:id="rId7"/>
-    <sheet name="artwork_subject" sheetId="6" r:id="rId8"/>
+    <sheet name="exhibitionImage" sheetId="6" r:id="rId8"/>
+    <sheet name="artistImage" sheetId="10" r:id="rId9"/>
+    <sheet name="工作表3" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="744">
   <si>
     <t>name</t>
   </si>
@@ -290,9 +292,6 @@
     <t>萬物皆有  風采人間
 從夜市場景一隅，回溯至1970年代，時值國家社會退出聯合國的動盪、發生第一次石油危機等事件，開始重塑對本土文化的認同感，在鄉土文學運動的推展下，鄉土意識的匯集形成，文化思想回歸對土地的熱愛與關懷，鄉土美術運動隨之興起，民間藝術及民俗活動成為熱門的創作題材，繪畫語彙與社會氛圍息息相關。
 長流美術館暨文教藝術基金會特別規畫「風采人間—台灣鄉土人文誌」，於2020年10月1日(四)至11月1日(日)在長流美術館台北館展出，羅列陳澄波、黃土水、豐子愷、廖繼春、藍蔭鼎、楊啟東、林玉山、楊三郎、陳進、郭雪湖、張萬傳、張義雄、黃鷗波、席德進、李奇茂、朱銘、陳陽春、袁金塔、簡昌達等，「萬物過眼皆為我有」透過藝術家親身經歷與情感感受，捕捉土地實貌的日常景象與自然風采，展現濃厚鄉情及人文之思，探索台灣風土民情圖像中的時代意涵。</t>
-  </si>
-  <si>
-    <t>臺靜農逝世三十週年紀念展</t>
   </si>
   <si>
     <r>
@@ -2302,6 +2301,165 @@
   <si>
     <t>重複的</t>
   </si>
+  <si>
+    <t>exhibition</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/orS87wq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pqGiGCn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LROt82y.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FzZdPkz.jpg</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>long poster</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kzZL1nV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qoEn5t5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pmdRjND.jpg</t>
+  </si>
+  <si>
+    <t>風采人間－李奇茂紀念展</t>
+  </si>
+  <si>
+    <t>群鴻戲海－紀念臺靜農大師名家書法聯展</t>
+  </si>
+  <si>
+    <t>https://imgur.com/oE60Ong</t>
+  </si>
+  <si>
+    <t>https://imgur.com/VVYmG5q</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>https://imgur.com/HKF1JMi</t>
+  </si>
+  <si>
+    <t>https://imgur.com/Ztv98vn</t>
+  </si>
+  <si>
+    <t>https://imgur.com/YQePcTf</t>
+  </si>
+  <si>
+    <t>https://imgur.com/QUFpw5R</t>
+  </si>
+  <si>
+    <t>https://imgur.com/AXEWuvy</t>
+  </si>
+  <si>
+    <t>https://imgur.com/pnYPTv3</t>
+  </si>
+  <si>
+    <t>https://imgur.com/AktAYxF</t>
+  </si>
+  <si>
+    <t>https://imgur.com/EV0Tu4a</t>
+  </si>
+  <si>
+    <t>https://imgur.com/8aHJIiF</t>
+  </si>
+  <si>
+    <t>https://imgur.com/1mpGQfg</t>
+  </si>
+  <si>
+    <t>https://imgur.com/HbYXLkZ</t>
+  </si>
+  <si>
+    <t>https://imgur.com/iomvTxV</t>
+  </si>
+  <si>
+    <t>https://imgur.com/WaRbJyc</t>
+  </si>
+  <si>
+    <t>https://imgur.com/boV6JWy</t>
+  </si>
+  <si>
+    <t>https://imgur.com/izok64b</t>
+  </si>
+  <si>
+    <t>https://imgur.com/qVAIrNM</t>
+  </si>
+  <si>
+    <t>https://imgur.com/YOuUmxU</t>
+  </si>
+  <si>
+    <t>https://imgur.com/jtiRAsm</t>
+  </si>
+  <si>
+    <t>https://imgur.com/lBeH70d</t>
+  </si>
+  <si>
+    <t>https://imgur.com/vw4TW5s</t>
+  </si>
+  <si>
+    <t>https://imgur.com/GHrxYrJ</t>
+  </si>
+  <si>
+    <t>https://imgur.com/fUbU0P7</t>
+  </si>
+  <si>
+    <t>https://imgur.com/LaCfhxe</t>
+  </si>
+  <si>
+    <t>https://imgur.com/TgystBs</t>
+  </si>
+  <si>
+    <t>https://imgur.com/oUlk00t</t>
+  </si>
+  <si>
+    <t>https://imgur.com/PyxlZnl</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  { artistName: '李奇茂', url: 'https://imgur.com/HKF1JMi' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    artistName: '李奇茂',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type: 'head',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    url: 'https://imgur.com/Ztv98vn',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '席德進': '陳進'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  { artistName: '朱銘', type: 'head', url: 'https://imgur.com/oE60Ong' }</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
 </sst>
 </file>
 
@@ -2310,7 +2468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2405,6 +2563,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2432,7 +2601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2464,13 +2633,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2602,6 +2782,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3927,7 +4122,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7"/>
@@ -4332,12 +4527,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC763D51-CAFE-4FB0-A35D-57A8923D8AEE}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.7">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.7">
+      <c r="A2" s="2"/>
+      <c r="D2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.7">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.7">
+      <c r="A4" s="2"/>
+      <c r="D4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.7">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.7">
+      <c r="A6" s="2"/>
+      <c r="D6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.7">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.7">
+      <c r="A8" s="1"/>
+      <c r="D8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.7">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C020CF2-4FE2-47B8-BBF9-E21B4F8E2EDA}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -4389,7 +4668,7 @@
     </row>
     <row r="3" spans="1:11" ht="170.35" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B3" s="11">
         <v>44105</v>
@@ -4409,7 +4688,7 @@
     </row>
     <row r="4" spans="1:11" ht="387">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B4" s="11">
         <v>44076</v>
@@ -4421,7 +4700,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8">
         <v>2</v>
@@ -4454,59 +4733,59 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" t="s">
-        <v>212</v>
-      </c>
       <c r="K1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.7">
       <c r="A2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="14"/>
       <c r="F2" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>45.5</v>
@@ -4521,28 +4800,28 @@
         <v>1</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.7">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="29">
         <v>1983</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -4557,26 +4836,26 @@
         <v>1</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.7">
       <c r="A4" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -4591,26 +4870,26 @@
         <v>1</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.7">
       <c r="A5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -4625,26 +4904,26 @@
         <v>1</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.7">
       <c r="A6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>119.5</v>
@@ -4659,26 +4938,26 @@
         <v>1</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.7">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7">
         <v>72</v>
@@ -4693,26 +4972,26 @@
         <v>1</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.7">
       <c r="A8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8">
         <v>66.5</v>
@@ -4727,26 +5006,26 @@
         <v>1</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.7">
       <c r="A9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>42.5</v>
@@ -4761,26 +5040,26 @@
         <v>1</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.7">
       <c r="A10" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>42.5</v>
@@ -4795,26 +5074,26 @@
         <v>1</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.7">
       <c r="A11" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11">
         <v>138.5</v>
@@ -4829,26 +5108,26 @@
         <v>1</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.7">
       <c r="A12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12">
         <v>64</v>
@@ -4863,26 +5142,26 @@
         <v>1</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.7">
       <c r="A13" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13">
         <v>44</v>
@@ -4897,28 +5176,28 @@
         <v>1</v>
       </c>
       <c r="M13" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.7">
       <c r="A14" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="29">
         <v>1997</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14">
         <v>46</v>
@@ -4933,28 +5212,28 @@
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.7">
       <c r="A15" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="29">
         <v>1986</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15">
         <v>34.5</v>
@@ -4969,28 +5248,28 @@
         <v>1</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.7">
       <c r="A16" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="29">
         <v>1956</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16">
         <v>53</v>
@@ -5005,28 +5284,28 @@
         <v>1</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.7">
       <c r="A17" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="29">
         <v>1979</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17">
         <v>37.299999999999997</v>
@@ -5041,28 +5320,28 @@
         <v>1</v>
       </c>
       <c r="M17" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.7">
       <c r="A18" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="29">
         <v>2001</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="H18">
         <v>26.7</v>
@@ -5077,26 +5356,26 @@
         <v>1</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.7">
       <c r="A19" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="14"/>
       <c r="F19" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19">
         <v>92</v>
@@ -5111,28 +5390,28 @@
         <v>1</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.7">
       <c r="A20" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="29">
         <v>1988</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H20">
         <v>51</v>
@@ -5147,26 +5426,26 @@
         <v>1</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.7">
       <c r="A21" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="14"/>
       <c r="F21" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21">
         <v>40.5</v>
@@ -5181,26 +5460,26 @@
         <v>1</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.7">
       <c r="A22" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="14"/>
       <c r="F22" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22">
         <v>66.400000000000006</v>
@@ -5215,26 +5494,26 @@
         <v>1</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.7">
       <c r="A23" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="14"/>
       <c r="F23" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23">
         <v>116.5</v>
@@ -5249,26 +5528,26 @@
         <v>1</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.7">
       <c r="A24" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="14"/>
       <c r="F24" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24">
         <v>34.5</v>
@@ -5283,28 +5562,28 @@
         <v>1</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.7">
       <c r="A25" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>156</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>157</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="H25">
         <v>36.5</v>
@@ -5319,28 +5598,28 @@
         <v>1</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.7">
       <c r="A26" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H26">
         <v>49</v>
@@ -5355,28 +5634,28 @@
         <v>1</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.7">
       <c r="A27" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>164</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>165</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H27">
         <v>58</v>
@@ -5391,28 +5670,28 @@
         <v>1</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.7">
       <c r="A28" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>169</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28">
         <v>57</v>
@@ -5427,28 +5706,28 @@
         <v>1</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.7">
       <c r="A29" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" s="29">
         <v>1964</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H29">
         <v>38</v>
@@ -5463,28 +5742,28 @@
         <v>1</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.7">
       <c r="A30" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>176</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>177</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H30">
         <v>46</v>
@@ -5499,25 +5778,25 @@
         <v>1</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.7">
       <c r="A31" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D31" s="14"/>
       <c r="F31" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H31">
         <v>37</v>
@@ -5532,26 +5811,26 @@
         <v>1</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.7">
       <c r="A32" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="14"/>
       <c r="F32" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H32">
         <v>115</v>
@@ -5566,26 +5845,26 @@
         <v>1</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.7">
       <c r="A33" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="14"/>
       <c r="F33" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H33">
         <v>108.3</v>
@@ -5600,26 +5879,26 @@
         <v>1</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.7">
       <c r="A34" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="14"/>
       <c r="F34" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H34">
         <v>27</v>
@@ -5634,26 +5913,26 @@
         <v>1</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.7">
       <c r="A35" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="14"/>
       <c r="F35" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H35">
         <v>36.5</v>
@@ -5668,26 +5947,26 @@
         <v>1</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.7">
       <c r="A36" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="14"/>
       <c r="F36" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H36">
         <v>45</v>
@@ -5702,26 +5981,26 @@
         <v>1</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.7">
       <c r="A37" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="14"/>
       <c r="F37" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H37">
         <v>41.5</v>
@@ -5736,26 +6015,26 @@
         <v>1</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.7">
       <c r="A38" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="14"/>
       <c r="F38" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38">
         <v>51</v>
@@ -5770,26 +6049,26 @@
         <v>1</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.7">
       <c r="A39" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="14"/>
       <c r="F39" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H39">
         <v>46</v>
@@ -5804,28 +6083,28 @@
         <v>1</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.7">
       <c r="A41" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="30" t="s">
         <v>215</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>216</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H41">
         <v>176</v>
@@ -5840,28 +6119,28 @@
         <v>8</v>
       </c>
       <c r="M41" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="28.7">
       <c r="A42" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" s="31">
         <v>1993</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H42">
         <v>136.6</v>
@@ -5876,28 +6155,28 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="100.35">
       <c r="A43" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="H43">
         <v>216.7</v>
@@ -5912,28 +6191,28 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="28.7">
       <c r="A44" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>226</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>227</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H44">
         <v>149</v>
@@ -5948,28 +6227,28 @@
         <v>4</v>
       </c>
       <c r="M44" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H45">
         <v>127</v>
@@ -5984,28 +6263,28 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H46">
         <v>138</v>
@@ -6020,26 +6299,26 @@
         <v>2</v>
       </c>
       <c r="M46" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.7">
       <c r="A47" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H47">
         <v>18</v>
@@ -6054,28 +6333,28 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="28.7">
       <c r="A48" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -6090,26 +6369,26 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="28.7">
       <c r="A49" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H49">
         <v>18</v>
@@ -6124,26 +6403,26 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.7">
       <c r="A50" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H50">
         <v>18</v>
@@ -6158,26 +6437,26 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="28.7">
       <c r="A51" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51">
         <v>18</v>
@@ -6192,26 +6471,26 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="43">
       <c r="A52" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H52">
         <v>18</v>
@@ -6226,26 +6505,26 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="28.7">
       <c r="A53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H53">
         <v>18</v>
@@ -6260,28 +6539,28 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.7">
       <c r="A54" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H54">
         <v>18</v>
@@ -6296,28 +6575,28 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.7">
       <c r="A55" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D55" s="31">
         <v>1966</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H55">
         <v>36.5</v>
@@ -6332,28 +6611,28 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16.7">
       <c r="A56" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D56" s="31">
         <v>1991</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H56">
         <v>54</v>
@@ -6368,26 +6647,26 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H57">
         <v>120</v>
@@ -6402,28 +6681,28 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>267</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>268</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H58">
         <v>91</v>
@@ -6438,28 +6717,28 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>271</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>272</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H59">
         <v>137</v>
@@ -6474,28 +6753,28 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>276</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H60">
         <v>99</v>
@@ -6510,26 +6789,26 @@
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H61">
         <v>23.5</v>
@@ -6544,26 +6823,26 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.7">
       <c r="A62" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H62">
         <v>241.5</v>
@@ -6578,26 +6857,26 @@
         <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="28.7">
       <c r="A63" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H63">
         <v>242</v>
@@ -6612,26 +6891,26 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.7">
       <c r="A64" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H64">
         <v>165.5</v>
@@ -6646,28 +6925,28 @@
         <v>8</v>
       </c>
       <c r="M64" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>291</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>292</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H65">
         <v>178</v>
@@ -6682,26 +6961,26 @@
         <v>4</v>
       </c>
       <c r="M65" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H66">
         <v>97</v>
@@ -6716,26 +6995,26 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H67">
         <v>131.5</v>
@@ -6750,26 +7029,26 @@
         <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H68">
         <v>146.80000000000001</v>
@@ -6784,30 +7063,30 @@
         <v>4</v>
       </c>
       <c r="M68" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D69" s="32">
         <v>1996</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H69">
         <v>137</v>
@@ -6822,26 +7101,26 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H70">
         <v>135.6</v>
@@ -6856,28 +7135,28 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>310</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H71">
         <v>137</v>
@@ -6892,26 +7171,26 @@
         <v>2</v>
       </c>
       <c r="M71" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="43">
       <c r="A72" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D72" s="32"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H72">
         <v>133</v>
@@ -6926,28 +7205,28 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="43">
       <c r="A73" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>316</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>317</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H73">
         <v>133</v>
@@ -6962,28 +7241,28 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="43">
       <c r="A74" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H74">
         <v>133</v>
@@ -6998,28 +7277,28 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="43">
       <c r="A75" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H75">
         <v>133</v>
@@ -7034,26 +7313,26 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D76" s="32"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H76">
         <v>182</v>
@@ -7068,28 +7347,28 @@
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D77" s="32" t="s">
         <v>325</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>326</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H77">
         <v>136</v>
@@ -7104,28 +7383,28 @@
         <v>2</v>
       </c>
       <c r="M77" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D78" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>330</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H78">
         <v>89.8</v>
@@ -7140,28 +7419,28 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H79">
         <v>103</v>
@@ -7176,26 +7455,26 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D80" s="32"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H80">
         <v>53.5</v>
@@ -7210,28 +7489,28 @@
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" s="32" t="s">
         <v>339</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>340</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H81">
         <v>40</v>
@@ -7246,26 +7525,26 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="28.7">
       <c r="A82" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H82">
         <v>25</v>
@@ -7280,26 +7559,26 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="28.7">
       <c r="A83" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D83" s="32"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H83">
         <v>172.5</v>
@@ -7314,28 +7593,28 @@
         <v>2</v>
       </c>
       <c r="M83" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H84">
         <v>164</v>
@@ -7350,26 +7629,26 @@
         <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D85" s="32"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H85">
         <v>69.5</v>
@@ -7384,30 +7663,30 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="28.7">
       <c r="A86" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D86" s="32">
         <v>1931</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H86">
         <v>90.5</v>
@@ -7422,26 +7701,26 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="28.7">
       <c r="A87" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H87">
         <v>105.3</v>
@@ -7456,26 +7735,26 @@
         <v>2</v>
       </c>
       <c r="M87" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D88" s="32"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H88">
         <v>34</v>
@@ -7490,26 +7769,26 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D89" s="32"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H89">
         <v>116</v>
@@ -7524,26 +7803,26 @@
         <v>2</v>
       </c>
       <c r="M89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="28.7">
       <c r="A90" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D90" s="32"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H90">
         <v>93.5</v>
@@ -7558,26 +7837,26 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="57.35">
       <c r="A91" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H91">
         <v>38.200000000000003</v>
@@ -7592,26 +7871,26 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="28.7">
       <c r="A92" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H92">
         <v>138.69999999999999</v>
@@ -7626,28 +7905,28 @@
         <v>2</v>
       </c>
       <c r="M92" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="28.7">
       <c r="A93" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H93">
         <v>137.5</v>
@@ -7662,26 +7941,26 @@
         <v>2</v>
       </c>
       <c r="M93" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H94">
         <v>78</v>
@@ -7696,26 +7975,26 @@
         <v>2</v>
       </c>
       <c r="M94" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H95">
         <v>95.5</v>
@@ -7730,28 +8009,28 @@
         <v>2</v>
       </c>
       <c r="M95" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H96">
         <v>102.5</v>
@@ -7766,26 +8045,26 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D97" s="32"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H97">
         <v>85</v>
@@ -7800,26 +8079,26 @@
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="32"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H98">
         <v>81.5</v>
@@ -7834,28 +8113,28 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C99" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>386</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>387</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H99">
         <v>68.5</v>
@@ -7870,28 +8149,28 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H100">
         <v>35</v>
@@ -7906,28 +8185,28 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C101" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D101" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H101">
         <v>137</v>
@@ -7942,28 +8221,28 @@
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H102">
         <v>137</v>
@@ -7978,28 +8257,28 @@
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H103">
         <v>137</v>
@@ -8014,28 +8293,28 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H104">
         <v>137</v>
@@ -8050,28 +8329,28 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C105" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="D105" s="33" t="s">
         <v>403</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>404</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H105">
         <v>450</v>
@@ -8086,28 +8365,28 @@
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C106" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D106" s="33" t="s">
         <v>407</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>408</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H106">
         <v>450</v>
@@ -8122,28 +8401,28 @@
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H107">
         <v>450</v>
@@ -8158,28 +8437,28 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H108">
         <v>450</v>
@@ -8194,28 +8473,28 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C109" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D109" s="33" t="s">
         <v>414</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>415</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H109">
         <v>118</v>
@@ -8230,28 +8509,28 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C110" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D110" s="33" t="s">
         <v>418</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>419</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H110">
         <v>35</v>
@@ -8266,26 +8545,26 @@
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="43">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="28.7">
       <c r="A112" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="22"/>
       <c r="F112" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H112">
         <v>69.5</v>
@@ -8300,26 +8579,26 @@
         <v>1</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H113">
         <v>44</v>
@@ -8334,26 +8613,26 @@
         <v>1</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B114" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D114" s="34"/>
       <c r="E114" s="22"/>
       <c r="F114" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H114">
         <v>95.5</v>
@@ -8368,26 +8647,26 @@
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="43">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="28.7">
       <c r="A115" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H115">
         <v>96.5</v>
@@ -8402,26 +8681,26 @@
         <v>1</v>
       </c>
       <c r="M115" s="22" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="28.7">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B116" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H116">
         <v>123</v>
@@ -8436,26 +8715,26 @@
         <v>1</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="43">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="28.7">
       <c r="A117" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H117">
         <v>43</v>
@@ -8470,26 +8749,26 @@
         <v>1</v>
       </c>
       <c r="M117" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="22"/>
       <c r="F118" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H118">
         <v>45</v>
@@ -8504,26 +8783,26 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B119" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D119" s="34"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H119">
         <v>134</v>
@@ -8538,30 +8817,30 @@
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="28.7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B120" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D120" s="34">
         <v>1980</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H120">
         <v>44.5</v>
@@ -8576,28 +8855,28 @@
         <v>1</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B121" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E121" s="22"/>
       <c r="F121" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H121">
         <v>129.5</v>
@@ -8612,26 +8891,26 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="28.7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H122">
         <v>96</v>
@@ -8646,26 +8925,26 @@
         <v>1</v>
       </c>
       <c r="M122" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H123">
         <v>73</v>
@@ -8680,26 +8959,26 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="28.7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H124">
         <v>26.8</v>
@@ -8714,26 +8993,26 @@
         <v>1</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="28.7">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H125">
         <v>61.5</v>
@@ -8748,26 +9027,26 @@
         <v>1</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B126" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D126" s="34"/>
       <c r="E126" s="22"/>
       <c r="F126" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H126">
         <v>47</v>
@@ -8782,26 +9061,26 @@
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="28.7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D127" s="34"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H127">
         <v>96</v>
@@ -8816,26 +9095,26 @@
         <v>1</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B128" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D128" s="34"/>
       <c r="E128" s="22"/>
       <c r="F128" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H128">
         <v>134</v>
@@ -8850,26 +9129,26 @@
         <v>2</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B129" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D129" s="34"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H129">
         <v>135</v>
@@ -8884,26 +9163,26 @@
         <v>2</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B130" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="24"/>
       <c r="F130" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G130" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H130">
         <v>62</v>
@@ -8918,26 +9197,26 @@
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B131" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="24"/>
       <c r="F131" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H131">
         <v>48</v>
@@ -8952,28 +9231,28 @@
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H132">
         <v>31</v>
@@ -8988,28 +9267,28 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="28.7">
       <c r="A133" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B133" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H133">
         <v>34</v>
@@ -9024,26 +9303,26 @@
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="28.7">
       <c r="A134" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B134" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="24"/>
       <c r="F134" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G134" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H134">
         <v>33</v>
@@ -9058,30 +9337,30 @@
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B136" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D136" s="35">
         <v>1963</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G136" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H136">
         <v>27</v>
@@ -9096,26 +9375,26 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="28.7">
       <c r="A137" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B137" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="24"/>
       <c r="F137" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H137">
         <v>30</v>
@@ -9130,26 +9409,26 @@
         <v>5</v>
       </c>
       <c r="M137" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B139" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="24"/>
       <c r="F139" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H139">
         <v>45.5</v>
@@ -9164,26 +9443,26 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B140" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="24"/>
       <c r="F140" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H140">
         <v>61</v>
@@ -9198,26 +9477,26 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B141" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="24"/>
       <c r="F141" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G141" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H141">
         <v>45.5</v>
@@ -9232,28 +9511,28 @@
         <v>1</v>
       </c>
       <c r="M141" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="28.7">
       <c r="A142" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C142" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D142" s="35" t="s">
         <v>495</v>
-      </c>
-      <c r="D142" s="35" t="s">
-        <v>496</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G142" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H142">
         <v>36.5</v>
@@ -9268,28 +9547,28 @@
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G143" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H143">
         <v>29</v>
@@ -9304,28 +9583,28 @@
         <v>1</v>
       </c>
       <c r="M143" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G144" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H144">
         <v>19.5</v>
@@ -9340,28 +9619,28 @@
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="28.7">
       <c r="A145" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G145" s="24" t="s">
         <v>503</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>504</v>
       </c>
       <c r="H145">
         <v>77.5</v>
@@ -9376,28 +9655,28 @@
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="28.7">
       <c r="A146" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B146" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C146" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D146" s="35" t="s">
         <v>506</v>
-      </c>
-      <c r="D146" s="35" t="s">
-        <v>507</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G146" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H146">
         <v>81</v>
@@ -9412,28 +9691,28 @@
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="28.7">
       <c r="A147" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B147" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H147">
         <v>74.5</v>
@@ -9448,28 +9727,28 @@
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="28.7">
       <c r="A148" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B148" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G148" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H148">
         <v>78</v>
@@ -9484,28 +9763,28 @@
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="28.7">
       <c r="A149" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B149" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H149">
         <v>76.7</v>
@@ -9520,28 +9799,28 @@
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B150" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H150">
         <v>60</v>
@@ -9556,28 +9835,28 @@
         <v>1</v>
       </c>
       <c r="M150" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B151" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C151" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="D151" s="35" t="s">
         <v>521</v>
-      </c>
-      <c r="D151" s="35" t="s">
-        <v>522</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H151">
         <v>39</v>
@@ -9592,26 +9871,26 @@
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="28.7">
       <c r="A152" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B152" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="24"/>
       <c r="F152" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G152" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H152">
         <v>26</v>
@@ -9626,26 +9905,26 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B153" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="24"/>
       <c r="F153" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G153" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H153">
         <v>43</v>
@@ -9660,28 +9939,28 @@
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B154" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C154" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>526</v>
-      </c>
-      <c r="D154" s="35" t="s">
-        <v>527</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H154">
         <v>38.5</v>
@@ -9696,26 +9975,26 @@
         <v>1</v>
       </c>
       <c r="M154" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B155" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="24"/>
       <c r="F155" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G155" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H155">
         <v>36.5</v>
@@ -9730,28 +10009,28 @@
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B156" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G156" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H156">
         <v>27</v>
@@ -9766,26 +10045,26 @@
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B157" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="24"/>
       <c r="F157" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="G157" s="25" t="s">
         <v>534</v>
-      </c>
-      <c r="G157" s="25" t="s">
-        <v>535</v>
       </c>
       <c r="I157">
         <v>29.3</v>
@@ -9797,30 +10076,30 @@
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D158" s="35">
         <v>1956</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H158">
         <v>44</v>
@@ -9835,28 +10114,28 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B159" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C159" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D159" s="35" t="s">
         <v>540</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>541</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H159">
         <v>91.5</v>
@@ -9871,26 +10150,26 @@
         <v>1</v>
       </c>
       <c r="M159" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B160" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="24"/>
       <c r="F160" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G160" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H160">
         <v>115.5</v>
@@ -9905,28 +10184,28 @@
         <v>1</v>
       </c>
       <c r="M160" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B161" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H161">
         <v>87</v>
@@ -9941,28 +10220,28 @@
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B162" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H162">
         <v>70</v>
@@ -9977,28 +10256,28 @@
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B163" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H163">
         <v>45</v>
@@ -10013,28 +10292,28 @@
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B164" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G164" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H164">
         <v>45</v>
@@ -10049,26 +10328,26 @@
         <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B165" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="24"/>
       <c r="F165" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H165">
         <v>44</v>
@@ -10083,28 +10362,28 @@
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B166" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C166" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="D166" s="35" t="s">
         <v>561</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>562</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G166" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H166">
         <v>73</v>
@@ -10119,26 +10398,26 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B167" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="24"/>
       <c r="F167" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H167">
         <v>109</v>
@@ -10153,26 +10432,26 @@
         <v>1</v>
       </c>
       <c r="M167" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B168" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="24"/>
       <c r="F168" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H168">
         <v>158</v>
@@ -10187,28 +10466,28 @@
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C169" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D169" s="35" t="s">
         <v>571</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>572</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G169" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H169">
         <v>74</v>
@@ -10223,26 +10502,26 @@
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="24"/>
       <c r="F170" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G170" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H170">
         <v>80</v>
@@ -10257,26 +10536,26 @@
         <v>1</v>
       </c>
       <c r="M170" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="24"/>
       <c r="F171" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G171" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H171">
         <v>53</v>
@@ -10291,28 +10570,28 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C172" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="D172" s="35" t="s">
         <v>581</v>
-      </c>
-      <c r="D172" s="35" t="s">
-        <v>582</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G172" s="24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H172">
         <v>64</v>
@@ -10327,28 +10606,28 @@
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B173" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E173" s="24"/>
       <c r="F173" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G173" s="24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H173">
         <v>90</v>
@@ -10363,26 +10642,26 @@
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="28.7">
       <c r="A174" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B174" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="24"/>
       <c r="F174" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G174" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H174">
         <v>23.6</v>
@@ -10397,28 +10676,28 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B175" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G175" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H175">
         <v>45</v>
@@ -10433,30 +10712,30 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B176" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D176" s="35">
         <v>1959</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F176" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G176" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H176">
         <v>42</v>
@@ -10471,28 +10750,28 @@
         <v>1</v>
       </c>
       <c r="M176" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B177" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G177" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H177">
         <v>44</v>
@@ -10507,24 +10786,24 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B181" t="s">
         <v>43</v>
       </c>
       <c r="C181" t="s">
+        <v>609</v>
+      </c>
+      <c r="F181" t="s">
+        <v>222</v>
+      </c>
+      <c r="G181" t="s">
         <v>610</v>
-      </c>
-      <c r="F181" t="s">
-        <v>223</v>
-      </c>
-      <c r="G181" t="s">
-        <v>611</v>
       </c>
       <c r="H181">
         <v>47.8</v>
@@ -10539,24 +10818,24 @@
         <v>1</v>
       </c>
       <c r="M181" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B182" t="s">
         <v>43</v>
       </c>
       <c r="C182" t="s">
+        <v>612</v>
+      </c>
+      <c r="F182" t="s">
+        <v>131</v>
+      </c>
+      <c r="G182" t="s">
         <v>613</v>
-      </c>
-      <c r="F182" t="s">
-        <v>132</v>
-      </c>
-      <c r="G182" t="s">
-        <v>614</v>
       </c>
       <c r="H182">
         <v>33</v>
@@ -10571,24 +10850,24 @@
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B183" t="s">
         <v>43</v>
       </c>
       <c r="C183" t="s">
+        <v>615</v>
+      </c>
+      <c r="F183" t="s">
+        <v>131</v>
+      </c>
+      <c r="G183" t="s">
         <v>616</v>
-      </c>
-      <c r="F183" t="s">
-        <v>132</v>
-      </c>
-      <c r="G183" t="s">
-        <v>617</v>
       </c>
       <c r="H183">
         <v>39</v>
@@ -10603,7 +10882,7 @@
         <v>1</v>
       </c>
       <c r="M183" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -10718,31 +10997,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC34231-9CEA-47FA-BFD6-376FA1E0BDE0}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="28.7">
       <c r="A1" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>605</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>602</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>603</v>
       </c>
       <c r="H1" s="27">
         <v>130</v>
@@ -10757,28 +11036,28 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>600</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>607</v>
-      </c>
       <c r="D2" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H2" s="27">
         <v>27</v>
@@ -10793,28 +11072,28 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>601</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>602</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>603</v>
       </c>
       <c r="H3">
         <v>130</v>
@@ -10829,33 +11108,33 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -10870,28 +11149,28 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>165</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8">
         <v>58</v>
@@ -10906,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -10954,8 +11233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DC95A6-1C20-4ED6-9D52-757DABF4343F}">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -10966,10 +11245,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" t="s">
         <v>633</v>
-      </c>
-      <c r="B1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.7">
@@ -10977,7 +11256,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.7">
@@ -10985,7 +11264,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.7">
@@ -10993,7 +11272,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.7">
@@ -11001,7 +11280,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.7">
@@ -11009,7 +11288,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.7">
@@ -11017,7 +11296,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.7">
@@ -11025,7 +11304,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.7">
@@ -11033,7 +11312,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.7">
@@ -11041,7 +11320,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.7">
@@ -11049,7 +11328,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.7">
@@ -11057,7 +11336,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.7">
@@ -11065,7 +11344,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.7">
@@ -11073,7 +11352,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.7">
@@ -11081,7 +11360,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.7">
@@ -11089,7 +11368,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.7">
@@ -11097,7 +11376,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.7">
@@ -11105,7 +11384,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.7">
@@ -11113,7 +11392,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.7">
@@ -11121,7 +11400,7 @@
         <v>71</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.7">
@@ -11129,7 +11408,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.7">
@@ -11137,7 +11416,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.7">
@@ -11145,7 +11424,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23" s="12"/>
     </row>
@@ -11154,7 +11433,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.35">
@@ -11162,7 +11441,7 @@
         <v>71</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.7">
@@ -11170,7 +11449,7 @@
         <v>71</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.7">
@@ -11178,7 +11457,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.7">
@@ -11186,7 +11465,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.7">
@@ -11194,7 +11473,7 @@
         <v>71</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.7">
@@ -11202,7 +11481,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.7">
@@ -11210,7 +11489,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.7">
@@ -11218,7 +11497,7 @@
         <v>71</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.7">
@@ -11226,7 +11505,7 @@
         <v>71</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.7">
@@ -11234,7 +11513,7 @@
         <v>71</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.7">
@@ -11242,7 +11521,7 @@
         <v>71</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.7">
@@ -11250,7 +11529,7 @@
         <v>71</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.7">
@@ -11258,7 +11537,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.7">
@@ -11266,7 +11545,7 @@
         <v>71</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.7">
@@ -11274,7 +11553,7 @@
         <v>71</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.7">
@@ -11282,7 +11561,7 @@
         <v>71</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.7">
@@ -11290,1119 +11569,1119 @@
         <v>71</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="8" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.35">
       <c r="A112" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.35">
       <c r="A113" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.35">
       <c r="A114" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.35">
       <c r="A115" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.35">
       <c r="A116" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.35">
       <c r="A117" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.35">
       <c r="A118" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.35">
       <c r="A119" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.35">
       <c r="A120" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.35">
       <c r="A121" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.35">
       <c r="A122" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.35">
       <c r="A123" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.35">
       <c r="A124" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.35">
       <c r="A125" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.35">
       <c r="A126" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.35">
       <c r="A127" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.35">
       <c r="A128" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.35">
       <c r="A129" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.35">
       <c r="A130" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.35">
       <c r="A131" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.35">
       <c r="A132" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.35">
       <c r="A133" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.35">
       <c r="A134" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.35">
       <c r="A135" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.35">
       <c r="A136" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.35">
       <c r="A137" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.35">
       <c r="A138" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.35">
       <c r="A139" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.35">
       <c r="A140" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.35">
       <c r="A141" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.35">
       <c r="A142" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.35">
       <c r="A143" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.35">
       <c r="A144" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.35">
       <c r="A145" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.35">
       <c r="A146" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.35">
       <c r="A147" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.35">
       <c r="A148" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.35">
       <c r="A149" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.35">
       <c r="A150" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.35">
       <c r="A151" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.35">
       <c r="A152" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.35">
       <c r="A153" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.35">
       <c r="A154" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.35">
       <c r="A155" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.35">
       <c r="A156" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.35">
       <c r="A157" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.35">
       <c r="A158" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.35">
       <c r="A159" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.35">
       <c r="A160" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.35">
       <c r="A161" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.35">
       <c r="A162" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.35">
       <c r="A163" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.35">
       <c r="A164" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.35">
       <c r="A165" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.35">
       <c r="A166" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.35">
       <c r="A167" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.35">
       <c r="A168" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.35">
       <c r="A169" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.35">
       <c r="A170" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.35">
       <c r="A171" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.35">
       <c r="A172" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.35">
       <c r="A173" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.35">
       <c r="A174" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.35">
       <c r="A175" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.35">
       <c r="A176" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.35">
       <c r="A177" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.35">
       <c r="A181" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.35">
       <c r="A182" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.35">
       <c r="A183" s="6" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -12536,7 +12815,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.35">
@@ -12544,7 +12823,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.35">
@@ -12552,7 +12831,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -12581,122 +12860,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -12706,12 +12985,423 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D559C658-0E26-48C2-9425-97D0AB2EAD7F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.87890625" customWidth="1"/>
+    <col min="2" max="2" width="27.52734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.35">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.35">
+      <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.35">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.35">
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.35">
+      <c r="A8" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D7542A-C953-471E-A69B-C6BB163F2B37}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.7"/>
+  <cols>
+    <col min="1" max="1" width="8.9375" style="1"/>
+    <col min="2" max="2" width="8.9375" customWidth="1"/>
+    <col min="3" max="3" width="12" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.350000000000001" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.350000000000001" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>707</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>707</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>707</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>707</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>707</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>707</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>707</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>707</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>707</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/seeders/seedsRawData.xlsx
+++ b/seeders/seedsRawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smili\nodeJs\art_collection\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D06A95-B935-4F38-B8B7-7284FCFA87D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AE2C9F-9BBF-4D11-BC08-BD5F07C4A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" firstSheet="6" activeTab="9" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
   </bookViews>
   <sheets>
     <sheet name="artist" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="908">
   <si>
     <t>name</t>
   </si>
@@ -2344,93 +2344,9 @@
     <t>群鴻戲海－紀念臺靜農大師名家書法聯展</t>
   </si>
   <si>
-    <t>https://imgur.com/oE60Ong</t>
-  </si>
-  <si>
-    <t>https://imgur.com/VVYmG5q</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
-    <t>https://imgur.com/HKF1JMi</t>
-  </si>
-  <si>
-    <t>https://imgur.com/Ztv98vn</t>
-  </si>
-  <si>
-    <t>https://imgur.com/YQePcTf</t>
-  </si>
-  <si>
-    <t>https://imgur.com/QUFpw5R</t>
-  </si>
-  <si>
-    <t>https://imgur.com/AXEWuvy</t>
-  </si>
-  <si>
-    <t>https://imgur.com/pnYPTv3</t>
-  </si>
-  <si>
-    <t>https://imgur.com/AktAYxF</t>
-  </si>
-  <si>
-    <t>https://imgur.com/EV0Tu4a</t>
-  </si>
-  <si>
-    <t>https://imgur.com/8aHJIiF</t>
-  </si>
-  <si>
-    <t>https://imgur.com/1mpGQfg</t>
-  </si>
-  <si>
-    <t>https://imgur.com/HbYXLkZ</t>
-  </si>
-  <si>
-    <t>https://imgur.com/iomvTxV</t>
-  </si>
-  <si>
-    <t>https://imgur.com/WaRbJyc</t>
-  </si>
-  <si>
-    <t>https://imgur.com/boV6JWy</t>
-  </si>
-  <si>
-    <t>https://imgur.com/izok64b</t>
-  </si>
-  <si>
-    <t>https://imgur.com/qVAIrNM</t>
-  </si>
-  <si>
-    <t>https://imgur.com/YOuUmxU</t>
-  </si>
-  <si>
-    <t>https://imgur.com/jtiRAsm</t>
-  </si>
-  <si>
-    <t>https://imgur.com/lBeH70d</t>
-  </si>
-  <si>
-    <t>https://imgur.com/vw4TW5s</t>
-  </si>
-  <si>
-    <t>https://imgur.com/GHrxYrJ</t>
-  </si>
-  <si>
-    <t>https://imgur.com/fUbU0P7</t>
-  </si>
-  <si>
-    <t>https://imgur.com/LaCfhxe</t>
-  </si>
-  <si>
-    <t>https://imgur.com/TgystBs</t>
-  </si>
-  <si>
-    <t>https://imgur.com/oUlk00t</t>
-  </si>
-  <si>
-    <t>https://imgur.com/PyxlZnl</t>
-  </si>
-  <si>
     <t>[</t>
   </si>
   <si>
@@ -2459,6 +2375,582 @@
   </si>
   <si>
     <t>]</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oE60Ong.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VVYmG5q.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HKF1JMi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ztv98vn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YQePcTf.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QUFpw5R.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AXEWuvy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pnYPTv3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AktAYxF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EV0Tu4a.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8aHJIiF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1mpGQfg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HbYXLkZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iomvTxV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WaRbJyc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/boV6JWy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/izok64b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qVAIrNM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YOuUmxU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jtiRAsm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lBeH70d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vw4TW5s.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GHrxYrJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fUbU0P7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LaCfhxe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TgystBs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oUlk00t.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PyxlZnl.jpg</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GsDO5ez.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QyEWYxs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PFoq00F.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WLt1sbV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yZwWaGu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xAybNnx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/scjC2yH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IZjAD2j.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PckYvio.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ruS9nfN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HolsUtN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WIFtsCY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/r1XbwxO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SDDLbfa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Vn3YwX7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Enf2Y6R.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/s5XkYcH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9QhMGvh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Q3YVr1m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8RVrZrT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9ERXAz8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KvkPrcF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/V5l6N0F.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/v1yNjcU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0rCdU0m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/stOHELe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/N9TLzED.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DrUa3nW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9nBGTsB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/U4wtUsp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OsrUz0S.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/395riYS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VdbxZvj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/t170xN6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Agb9Z5W.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/E1b5zSy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IvU8aa5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kvR3Dd4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tR8wNmd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RU4wdxL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xqnSk5v.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/phFUHVc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3FlSnep.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oWCWAUU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pJUaWI2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XLeOcss.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FIvXzYK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0KvlcoM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0vHcKJr.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WUj0NYh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DAcgu2F.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XqFksme.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EQ3tyiX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0y1OV1h.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nURTPOz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0Cf1Y1L.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/62zOFYu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rmNzjF7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/M2mY4Lx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SNagijY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jEE4tew.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/G1oR3bE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EZ8gUO1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zNrobM6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4dkTPhz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0qO8s3X.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/c1G8kJY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QQVulRI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1SuDiqo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JtBAojt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VnoxP59.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MSntSEx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aAoyC2T.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ce3OzzV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JhAB3uV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kAj8WXI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JLyfezm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xvYXzWS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QOYwDem.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fDlleKw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/09qcIEx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qRdhzDW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/f3gO20S.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3LxQrjl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9w8HsWI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Z10VyRF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FjkJ7tK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZR8pdMk.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lob19io.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xlopoS9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6nnn8P7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JA0renb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/x7JTYEY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lJU7Xk8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/G4exzbq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yAfmpmK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fw85ACg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vDmeZK1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lAvacI6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LGlBcKR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Je0LoyC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oFauDDp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Qi9mHzK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ih9ggS6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xUNy89g.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mQLoKdJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dZMQJtH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H74HIfd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qnYMz7t.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KUqMOkS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H8Mt16c.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lwIV92g.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lDYA1Bw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8ZFxamV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zP9GmCD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DvLgNmK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aTlOtLa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Z73kPFf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0UmbJEF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uZ4bgSC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HdixVHX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iZUeN7o.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oUvmijr.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NdB8VzQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HI0YLJa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tqOedAY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/e1pdJkA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QQyfDjS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/po1WEgi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ruWY0gB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hOaZRbb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iQN8Yun.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6aWRb3I.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zmuLD8t.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sajim6N.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/36NOAwu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ir9GZXy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ls6vjvH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TnYZEyC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uFd4XkN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/W3AoXCe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GMPpX5d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ERLmr3u.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yLXKRTs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FS62vvY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CKjXZrj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IkZbkZG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1ZWNpL8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rRIPeOd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/U3Sl0eH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EfgzuNH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pzA4y0c.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vV982Z4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kiaOduo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZrEqyuD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ST20xqo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NhrZn0g.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QlOEwgM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aBl5bEj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GjASiq0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Df4o7lz.jpg</t>
+  </si>
+  <si>
+    <t>沒有圖</t>
+  </si>
+  <si>
+    <t>待確認是否有圖可取得，不然就不放這些作品、exhibitionArtwork也刪掉</t>
   </si>
 </sst>
 </file>
@@ -2468,7 +2960,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2574,8 +3066,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2597,6 +3097,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2645,12 +3151,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2798,11 +3307,46 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3225,6 +3769,28 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4529,10 +5095,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC763D51-CAFE-4FB0-A35D-57A8923D8AEE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -4542,13 +5108,13 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.7">
       <c r="A2" s="2"/>
       <c r="D2" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.7">
@@ -4556,13 +5122,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.7">
       <c r="A4" s="2"/>
       <c r="D4" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.7">
@@ -4570,13 +5136,13 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.7">
       <c r="A6" s="2"/>
       <c r="D6" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.7">
@@ -4584,13 +5150,13 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.7">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.7">
@@ -4598,13 +5164,141 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>743</v>
-      </c>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.7">
+      <c r="A15" s="1"/>
+      <c r="C15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.7">
+      <c r="A16" s="2"/>
+      <c r="C16" s="45"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.7">
+      <c r="A17" s="2"/>
+      <c r="C17" s="45"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.7">
+      <c r="A18" s="2"/>
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.7">
+      <c r="A19" s="2"/>
+      <c r="C19" s="47"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.7">
+      <c r="A20" s="2"/>
+      <c r="C20" s="48"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.7">
+      <c r="A21" s="2"/>
+      <c r="C21" s="48"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.7">
+      <c r="A22" s="2"/>
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.7">
+      <c r="A23" s="2"/>
+      <c r="C23" s="48"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.7">
+      <c r="A24" s="2"/>
+      <c r="C24" s="48"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.7">
+      <c r="A25" s="2"/>
+      <c r="C25" s="45"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.7">
+      <c r="A26" s="2"/>
+      <c r="C26" s="48"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.7">
+      <c r="A27" s="2"/>
+      <c r="C27" s="48"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.7">
+      <c r="A28" s="2"/>
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.7">
+      <c r="A29" s="2"/>
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.7">
+      <c r="A30" s="2"/>
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.7">
+      <c r="A31" s="2"/>
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.7">
+      <c r="A32" s="2"/>
+      <c r="C32" s="48"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.7">
+      <c r="A33" s="2"/>
+      <c r="C33" s="46"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.7">
+      <c r="A34" s="2"/>
+      <c r="C34" s="48"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.7">
+      <c r="A35" s="2"/>
+      <c r="C35" s="46"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.7">
+      <c r="A36" s="3"/>
+      <c r="C36" s="48"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.7">
+      <c r="A37" s="4"/>
+      <c r="C37" s="45"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.7">
+      <c r="A38" s="4"/>
+      <c r="C38" s="48"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.7">
+      <c r="A39" s="4"/>
+      <c r="C39" s="46"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.7">
+      <c r="A40" s="4"/>
+      <c r="C40" s="48"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.7">
+      <c r="A41" s="4"/>
+      <c r="C41" s="48"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.7">
+      <c r="A42" s="4"/>
+      <c r="C42" s="48"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.7">
+      <c r="A43" s="4"/>
+      <c r="C43" s="48"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.7">
+      <c r="A44" s="1"/>
+      <c r="C44" s="48"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.7">
+      <c r="A45" s="1"/>
+      <c r="C45" s="48"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.7">
+      <c r="A46" s="5"/>
+      <c r="C46" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4616,7 +5310,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -4714,21 +5408,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B7D3C-9641-4757-A4D3-84371419D231}">
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="13.3515625" customWidth="1"/>
     <col min="3" max="3" width="12.05859375" customWidth="1"/>
-    <col min="4" max="4" width="10.8203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.17578125" style="28" customWidth="1"/>
     <col min="5" max="5" width="7.76171875" customWidth="1"/>
     <col min="6" max="6" width="11.1171875" customWidth="1"/>
     <col min="7" max="7" width="13.41015625" customWidth="1"/>
-    <col min="8" max="10" width="8.9375" customWidth="1"/>
+    <col min="8" max="11" width="8.9375" customWidth="1"/>
+    <col min="12" max="12" width="35.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4765,6 +5460,9 @@
       <c r="K1" t="s">
         <v>618</v>
       </c>
+      <c r="L1" t="s">
+        <v>692</v>
+      </c>
       <c r="M1" t="s">
         <v>688</v>
       </c>
@@ -4799,6 +5497,9 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2" t="s">
+        <v>809</v>
+      </c>
       <c r="M2" s="40" t="s">
         <v>652</v>
       </c>
@@ -4834,6 +5535,9 @@
       </c>
       <c r="K3">
         <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>810</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>654</v>
@@ -4869,6 +5573,9 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4" t="s">
+        <v>811</v>
+      </c>
       <c r="M4" s="40" t="s">
         <v>647</v>
       </c>
@@ -4903,6 +5610,9 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5" t="s">
+        <v>812</v>
+      </c>
       <c r="M5" s="40" t="s">
         <v>652</v>
       </c>
@@ -4937,6 +5647,9 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6" t="s">
+        <v>814</v>
+      </c>
       <c r="M6" s="40" t="s">
         <v>652</v>
       </c>
@@ -4971,6 +5684,9 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7" t="s">
+        <v>815</v>
+      </c>
       <c r="M7" s="40" t="s">
         <v>655</v>
       </c>
@@ -5005,6 +5721,9 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8" t="s">
+        <v>816</v>
+      </c>
       <c r="M8" s="40" t="s">
         <v>655</v>
       </c>
@@ -5039,6 +5758,9 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9" t="s">
+        <v>820</v>
+      </c>
       <c r="M9" s="40" t="s">
         <v>638</v>
       </c>
@@ -5073,6 +5795,9 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10" t="s">
+        <v>821</v>
+      </c>
       <c r="M10" s="40" t="s">
         <v>656</v>
       </c>
@@ -5107,6 +5832,9 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11" t="s">
+        <v>822</v>
+      </c>
       <c r="M11" s="40" t="s">
         <v>656</v>
       </c>
@@ -5141,6 +5869,9 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12" t="s">
+        <v>823</v>
+      </c>
       <c r="M12" s="40" t="s">
         <v>653</v>
       </c>
@@ -5175,6 +5906,9 @@
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13" t="s">
+        <v>824</v>
+      </c>
       <c r="M13" s="40" t="s">
         <v>657</v>
       </c>
@@ -5211,6 +5945,9 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14" t="s">
+        <v>825</v>
+      </c>
       <c r="M14" s="40" t="s">
         <v>658</v>
       </c>
@@ -5247,6 +5984,9 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15" t="s">
+        <v>826</v>
+      </c>
       <c r="M15" s="40" t="s">
         <v>659</v>
       </c>
@@ -5283,6 +6023,9 @@
       <c r="K16">
         <v>1</v>
       </c>
+      <c r="L16" t="s">
+        <v>827</v>
+      </c>
       <c r="M16" s="40" t="s">
         <v>655</v>
       </c>
@@ -5319,6 +6062,9 @@
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="L17" t="s">
+        <v>828</v>
+      </c>
       <c r="M17" s="40" t="s">
         <v>657</v>
       </c>
@@ -5354,6 +6100,9 @@
       </c>
       <c r="K18">
         <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>829</v>
       </c>
       <c r="M18" s="40" t="s">
         <v>662</v>
@@ -5389,6 +6138,9 @@
       <c r="K19">
         <v>1</v>
       </c>
+      <c r="L19" t="s">
+        <v>838</v>
+      </c>
       <c r="M19" s="40" t="s">
         <v>652</v>
       </c>
@@ -5424,6 +6176,9 @@
       </c>
       <c r="K20">
         <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>839</v>
       </c>
       <c r="M20" s="40" t="s">
         <v>660</v>
@@ -5459,6 +6214,9 @@
       <c r="K21">
         <v>1</v>
       </c>
+      <c r="L21" t="s">
+        <v>840</v>
+      </c>
       <c r="M21" s="40" t="s">
         <v>660</v>
       </c>
@@ -5493,6 +6251,9 @@
       <c r="K22">
         <v>1</v>
       </c>
+      <c r="L22" t="s">
+        <v>844</v>
+      </c>
       <c r="M22" s="40" t="s">
         <v>661</v>
       </c>
@@ -5527,42 +6288,11 @@
       <c r="K23">
         <v>1</v>
       </c>
+      <c r="L23" t="s">
+        <v>845</v>
+      </c>
       <c r="M23" s="40" t="s">
         <v>661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.7">
-      <c r="A24" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24">
-        <v>34.5</v>
-      </c>
-      <c r="I24">
-        <v>60.5</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.7">
@@ -5597,6 +6327,9 @@
       <c r="K25">
         <v>1</v>
       </c>
+      <c r="L25" t="s">
+        <v>830</v>
+      </c>
       <c r="M25" s="40" t="s">
         <v>653</v>
       </c>
@@ -5633,6 +6366,9 @@
       <c r="K26">
         <v>1</v>
       </c>
+      <c r="L26" t="s">
+        <v>818</v>
+      </c>
       <c r="M26" s="40" t="s">
         <v>647</v>
       </c>
@@ -5669,6 +6405,9 @@
       <c r="K27">
         <v>1</v>
       </c>
+      <c r="L27" t="s">
+        <v>836</v>
+      </c>
       <c r="M27" s="40" t="s">
         <v>654</v>
       </c>
@@ -5705,6 +6444,9 @@
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="L28" t="s">
+        <v>837</v>
+      </c>
       <c r="M28" s="40" t="s">
         <v>663</v>
       </c>
@@ -5741,6 +6483,9 @@
       <c r="K29">
         <v>1</v>
       </c>
+      <c r="L29" t="s">
+        <v>841</v>
+      </c>
       <c r="M29" s="40" t="s">
         <v>664</v>
       </c>
@@ -5777,6 +6522,9 @@
       <c r="K30">
         <v>1</v>
       </c>
+      <c r="L30" t="s">
+        <v>843</v>
+      </c>
       <c r="M30" s="40" t="s">
         <v>663</v>
       </c>
@@ -5809,6 +6557,9 @@
       </c>
       <c r="K31">
         <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>813</v>
       </c>
       <c r="M31" s="40" t="s">
         <v>647</v>
@@ -5844,6 +6595,9 @@
       <c r="K32">
         <v>1</v>
       </c>
+      <c r="L32" t="s">
+        <v>817</v>
+      </c>
       <c r="M32" s="40" t="s">
         <v>647</v>
       </c>
@@ -5878,6 +6632,9 @@
       <c r="K33">
         <v>1</v>
       </c>
+      <c r="L33" t="s">
+        <v>819</v>
+      </c>
       <c r="M33" s="40" t="s">
         <v>654</v>
       </c>
@@ -5912,6 +6669,9 @@
       <c r="K34">
         <v>1</v>
       </c>
+      <c r="L34" t="s">
+        <v>831</v>
+      </c>
       <c r="M34" s="40" t="s">
         <v>663</v>
       </c>
@@ -5946,6 +6706,9 @@
       <c r="K35">
         <v>1</v>
       </c>
+      <c r="L35" t="s">
+        <v>832</v>
+      </c>
       <c r="M35" s="40" t="s">
         <v>663</v>
       </c>
@@ -5980,6 +6743,9 @@
       <c r="K36">
         <v>1</v>
       </c>
+      <c r="L36" t="s">
+        <v>833</v>
+      </c>
       <c r="M36" s="40" t="s">
         <v>663</v>
       </c>
@@ -6014,6 +6780,9 @@
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="L37" t="s">
+        <v>834</v>
+      </c>
       <c r="M37" s="40" t="s">
         <v>663</v>
       </c>
@@ -6048,6 +6817,9 @@
       <c r="K38">
         <v>1</v>
       </c>
+      <c r="L38" t="s">
+        <v>835</v>
+      </c>
       <c r="M38" s="40" t="s">
         <v>638</v>
       </c>
@@ -6082,221 +6854,240 @@
       <c r="K39">
         <v>1</v>
       </c>
+      <c r="L39" t="s">
+        <v>842</v>
+      </c>
       <c r="M39" s="40" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.7">
+    <row r="41" spans="1:13">
       <c r="A41" s="16" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="17"/>
+        <v>290</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="H41">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I41">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>800</v>
       </c>
       <c r="M41" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="28.7">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="16" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="31">
-        <v>1993</v>
-      </c>
-      <c r="E42" s="18"/>
+        <v>328</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>219</v>
+        <v>330</v>
       </c>
       <c r="H42">
-        <v>136.6</v>
+        <v>89.8</v>
       </c>
       <c r="I42">
-        <v>31.4</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>792</v>
       </c>
       <c r="M42" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="100.35">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="43">
       <c r="A43" s="16" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>215</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D43" s="32"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="H43">
-        <v>216.7</v>
+        <v>133</v>
       </c>
       <c r="I43">
-        <v>37.700000000000003</v>
+        <v>52</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
         <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>769</v>
       </c>
       <c r="M43" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.7">
-      <c r="A44" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16" t="s">
+    <row r="44" spans="1:13">
+      <c r="A44" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>227</v>
+      <c r="G44" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="H44">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="I44">
-        <v>39.6</v>
+        <v>89</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>793</v>
       </c>
       <c r="M44" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="16" t="s">
-        <v>228</v>
+        <v>378</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>231</v>
+        <v>379</v>
       </c>
       <c r="H45">
-        <v>127</v>
+        <v>102.5</v>
       </c>
       <c r="I45">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>798</v>
       </c>
       <c r="M45" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16" t="s">
+      <c r="A46" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>234</v>
+      <c r="G46" s="20" t="s">
+        <v>390</v>
       </c>
       <c r="H46">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I46">
-        <v>35</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>776</v>
       </c>
       <c r="M46" t="s">
         <v>668</v>
@@ -6304,13 +7095,13 @@
     </row>
     <row r="47" spans="1:13" ht="28.7">
       <c r="A47" s="16" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="16"/>
@@ -6318,69 +7109,75 @@
         <v>131</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H47">
         <v>18</v>
       </c>
       <c r="I47">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
         <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>787</v>
       </c>
       <c r="M47" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="28.7">
+    <row r="48" spans="1:13">
       <c r="A48" s="16" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" s="17"/>
+        <v>229</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="16"/>
       <c r="F48" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I48">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>801</v>
       </c>
       <c r="M48" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28.7">
+    <row r="49" spans="1:13">
       <c r="A49" s="16" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="16"/>
@@ -6388,13 +7185,13 @@
         <v>131</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="H49">
-        <v>18</v>
+        <v>135.6</v>
       </c>
       <c r="I49">
-        <v>48</v>
+        <v>65.8</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -6402,135 +7199,151 @@
       <c r="K49">
         <v>1</v>
       </c>
+      <c r="L49" t="s">
+        <v>764</v>
+      </c>
       <c r="M49" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.7">
       <c r="A50" s="16" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="H50">
-        <v>18</v>
+        <v>105.3</v>
       </c>
       <c r="I50">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>765</v>
       </c>
       <c r="M50" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.7">
+    <row r="51" spans="1:13">
       <c r="A51" s="16" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="H51">
-        <v>18</v>
+        <v>69.5</v>
       </c>
       <c r="I51">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
         <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>773</v>
       </c>
       <c r="M51" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="43">
+    <row r="52" spans="1:13" ht="28.7">
       <c r="A52" s="16" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="16"/>
+        <v>218</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1993</v>
+      </c>
+      <c r="E52" s="18"/>
       <c r="F52" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="H52">
-        <v>18</v>
+        <v>136.6</v>
       </c>
       <c r="I52">
-        <v>51.5</v>
+        <v>31.4</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L52" s="46" t="s">
+        <v>762</v>
       </c>
       <c r="M52" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.7">
+    <row r="53" spans="1:13" ht="15.7">
       <c r="A53" s="16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="16"/>
+        <v>257</v>
+      </c>
+      <c r="D53" s="31">
+        <v>1966</v>
+      </c>
+      <c r="E53" s="18"/>
       <c r="F53" s="16" t="s">
         <v>131</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="H53">
-        <v>18</v>
+        <v>36.5</v>
       </c>
       <c r="I53">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -6538,147 +7351,160 @@
       <c r="K53">
         <v>1</v>
       </c>
+      <c r="L53" t="s">
+        <v>779</v>
+      </c>
       <c r="M53" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="28.7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="16" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="17"/>
+        <v>284</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="H54">
-        <v>18</v>
+        <v>81.5</v>
       </c>
       <c r="I54">
-        <v>51.5</v>
+        <v>23.5</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
         <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>795</v>
       </c>
       <c r="M54" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.7">
+    <row r="55" spans="1:13" ht="28.7">
       <c r="A55" s="16" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" s="31">
-        <v>1966</v>
-      </c>
-      <c r="E55" s="18"/>
+        <v>281</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="16" t="s">
-        <v>131</v>
+        <v>628</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="H55">
-        <v>36.5</v>
+        <v>241.5</v>
       </c>
       <c r="I55">
-        <v>50.5</v>
+        <v>60.5</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>772</v>
       </c>
       <c r="M55" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="16.7">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.7">
       <c r="A56" s="16" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="31">
-        <v>1991</v>
-      </c>
-      <c r="E56" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="17"/>
       <c r="F56" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>261</v>
+      <c r="G56" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="H56">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="I56">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="L56" t="s">
+        <v>780</v>
       </c>
       <c r="M56" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>264</v>
+      <c r="A57" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="H57">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="I57">
-        <v>64.8</v>
+        <v>34.5</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
         <v>1</v>
+      </c>
+      <c r="L57" s="46" t="s">
+        <v>760</v>
       </c>
       <c r="M57" t="s">
         <v>669</v>
@@ -6686,29 +7512,27 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="16" t="s">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>267</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D58" s="32"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="H58">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I58">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -6716,91 +7540,100 @@
       <c r="K58">
         <v>1</v>
       </c>
+      <c r="L58" t="s">
+        <v>797</v>
+      </c>
       <c r="M58" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="28.7">
       <c r="A59" s="16" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="H59">
-        <v>137</v>
+        <v>137.5</v>
       </c>
       <c r="I59">
-        <v>74</v>
+        <v>34.5</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>807</v>
       </c>
       <c r="M59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="16" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="H60">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="I60">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L60" t="s">
+        <v>791</v>
       </c>
       <c r="M60" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="16" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="16"/>
@@ -6808,19 +7641,22 @@
         <v>222</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="H61">
-        <v>23.5</v>
+        <v>78</v>
       </c>
       <c r="I61">
-        <v>425.2</v>
+        <v>15</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>806</v>
       </c>
       <c r="M61" t="s">
         <v>668</v>
@@ -6828,10 +7664,10 @@
     </row>
     <row r="62" spans="1:13" ht="28.7">
       <c r="A62" s="16" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>281</v>
@@ -6839,16 +7675,16 @@
       <c r="D62" s="32"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
-        <v>628</v>
+        <v>222</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="H62">
-        <v>241.5</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="I62">
-        <v>60.5</v>
+        <v>29.1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -6856,33 +7692,38 @@
       <c r="K62">
         <v>2</v>
       </c>
+      <c r="L62" t="s">
+        <v>745</v>
+      </c>
       <c r="M62" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="28.7">
-      <c r="A63" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>285</v>
+    <row r="63" spans="1:13">
+      <c r="A63" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="H63">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="I63">
-        <v>121.5</v>
+        <v>26</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -6890,39 +7731,45 @@
       <c r="K63">
         <v>1</v>
       </c>
+      <c r="L63" t="s">
+        <v>755</v>
+      </c>
       <c r="M63" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.7">
       <c r="A64" s="16" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="H64">
-        <v>165.5</v>
+        <v>172.5</v>
       </c>
       <c r="I64">
-        <v>55.8</v>
+        <v>37</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="L64" t="s">
+        <v>781</v>
       </c>
       <c r="M64" t="s">
         <v>668</v>
@@ -6930,63 +7777,66 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="16" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>291</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D65" s="32"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="H65">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="I65">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>752</v>
       </c>
       <c r="M65" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="16" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" s="32"/>
+        <v>266</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>267</v>
+      </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="H66">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I66">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -6994,39 +7844,47 @@
       <c r="K66">
         <v>1</v>
       </c>
+      <c r="L66" t="s">
+        <v>805</v>
+      </c>
       <c r="M66" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="43">
       <c r="A67" s="16" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D67" s="32"/>
+        <v>320</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H67">
-        <v>131.5</v>
+        <v>133</v>
       </c>
       <c r="I67">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>766</v>
       </c>
       <c r="M67" t="s">
         <v>668</v>
@@ -7034,99 +7892,105 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="16" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D68" s="32"/>
+        <v>332</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>329</v>
+      </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="H68">
-        <v>146.80000000000001</v>
+        <v>103</v>
       </c>
       <c r="I68">
-        <v>40</v>
+        <v>35.5</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>782</v>
       </c>
       <c r="M68" t="s">
-        <v>668</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="16" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="D69" s="32">
-        <v>1996</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>620</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" s="16"/>
       <c r="F69" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="H69">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I69">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
+        <v>803</v>
       </c>
       <c r="M69" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="28.7">
       <c r="A70" s="16" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16" t="s">
-        <v>131</v>
+        <v>629</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="H70">
-        <v>135.6</v>
+        <v>242</v>
       </c>
       <c r="I70">
-        <v>65.8</v>
+        <v>121.5</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -7134,141 +7998,151 @@
       <c r="K70">
         <v>1</v>
       </c>
+      <c r="L70" t="s">
+        <v>771</v>
+      </c>
       <c r="M70" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="16" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>309</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D71" s="32"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="H71">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="I71">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>799</v>
       </c>
       <c r="M71" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="43">
+    <row r="72" spans="1:13">
       <c r="A72" s="16" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="D72" s="32"/>
+        <v>345</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>230</v>
+      </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="H72">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="I72">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L72" t="s">
+        <v>775</v>
       </c>
       <c r="M72" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="43">
+    <row r="73" spans="1:13" ht="28.7">
       <c r="A73" s="16" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="E73" s="17"/>
+        <v>242</v>
+      </c>
+      <c r="D73" s="32"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="H73">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I73">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
         <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>788</v>
       </c>
       <c r="M73" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="43">
-      <c r="A74" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16" t="s">
+    <row r="74" spans="1:13">
+      <c r="A74" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G74" s="16" t="s">
-        <v>313</v>
+      <c r="G74" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="H74">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="I74">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -7276,111 +8150,121 @@
       <c r="K74">
         <v>1</v>
       </c>
+      <c r="L74" t="s">
+        <v>753</v>
+      </c>
       <c r="M74" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="43">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="28.7">
       <c r="A75" s="16" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>316</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D75" s="32"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="H75">
-        <v>133</v>
+        <v>93.5</v>
       </c>
       <c r="I75">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
         <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>747</v>
       </c>
       <c r="M75" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" ht="28.7">
       <c r="A76" s="16" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="D76" s="32"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="H76">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I76">
-        <v>48.5</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
         <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>786</v>
       </c>
       <c r="M76" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" ht="28.7">
       <c r="A77" s="16" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="E77" s="16"/>
+        <v>239</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="17"/>
       <c r="F77" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="H77">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I77">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>789</v>
       </c>
       <c r="M77" t="s">
         <v>668</v>
@@ -7388,29 +8272,27 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="16" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>329</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="D78" s="32"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="H78">
-        <v>89.8</v>
+        <v>34</v>
       </c>
       <c r="I78">
-        <v>45</v>
+        <v>135.5</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7418,35 +8300,36 @@
       <c r="K78">
         <v>1</v>
       </c>
+      <c r="L78" t="s">
+        <v>763</v>
+      </c>
       <c r="M78" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="57.35">
       <c r="A79" s="16" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>329</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D79" s="32"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="H79">
-        <v>103</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="I79">
-        <v>35.5</v>
+        <v>187.3</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -7454,33 +8337,38 @@
       <c r="K79">
         <v>1</v>
       </c>
+      <c r="L79" t="s">
+        <v>746</v>
+      </c>
       <c r="M79" t="s">
-        <v>438</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>336</v>
+      <c r="A80" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="H80">
-        <v>53.5</v>
+        <v>137</v>
       </c>
       <c r="I80">
-        <v>90</v>
+        <v>34.5</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -7488,55 +8376,59 @@
       <c r="K80">
         <v>1</v>
       </c>
+      <c r="L80" t="s">
+        <v>757</v>
+      </c>
       <c r="M80" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="16" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>339</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D81" s="32"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="H81">
-        <v>40</v>
+        <v>95.5</v>
       </c>
       <c r="I81">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>802</v>
       </c>
       <c r="M81" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="28.7">
       <c r="A82" s="16" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>689</v>
+        <v>46</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="16"/>
@@ -7544,155 +8436,167 @@
         <v>131</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>343</v>
+        <v>240</v>
       </c>
       <c r="H82">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I82">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
         <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>784</v>
       </c>
       <c r="M82" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="28.7">
-      <c r="A83" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>346</v>
+    <row r="83" spans="1:13">
+      <c r="A83" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="H83">
-        <v>172.5</v>
+        <v>450</v>
       </c>
       <c r="I83">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>754</v>
       </c>
       <c r="M83" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16.7">
       <c r="A84" s="16" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="E84" s="16"/>
+        <v>260</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1991</v>
+      </c>
+      <c r="E84" s="18"/>
       <c r="F84" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>348</v>
+      <c r="G84" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="H84">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="I84">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L84" s="46" t="s">
+        <v>761</v>
       </c>
       <c r="M84" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="28.7">
       <c r="A85" s="16" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D85" s="32"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16" t="s">
-        <v>222</v>
+        <v>626</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="H85">
-        <v>69.5</v>
+        <v>165.5</v>
       </c>
       <c r="I85">
-        <v>35</v>
+        <v>55.8</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="L85" t="s">
+        <v>751</v>
       </c>
       <c r="M85" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.7">
-      <c r="A86" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D86" s="32">
-        <v>1931</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F86" s="16" t="s">
+    <row r="86" spans="1:13">
+      <c r="A86" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G86" s="16" t="s">
-        <v>353</v>
+      <c r="G86" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="H86">
-        <v>90.5</v>
+        <v>137</v>
       </c>
       <c r="I86">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -7700,73 +8604,88 @@
       <c r="K86">
         <v>1</v>
       </c>
+      <c r="L86" s="46" t="s">
+        <v>758</v>
+      </c>
       <c r="M86" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="28.7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="16" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D87" s="32"/>
+        <v>270</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>271</v>
+      </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="H87">
-        <v>105.3</v>
+        <v>137</v>
       </c>
       <c r="I87">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>804</v>
       </c>
       <c r="M87" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="28.7">
       <c r="A88" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="16"/>
+        <v>352</v>
+      </c>
+      <c r="D88" s="32">
+        <v>1931</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>621</v>
+      </c>
       <c r="F88" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H88">
-        <v>34</v>
+        <v>90.5</v>
       </c>
       <c r="I88">
-        <v>135.5</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
         <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>770</v>
       </c>
       <c r="M88" t="s">
         <v>668</v>
@@ -7774,81 +8693,93 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="16" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="16"/>
+        <v>302</v>
+      </c>
+      <c r="D89" s="32">
+        <v>1996</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>620</v>
+      </c>
       <c r="F89" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="H89">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="I89">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>778</v>
       </c>
       <c r="M89" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="28.7">
       <c r="A90" s="16" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D90" s="32"/>
-      <c r="E90" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90" s="17"/>
       <c r="F90" s="16" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="H90">
-        <v>93.5</v>
+        <v>18</v>
       </c>
       <c r="I90">
-        <v>49</v>
+        <v>51.5</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
         <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>783</v>
       </c>
       <c r="M90" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="57.35">
+    <row r="91" spans="1:13">
       <c r="A91" s="16" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="16"/>
@@ -7856,435 +8787,473 @@
         <v>222</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="H91">
-        <v>38.200000000000003</v>
+        <v>23.5</v>
       </c>
       <c r="I91">
-        <v>187.3</v>
+        <v>425.2</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
         <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>774</v>
       </c>
       <c r="M91" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="28.7">
+    <row r="92" spans="1:13" ht="43">
       <c r="A92" s="16" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D92" s="32"/>
-      <c r="E92" s="16"/>
+        <v>315</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E92" s="17"/>
       <c r="F92" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="H92">
-        <v>138.69999999999999</v>
+        <v>133</v>
       </c>
       <c r="I92">
-        <v>29.1</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>768</v>
       </c>
       <c r="M92" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="28.7">
+    <row r="93" spans="1:13" ht="43">
       <c r="A93" s="16" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="H93">
-        <v>137.5</v>
+        <v>133</v>
       </c>
       <c r="I93">
-        <v>34.5</v>
+        <v>52</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>767</v>
       </c>
       <c r="M93" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16" t="s">
+      <c r="A94" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G94" s="16" t="s">
-        <v>375</v>
+      <c r="G94" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="H94">
-        <v>78</v>
+        <v>68.5</v>
       </c>
       <c r="I94">
-        <v>15</v>
+        <v>67.5</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>777</v>
       </c>
       <c r="M94" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16" t="s">
+      <c r="A95" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G95" s="16" t="s">
-        <v>377</v>
+      <c r="G95" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="H95">
-        <v>95.5</v>
+        <v>137</v>
       </c>
       <c r="I95">
+        <v>34.5</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="M95" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="H96">
+        <v>450</v>
+      </c>
+      <c r="I96">
         <v>26</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>2</v>
-      </c>
-      <c r="M95" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D96" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="H96">
-        <v>102.5</v>
-      </c>
-      <c r="I96">
-        <v>30.5</v>
-      </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
+      <c r="L96" t="s">
+        <v>756</v>
+      </c>
       <c r="M96" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="28.7">
       <c r="A97" s="16" t="s">
-        <v>380</v>
+        <v>224</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D97" s="32"/>
+        <v>225</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>226</v>
+      </c>
       <c r="E97" s="16"/>
       <c r="F97" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>381</v>
+        <v>227</v>
       </c>
       <c r="H97">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="I97">
-        <v>25</v>
+        <v>39.6</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="L97" t="s">
+        <v>748</v>
       </c>
       <c r="M97" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16" t="s">
+      <c r="A98" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H98">
+        <v>118</v>
+      </c>
+      <c r="I98">
+        <v>48</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>794</v>
+      </c>
+      <c r="M98" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="32"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G98" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="H98">
-        <v>81.5</v>
-      </c>
-      <c r="I98">
-        <v>23.5</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="M98" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>387</v>
+      <c r="G99" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="H99">
-        <v>68.5</v>
+        <v>182</v>
       </c>
       <c r="I99">
-        <v>67.5</v>
+        <v>48.5</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
         <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>750</v>
       </c>
       <c r="M99" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>390</v>
+    <row r="100" spans="1:13" ht="28.7">
+      <c r="A100" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="H100">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I100">
-        <v>135.80000000000001</v>
+        <v>57</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
         <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>790</v>
       </c>
       <c r="M100" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20" t="s">
+      <c r="A101" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="32"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G101" s="20" t="s">
-        <v>394</v>
+      <c r="G101" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="H101">
-        <v>137</v>
+        <v>131.5</v>
       </c>
       <c r="I101">
-        <v>34.5</v>
+        <v>31</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L101" t="s">
+        <v>796</v>
       </c>
       <c r="M101" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="43">
+      <c r="A102" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" s="32"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H102">
+        <v>18</v>
+      </c>
+      <c r="I102">
+        <v>51.5</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>785</v>
+      </c>
+      <c r="M102" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="100.35">
+      <c r="A103" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="H102">
-        <v>137</v>
-      </c>
-      <c r="I102">
-        <v>34.5</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="M102" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>394</v>
+      <c r="G103" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="H103">
-        <v>137</v>
+        <v>216.7</v>
       </c>
       <c r="I103">
-        <v>34.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -8292,71 +9261,73 @@
       <c r="K103">
         <v>1</v>
       </c>
+      <c r="L103" t="s">
+        <v>749</v>
+      </c>
       <c r="M103" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>394</v>
+      <c r="A104" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" s="32"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="H104">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I104">
-        <v>34.5</v>
+        <v>64.8</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
         <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>808</v>
       </c>
       <c r="M104" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>404</v>
+      <c r="A105" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="35"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="H105">
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="I105">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -8364,35 +9335,38 @@
       <c r="K105">
         <v>1</v>
       </c>
+      <c r="L105" t="s">
+        <v>846</v>
+      </c>
       <c r="M105" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>404</v>
+      <c r="A106" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>597</v>
       </c>
       <c r="H106">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="I106">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -8400,35 +9374,36 @@
       <c r="K106">
         <v>1</v>
       </c>
+      <c r="L106" t="s">
+        <v>847</v>
+      </c>
       <c r="M106" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>404</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="43">
+      <c r="A107" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D107" s="34"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>422</v>
       </c>
       <c r="H107">
-        <v>450</v>
+        <v>69.5</v>
       </c>
       <c r="I107">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -8436,35 +9411,38 @@
       <c r="K107">
         <v>1</v>
       </c>
-      <c r="M107" t="s">
-        <v>669</v>
+      <c r="L107" t="s">
+        <v>848</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>404</v>
+      <c r="A108" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>546</v>
       </c>
       <c r="H108">
-        <v>450</v>
+        <v>87</v>
       </c>
       <c r="I108">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -8472,35 +9450,38 @@
       <c r="K108">
         <v>1</v>
       </c>
+      <c r="L108" t="s">
+        <v>849</v>
+      </c>
       <c r="M108" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>415</v>
+      <c r="A109" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="D109" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>591</v>
       </c>
       <c r="H109">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="I109">
-        <v>48</v>
+        <v>69.5</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -8508,35 +9489,36 @@
       <c r="K109">
         <v>1</v>
       </c>
+      <c r="L109" t="s">
+        <v>850</v>
+      </c>
       <c r="M109" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>419</v>
+      <c r="A110" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="D110" s="35"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>487</v>
       </c>
       <c r="H110">
-        <v>35</v>
+        <v>45.5</v>
       </c>
       <c r="I110">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -8544,33 +9526,77 @@
       <c r="K110">
         <v>1</v>
       </c>
+      <c r="L110" t="s">
+        <v>851</v>
+      </c>
       <c r="M110" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="28.7">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="28.7">
+      <c r="A111" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H111">
+        <v>36.5</v>
+      </c>
+      <c r="I111">
+        <v>51</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>852</v>
+      </c>
+      <c r="M111" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D112" s="34"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>422</v>
+        <v>524</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>527</v>
       </c>
       <c r="H112">
-        <v>69.5</v>
+        <v>38.5</v>
       </c>
       <c r="I112">
-        <v>68</v>
+        <v>38.5</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -8578,8 +9604,11 @@
       <c r="K112">
         <v>1</v>
       </c>
-      <c r="M112" s="22" t="s">
-        <v>636</v>
+      <c r="L112" t="s">
+        <v>853</v>
+      </c>
+      <c r="M112" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -8612,67 +9641,77 @@
       <c r="K113">
         <v>1</v>
       </c>
+      <c r="L113" t="s">
+        <v>854</v>
+      </c>
       <c r="M113" s="22" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="D114" s="35">
+        <v>1956</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="H114">
+        <v>44</v>
+      </c>
+      <c r="I114">
+        <v>64</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" s="52" t="s">
+        <v>855</v>
+      </c>
+      <c r="M114" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="D115" s="35"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G114" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="H114">
-        <v>95.5</v>
-      </c>
-      <c r="I114">
-        <v>177</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="M114" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="28.7">
-      <c r="A115" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>431</v>
+      <c r="G115" s="24" t="s">
+        <v>472</v>
       </c>
       <c r="H115">
-        <v>96.5</v>
+        <v>62</v>
       </c>
       <c r="I115">
-        <v>247.5</v>
+        <v>64</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -8680,33 +9719,36 @@
       <c r="K115">
         <v>1</v>
       </c>
-      <c r="M115" s="22" t="s">
-        <v>636</v>
+      <c r="L115" t="s">
+        <v>856</v>
+      </c>
+      <c r="M115" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="D116" s="34"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>434</v>
+      <c r="A116" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="D116" s="35"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>487</v>
       </c>
       <c r="H116">
-        <v>123</v>
+        <v>45.5</v>
       </c>
       <c r="I116">
-        <v>247.5</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -8714,67 +9756,71 @@
       <c r="K116">
         <v>1</v>
       </c>
-      <c r="M116" s="22" t="s">
+      <c r="L116" t="s">
+        <v>857</v>
+      </c>
+      <c r="M116" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s">
+        <v>609</v>
+      </c>
+      <c r="F117" t="s">
+        <v>222</v>
+      </c>
+      <c r="G117" t="s">
+        <v>610</v>
+      </c>
+      <c r="H117">
+        <v>47.8</v>
+      </c>
+      <c r="I117">
+        <v>35</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>858</v>
+      </c>
+      <c r="M117" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="28.7">
-      <c r="A117" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D117" s="34"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="H117">
-        <v>43</v>
-      </c>
-      <c r="I117">
-        <v>139</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="M117" s="22" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="D118" s="35"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G118" s="22" t="s">
-        <v>439</v>
+      <c r="G118" s="24" t="s">
+        <v>474</v>
       </c>
       <c r="H118">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I118">
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -8782,33 +9828,38 @@
       <c r="K118">
         <v>1</v>
       </c>
+      <c r="L118" t="s">
+        <v>859</v>
+      </c>
       <c r="M118" t="s">
-        <v>438</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="D119" s="34"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G119" s="22" t="s">
-        <v>442</v>
+      <c r="G119" s="24" t="s">
+        <v>477</v>
       </c>
       <c r="H119">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I119">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -8816,37 +9867,40 @@
       <c r="K119">
         <v>1</v>
       </c>
+      <c r="L119" t="s">
+        <v>860</v>
+      </c>
       <c r="M119" t="s">
-        <v>438</v>
+        <v>654</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="D120" s="34">
-        <v>1980</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="F120" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="35">
+        <v>1963</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="F120" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G120" s="22" t="s">
-        <v>445</v>
+      <c r="G120" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="H120">
-        <v>44.5</v>
+        <v>27</v>
       </c>
       <c r="I120">
-        <v>69.5</v>
+        <v>109</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -8854,35 +9908,38 @@
       <c r="K120">
         <v>1</v>
       </c>
-      <c r="M120" s="22" t="s">
-        <v>635</v>
+      <c r="L120" t="s">
+        <v>861</v>
+      </c>
+      <c r="M120" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>448</v>
+        <v>547</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>549</v>
       </c>
       <c r="H121">
-        <v>129.5</v>
+        <v>70</v>
       </c>
       <c r="I121">
-        <v>68.8</v>
+        <v>58</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -8890,33 +9947,38 @@
       <c r="K121">
         <v>1</v>
       </c>
+      <c r="L121" t="s">
+        <v>862</v>
+      </c>
       <c r="M121" t="s">
-        <v>438</v>
+        <v>646</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="D122" s="34"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>451</v>
+        <v>550</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>552</v>
       </c>
       <c r="H122">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="I122">
-        <v>248.2</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -8924,33 +9986,38 @@
       <c r="K122">
         <v>1</v>
       </c>
-      <c r="M122" s="22" t="s">
-        <v>635</v>
+      <c r="L122" t="s">
+        <v>863</v>
+      </c>
+      <c r="M122" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D123" s="34"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>454</v>
+        <v>553</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>555</v>
       </c>
       <c r="H123">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I123">
-        <v>97</v>
+        <v>52.5</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -8958,33 +10025,36 @@
       <c r="K123">
         <v>1</v>
       </c>
+      <c r="L123" t="s">
+        <v>864</v>
+      </c>
       <c r="M123" t="s">
-        <v>438</v>
+        <v>644</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>457</v>
+        <v>556</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D124" s="35"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>558</v>
       </c>
       <c r="H124">
-        <v>26.8</v>
+        <v>44</v>
       </c>
       <c r="I124">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -8992,67 +10062,77 @@
       <c r="K124">
         <v>1</v>
       </c>
-      <c r="M124" s="22" t="s">
-        <v>635</v>
+      <c r="L124" t="s">
+        <v>865</v>
+      </c>
+      <c r="M124" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="D125" s="34"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>459</v>
+        <v>559</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>562</v>
       </c>
       <c r="H125">
+        <v>73</v>
+      </c>
+      <c r="I125">
         <v>61.5</v>
       </c>
-      <c r="I125">
-        <v>137.69999999999999</v>
-      </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
-      <c r="M125" s="22" t="s">
-        <v>635</v>
+      <c r="L125" t="s">
+        <v>866</v>
+      </c>
+      <c r="M125" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>462</v>
+        <v>496</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D126" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>498</v>
       </c>
       <c r="H126">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I126">
-        <v>178.6</v>
+        <v>22.5</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -9060,135 +10140,151 @@
       <c r="K126">
         <v>1</v>
       </c>
-      <c r="M126" t="s">
+      <c r="L126" t="s">
+        <v>867</v>
+      </c>
+      <c r="M126" s="24" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="D127" s="34"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G127" s="22" t="s">
-        <v>464</v>
+      <c r="G127" s="24" t="s">
+        <v>500</v>
       </c>
       <c r="H127">
-        <v>96</v>
+        <v>19.5</v>
       </c>
       <c r="I127">
+        <v>24.5</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>868</v>
+      </c>
+      <c r="M127" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="28.7">
+      <c r="A128" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="M127" s="22" t="s">
+      <c r="D128" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="H128">
+        <v>76.7</v>
+      </c>
+      <c r="I128">
+        <v>107.5</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>869</v>
+      </c>
+      <c r="M128" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="D128" s="34"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="H128">
-        <v>134</v>
-      </c>
-      <c r="I128">
-        <v>33</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>2</v>
-      </c>
-      <c r="M128" s="22" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="D129" s="34"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>469</v>
+    <row r="129" spans="1:13" ht="28.7">
+      <c r="A129" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="D129" s="35"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>588</v>
       </c>
       <c r="H129">
-        <v>135</v>
+        <v>23.6</v>
       </c>
       <c r="I129">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>2</v>
-      </c>
-      <c r="M129" s="22" t="s">
-        <v>668</v>
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>870</v>
+      </c>
+      <c r="M129" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="D130" s="35"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D130" s="34"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G130" s="24" t="s">
-        <v>472</v>
+      <c r="G130" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="H130">
-        <v>62</v>
+        <v>95.5</v>
       </c>
       <c r="I130">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -9196,33 +10292,36 @@
       <c r="K130">
         <v>1</v>
       </c>
+      <c r="L130" t="s">
+        <v>871</v>
+      </c>
       <c r="M130" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="28.7">
       <c r="A131" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="B131" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="D131" s="35"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D131" s="34"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G131" s="24" t="s">
-        <v>474</v>
+      <c r="G131" s="22" t="s">
+        <v>431</v>
       </c>
       <c r="H131">
-        <v>48</v>
+        <v>96.5</v>
       </c>
       <c r="I131">
-        <v>32</v>
+        <v>247.5</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -9230,35 +10329,36 @@
       <c r="K131">
         <v>1</v>
       </c>
-      <c r="M131" t="s">
-        <v>654</v>
+      <c r="L131" t="s">
+        <v>872</v>
+      </c>
+      <c r="M131" s="22" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="B132" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="D132" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" s="34"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G132" s="24" t="s">
-        <v>477</v>
+      <c r="G132" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="H132">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="I132">
-        <v>49</v>
+        <v>247.5</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -9266,35 +10366,40 @@
       <c r="K132">
         <v>1</v>
       </c>
-      <c r="M132" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="28.7">
+      <c r="L132" t="s">
+        <v>873</v>
+      </c>
+      <c r="M132" s="22" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="21" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="D133" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="E133" s="24"/>
+        <v>593</v>
+      </c>
+      <c r="D133" s="35">
+        <v>1959</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>625</v>
+      </c>
       <c r="F133" s="24" t="s">
-        <v>502</v>
+        <v>222</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>480</v>
+        <v>594</v>
       </c>
       <c r="H133">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I133">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -9302,33 +10407,36 @@
       <c r="K133">
         <v>1</v>
       </c>
+      <c r="L133" t="s">
+        <v>874</v>
+      </c>
       <c r="M133" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="28.7">
       <c r="A134" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="G134" s="24" t="s">
-        <v>483</v>
+        <v>435</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D134" s="34"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="H134">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I134">
-        <v>24.5</v>
+        <v>139</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -9336,37 +10444,73 @@
       <c r="K134">
         <v>1</v>
       </c>
-      <c r="M134" t="s">
-        <v>654</v>
+      <c r="L134" t="s">
+        <v>875</v>
+      </c>
+      <c r="M134" s="22" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D135" s="34"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H135">
+        <v>45</v>
+      </c>
+      <c r="I135">
+        <v>29.5</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>876</v>
+      </c>
+      <c r="M135" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="35">
-        <v>1963</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="F136" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D136" s="34"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G136" s="24" t="s">
-        <v>103</v>
+      <c r="G136" s="22" t="s">
+        <v>442</v>
       </c>
       <c r="H136">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I136">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -9374,73 +10518,121 @@
       <c r="K136">
         <v>1</v>
       </c>
+      <c r="L136" t="s">
+        <v>877</v>
+      </c>
       <c r="M136" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="28.7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="21" t="s">
-        <v>149</v>
+        <v>563</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>150</v>
+        <v>564</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="24"/>
       <c r="F137" s="24" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="H137">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I137">
-        <v>44.5</v>
-      </c>
-      <c r="J137" s="27">
-        <v>0</v>
-      </c>
-      <c r="K137" s="27">
-        <v>5</v>
+        <v>74.5</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>878</v>
       </c>
       <c r="M137" t="s">
-        <v>638</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="D138" s="35"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="H138">
+        <v>158</v>
+      </c>
+      <c r="I138">
+        <v>104</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>879</v>
+      </c>
+      <c r="M138" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="21" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="D139" s="35"/>
+        <v>570</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>571</v>
+      </c>
       <c r="E139" s="24"/>
       <c r="F139" s="24" t="s">
-        <v>601</v>
+        <v>157</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>487</v>
+        <v>572</v>
       </c>
       <c r="H139">
-        <v>45.5</v>
+        <v>74</v>
       </c>
       <c r="I139">
-        <v>53</v>
+        <v>107.5</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
         <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>880</v>
       </c>
       <c r="M139" t="s">
         <v>639</v>
@@ -9448,61 +10640,68 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="21" t="s">
-        <v>488</v>
+        <v>573</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>489</v>
+        <v>574</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="24"/>
       <c r="F140" s="24" t="s">
-        <v>601</v>
+        <v>157</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="H140">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I140">
-        <v>72</v>
+        <v>116.5</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>881</v>
       </c>
       <c r="M140" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="D141" s="35"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>487</v>
+        <v>443</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D141" s="34">
+        <v>1980</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>445</v>
       </c>
       <c r="H141">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="I141">
-        <v>53</v>
+        <v>69.5</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -9510,35 +10709,38 @@
       <c r="K141">
         <v>1</v>
       </c>
-      <c r="M141" t="s">
-        <v>639</v>
+      <c r="L141" t="s">
+        <v>882</v>
+      </c>
+      <c r="M141" s="22" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="28.7">
       <c r="A142" s="21" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="24" t="s">
         <v>502</v>
       </c>
       <c r="G142" s="24" t="s">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="H142">
-        <v>36.5</v>
+        <v>34</v>
       </c>
       <c r="I142">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -9546,35 +10748,36 @@
       <c r="K142">
         <v>1</v>
       </c>
+      <c r="L142" t="s">
+        <v>883</v>
+      </c>
       <c r="M142" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="21" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D143" s="35" t="s">
-        <v>497</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="D143" s="35"/>
       <c r="E143" s="24"/>
       <c r="F143" s="24" t="s">
-        <v>131</v>
+        <v>631</v>
       </c>
       <c r="G143" s="24" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="H143">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="I143">
-        <v>22.5</v>
+        <v>55.5</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -9582,35 +10785,36 @@
       <c r="K143">
         <v>1</v>
       </c>
-      <c r="M143" s="24" t="s">
-        <v>438</v>
+      <c r="L143" t="s">
+        <v>884</v>
+      </c>
+      <c r="M143" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="21" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D144" s="35" t="s">
-        <v>309</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="D144" s="35"/>
       <c r="E144" s="24"/>
       <c r="F144" s="24" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G144" s="24" t="s">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="H144">
-        <v>19.5</v>
+        <v>53</v>
       </c>
       <c r="I144">
-        <v>24.5</v>
+        <v>72.5</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -9618,35 +10822,38 @@
       <c r="K144">
         <v>1</v>
       </c>
+      <c r="L144" t="s">
+        <v>885</v>
+      </c>
       <c r="M144" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="28.7">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="21" t="s">
-        <v>501</v>
+        <v>579</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>179</v>
+        <v>580</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>386</v>
+        <v>581</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="24" t="s">
-        <v>502</v>
+        <v>157</v>
       </c>
       <c r="G145" s="24" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
       <c r="H145">
-        <v>77.5</v>
+        <v>64</v>
       </c>
       <c r="I145">
-        <v>107.5</v>
+        <v>87</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -9654,35 +10861,38 @@
       <c r="K145">
         <v>1</v>
       </c>
+      <c r="L145" t="s">
+        <v>886</v>
+      </c>
       <c r="M145" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="28.7">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="21" t="s">
-        <v>504</v>
+        <v>583</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>505</v>
+        <v>584</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>506</v>
+        <v>230</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="24" t="s">
-        <v>502</v>
+        <v>157</v>
       </c>
       <c r="G146" s="24" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="H146">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I146">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -9690,35 +10900,38 @@
       <c r="K146">
         <v>1</v>
       </c>
+      <c r="L146" t="s">
+        <v>887</v>
+      </c>
       <c r="M146" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="28.7">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="21" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="24" t="s">
-        <v>502</v>
+        <v>157</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="H147">
-        <v>74.5</v>
+        <v>91.5</v>
       </c>
       <c r="I147">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -9726,35 +10939,36 @@
       <c r="K147">
         <v>1</v>
       </c>
+      <c r="L147" t="s">
+        <v>888</v>
+      </c>
       <c r="M147" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="28.7">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="21" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D148" s="35" t="s">
-        <v>506</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="D148" s="35"/>
       <c r="E148" s="24"/>
       <c r="F148" s="24" t="s">
-        <v>502</v>
+        <v>157</v>
       </c>
       <c r="G148" s="24" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="H148">
-        <v>78</v>
+        <v>115.5</v>
       </c>
       <c r="I148">
-        <v>108</v>
+        <v>118.5</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -9762,13 +10976,16 @@
       <c r="K148">
         <v>1</v>
       </c>
+      <c r="L148" t="s">
+        <v>889</v>
+      </c>
       <c r="M148" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="28.7">
       <c r="A149" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B149" s="24" t="s">
         <v>23</v>
@@ -9777,17 +10994,17 @@
         <v>179</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>514</v>
+        <v>386</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="24" t="s">
         <v>502</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="H149">
-        <v>76.7</v>
+        <v>77.5</v>
       </c>
       <c r="I149">
         <v>107.5</v>
@@ -9798,35 +11015,38 @@
       <c r="K149">
         <v>1</v>
       </c>
+      <c r="L149" t="s">
+        <v>890</v>
+      </c>
       <c r="M149" t="s">
-        <v>635</v>
+        <v>438</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D150" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G150" s="24" t="s">
-        <v>518</v>
+      <c r="G150" s="22" t="s">
+        <v>448</v>
       </c>
       <c r="H150">
-        <v>60</v>
+        <v>129.5</v>
       </c>
       <c r="I150">
-        <v>80</v>
+        <v>68.8</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -9834,35 +11054,36 @@
       <c r="K150">
         <v>1</v>
       </c>
+      <c r="L150" t="s">
+        <v>891</v>
+      </c>
       <c r="M150" t="s">
-        <v>642</v>
+        <v>438</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D151" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="D151" s="34"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G151" s="25" t="s">
-        <v>617</v>
+      <c r="G151" s="22" t="s">
+        <v>451</v>
       </c>
       <c r="H151">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="I151">
-        <v>54</v>
+        <v>248.2</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -9870,39 +11091,47 @@
       <c r="K151">
         <v>1</v>
       </c>
-      <c r="M151" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="28.7">
+      <c r="L151" t="s">
+        <v>892</v>
+      </c>
+      <c r="M151" s="22" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="21" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B152" s="24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D152" s="35"/>
+        <v>531</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>418</v>
+      </c>
       <c r="E152" s="24"/>
       <c r="F152" s="24" t="s">
-        <v>502</v>
+        <v>131</v>
       </c>
       <c r="G152" s="24" t="s">
-        <v>523</v>
+        <v>189</v>
       </c>
       <c r="H152">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I152">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152">
         <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>893</v>
       </c>
       <c r="M152" t="s">
         <v>642</v>
@@ -9910,27 +11139,29 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="21" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="B153" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D153" s="35"/>
+        <v>520</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>521</v>
+      </c>
       <c r="E153" s="24"/>
       <c r="F153" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>180</v>
+        <v>131</v>
+      </c>
+      <c r="G153" s="25" t="s">
+        <v>617</v>
       </c>
       <c r="H153">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I153">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -9938,35 +11169,38 @@
       <c r="K153">
         <v>1</v>
       </c>
+      <c r="L153" t="s">
+        <v>894</v>
+      </c>
       <c r="M153" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="21" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B154" s="24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>526</v>
+        <v>403</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="24" t="s">
-        <v>631</v>
+        <v>131</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H154">
-        <v>38.5</v>
+        <v>60</v>
       </c>
       <c r="I154">
-        <v>38.5</v>
+        <v>80</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -9974,33 +11208,33 @@
       <c r="K154">
         <v>1</v>
       </c>
+      <c r="L154" t="s">
+        <v>895</v>
+      </c>
       <c r="M154" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="21" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B155" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>525</v>
+        <v>130</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="24"/>
       <c r="F155" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="H155">
-        <v>36.5</v>
+        <v>533</v>
+      </c>
+      <c r="G155" s="25" t="s">
+        <v>534</v>
       </c>
       <c r="I155">
-        <v>55.5</v>
+        <v>29.3</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -10008,66 +11242,73 @@
       <c r="K155">
         <v>1</v>
       </c>
+      <c r="L155" t="s">
+        <v>896</v>
+      </c>
       <c r="M155" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="28.7">
       <c r="A156" s="21" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="B156" s="24" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="D156" s="35" t="s">
-        <v>418</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="D156" s="35"/>
       <c r="E156" s="24"/>
       <c r="F156" s="24" t="s">
-        <v>131</v>
+        <v>502</v>
       </c>
       <c r="G156" s="24" t="s">
-        <v>189</v>
+        <v>483</v>
       </c>
       <c r="H156">
+        <v>33</v>
+      </c>
+      <c r="I156">
+        <v>24.5</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>897</v>
+      </c>
+      <c r="M156" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="28.7">
+      <c r="A157" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="B157" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I156">
-        <v>24</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="M156" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="B157" s="24" t="s">
-        <v>34</v>
-      </c>
       <c r="C157" s="24" t="s">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="24"/>
       <c r="F157" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="G157" s="25" t="s">
-        <v>534</v>
+        <v>502</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="H157">
+        <v>26</v>
       </c>
       <c r="I157">
-        <v>29.3</v>
+        <v>38</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -10075,73 +11316,73 @@
       <c r="K157">
         <v>1</v>
       </c>
+      <c r="L157" t="s">
+        <v>898</v>
+      </c>
       <c r="M157" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="21" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="D158" s="35">
-        <v>1956</v>
-      </c>
-      <c r="E158" s="24" t="s">
-        <v>624</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="D158" s="35"/>
+      <c r="E158" s="24"/>
       <c r="F158" s="24" t="s">
-        <v>157</v>
+        <v>601</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="H158">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I158">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>899</v>
       </c>
       <c r="M158" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="B159" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G159" s="24" t="s">
-        <v>541</v>
+        <v>452</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D159" s="34"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>454</v>
       </c>
       <c r="H159">
-        <v>91.5</v>
+        <v>73</v>
       </c>
       <c r="I159">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -10149,33 +11390,36 @@
       <c r="K159">
         <v>1</v>
       </c>
+      <c r="L159" t="s">
+        <v>900</v>
+      </c>
       <c r="M159" t="s">
-        <v>644</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="B160" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C160" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="D160" s="35"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G160" s="24" t="s">
-        <v>544</v>
+        <v>455</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D160" s="34"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G160" s="22" t="s">
+        <v>457</v>
       </c>
       <c r="H160">
-        <v>115.5</v>
+        <v>26.8</v>
       </c>
       <c r="I160">
-        <v>118.5</v>
+        <v>164</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -10183,35 +11427,36 @@
       <c r="K160">
         <v>1</v>
       </c>
-      <c r="M160" t="s">
-        <v>644</v>
+      <c r="L160" t="s">
+        <v>901</v>
+      </c>
+      <c r="M160" s="22" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="B161" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="D161" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G161" s="24" t="s">
-        <v>546</v>
+        <v>458</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D161" s="34"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G161" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="H161">
-        <v>87</v>
+        <v>61.5</v>
       </c>
       <c r="I161">
-        <v>111</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -10219,71 +11464,71 @@
       <c r="K161">
         <v>1</v>
       </c>
-      <c r="M161" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="L161" t="s">
+        <v>902</v>
+      </c>
+      <c r="M161" s="22" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="28.7">
       <c r="A162" s="21" t="s">
-        <v>547</v>
+        <v>149</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="D162" s="35" t="s">
-        <v>176</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D162" s="35"/>
       <c r="E162" s="24"/>
       <c r="F162" s="24" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="H162">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I162">
-        <v>58</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
+        <v>44.5</v>
+      </c>
+      <c r="J162" s="27">
+        <v>0</v>
+      </c>
+      <c r="K162" s="27">
+        <v>5</v>
+      </c>
+      <c r="L162" t="s">
+        <v>903</v>
       </c>
       <c r="M162" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C163" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>552</v>
+      <c r="A163" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="B163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" t="s">
+        <v>612</v>
+      </c>
+      <c r="F163" t="s">
+        <v>131</v>
+      </c>
+      <c r="G163" t="s">
+        <v>613</v>
       </c>
       <c r="H163">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I163">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -10291,35 +11536,34 @@
       <c r="K163">
         <v>1</v>
       </c>
+      <c r="L163" t="s">
+        <v>904</v>
+      </c>
       <c r="M163" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="164" spans="1:13">
-      <c r="A164" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="B164" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C164" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G164" s="24" t="s">
-        <v>555</v>
+      <c r="A164" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B164" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" t="s">
+        <v>615</v>
+      </c>
+      <c r="F164" t="s">
+        <v>131</v>
+      </c>
+      <c r="G164" t="s">
+        <v>616</v>
       </c>
       <c r="H164">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I164">
-        <v>52.5</v>
+        <v>29.5</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -10327,33 +11571,36 @@
       <c r="K164">
         <v>1</v>
       </c>
+      <c r="L164" t="s">
+        <v>905</v>
+      </c>
       <c r="M164" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="B165" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C165" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D165" s="35"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G165" s="24" t="s">
-        <v>558</v>
+        <v>460</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D165" s="34"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G165" s="22" t="s">
+        <v>462</v>
       </c>
       <c r="H165">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I165">
-        <v>65</v>
+        <v>178.6</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -10361,35 +11608,38 @@
       <c r="K165">
         <v>1</v>
       </c>
+      <c r="L165" s="51" t="s">
+        <v>907</v>
+      </c>
       <c r="M165" t="s">
-        <v>644</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="1:13">
-      <c r="A166" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="B166" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C166" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G166" s="24" t="s">
-        <v>562</v>
+      <c r="A166" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D166" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="H166">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I166">
-        <v>61.5</v>
+        <v>89</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -10398,102 +11648,102 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="B167" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C167" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="D167" s="35"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>565</v>
+      <c r="A167" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D167" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="H167">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="I167">
-        <v>74.5</v>
+        <v>35</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M167" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="B168" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C168" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="D168" s="35"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G168" s="24" t="s">
-        <v>568</v>
+      <c r="A168" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D168" s="32"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="H168">
-        <v>158</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="I168">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M168" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="B169" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C169" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>571</v>
-      </c>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G169" s="24" t="s">
-        <v>572</v>
+      <c r="A169" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D169" s="32"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="H169">
-        <v>74</v>
+        <v>53.5</v>
       </c>
       <c r="I169">
-        <v>107.5</v>
+        <v>90</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -10502,32 +11752,32 @@
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
-      <c r="A170" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="B170" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C170" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="D170" s="35"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G170" s="24" t="s">
-        <v>575</v>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="28.7">
+      <c r="A170" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D170" s="32"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="H170">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I170">
-        <v>116.5</v>
+        <v>18</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -10536,32 +11786,32 @@
         <v>1</v>
       </c>
       <c r="M170" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C171" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D171" s="35"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>578</v>
+        <v>463</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D171" s="34"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G171" s="22" t="s">
+        <v>464</v>
       </c>
       <c r="H171">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I171">
-        <v>72.5</v>
+        <v>179</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -10569,35 +11819,35 @@
       <c r="K171">
         <v>1</v>
       </c>
-      <c r="M171" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="M171" s="22" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="28.7">
       <c r="A172" s="21" t="s">
-        <v>579</v>
+        <v>504</v>
       </c>
       <c r="B172" s="24" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>580</v>
+        <v>505</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>581</v>
+        <v>506</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="24" t="s">
-        <v>157</v>
+        <v>502</v>
       </c>
       <c r="G172" s="24" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="H172">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I172">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -10606,34 +11856,34 @@
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C173" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G173" s="24" t="s">
-        <v>585</v>
+      <c r="A173" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="H173">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I173">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -10642,32 +11892,34 @@
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="28.7">
       <c r="A174" s="21" t="s">
-        <v>586</v>
+        <v>508</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="D174" s="35"/>
+        <v>509</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>506</v>
+      </c>
       <c r="E174" s="24"/>
       <c r="F174" s="24" t="s">
         <v>502</v>
       </c>
       <c r="G174" s="24" t="s">
-        <v>588</v>
+        <v>510</v>
       </c>
       <c r="H174">
-        <v>23.6</v>
+        <v>74.5</v>
       </c>
       <c r="I174">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -10676,34 +11928,34 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="28.7">
       <c r="A175" s="21" t="s">
-        <v>589</v>
+        <v>511</v>
       </c>
       <c r="B175" s="24" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>590</v>
+        <v>509</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>110</v>
+        <v>506</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="24" t="s">
-        <v>631</v>
+        <v>502</v>
       </c>
       <c r="G175" s="24" t="s">
-        <v>591</v>
+        <v>512</v>
       </c>
       <c r="H175">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I175">
-        <v>69.5</v>
+        <v>108</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -10712,298 +11964,206 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:13">
-      <c r="A176" s="21" t="s">
-        <v>592</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="D176" s="35">
-        <v>1959</v>
-      </c>
-      <c r="E176" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="F176" s="24" t="s">
+      <c r="A176" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D176" s="34"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G176" s="24" t="s">
-        <v>594</v>
+      <c r="G176" s="22" t="s">
+        <v>467</v>
       </c>
       <c r="H176">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="I176">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="M176" t="s">
-        <v>644</v>
+        <v>2</v>
+      </c>
+      <c r="M176" s="22" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="177" spans="1:13">
-      <c r="A177" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="B177" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="D177" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="G177" s="24" t="s">
-        <v>597</v>
+      <c r="A177" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D177" s="34"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>469</v>
       </c>
       <c r="H177">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="I177">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>1</v>
-      </c>
-      <c r="M177" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="B181" t="s">
-        <v>43</v>
-      </c>
-      <c r="C181" t="s">
-        <v>609</v>
-      </c>
-      <c r="F181" t="s">
-        <v>222</v>
-      </c>
-      <c r="G181" t="s">
-        <v>610</v>
-      </c>
-      <c r="H181">
-        <v>47.8</v>
-      </c>
-      <c r="I181">
-        <v>35</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
-        <v>1</v>
-      </c>
-      <c r="M181" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13">
-      <c r="A182" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="B182" t="s">
-        <v>43</v>
-      </c>
-      <c r="C182" t="s">
-        <v>612</v>
-      </c>
-      <c r="F182" t="s">
-        <v>131</v>
-      </c>
-      <c r="G182" t="s">
-        <v>613</v>
-      </c>
-      <c r="H182">
-        <v>33</v>
-      </c>
-      <c r="I182">
-        <v>25</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="M182" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
-      <c r="A183" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="B183" t="s">
-        <v>43</v>
-      </c>
-      <c r="C183" t="s">
-        <v>615</v>
-      </c>
-      <c r="F183" t="s">
-        <v>131</v>
-      </c>
-      <c r="G183" t="s">
-        <v>616</v>
-      </c>
-      <c r="H183">
-        <v>39</v>
-      </c>
-      <c r="I183">
-        <v>29.5</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="M183" t="s">
-        <v>635</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M177" s="22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="M178" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A30 A32">
-    <cfRule type="duplicateValues" dxfId="84" priority="47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:M183">
+    <sortCondition ref="L41:L183"/>
+    <sortCondition ref="A41:A183"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:A23 A32 A25:A30">
+    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A110">
-    <cfRule type="duplicateValues" dxfId="83" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A79">
-    <cfRule type="duplicateValues" dxfId="82" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="duplicateValues" dxfId="81" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A79">
-    <cfRule type="duplicateValues" dxfId="80" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A79">
-    <cfRule type="duplicateValues" dxfId="79" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A79">
-    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A79">
-    <cfRule type="duplicateValues" dxfId="77" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="76" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="75" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="74" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A132">
-    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="72" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A148">
-    <cfRule type="duplicateValues" dxfId="71" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="69" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A153">
-    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="duplicateValues" dxfId="71" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="66" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="duplicateValues" dxfId="65" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" dxfId="64" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166">
-    <cfRule type="duplicateValues" dxfId="63" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167:A169">
-    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="61" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:A172">
-    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="duplicateValues" dxfId="59" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174">
-    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:A176">
-    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112:A134 A181:A183 A136:A137 A139:A177">
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
+  <conditionalFormatting sqref="A181:A183 A112:A134 A136:A137 A139:A177">
+    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:A134 A136:A137 A139:A144">
-    <cfRule type="duplicateValues" dxfId="55" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:A137 A139:A144">
-    <cfRule type="duplicateValues" dxfId="54" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:A161">
-    <cfRule type="duplicateValues" dxfId="53" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A30 A32:A134 A181:A1048576 A136:A137 A139:A177">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+  <conditionalFormatting sqref="A181:A1048576 A1:A23 A32:A134 A136:A137 A139:A177 A25:A30">
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L114" r:id="rId1" xr:uid="{504E5FCF-E31D-4333-93A1-B431C95D39A6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC34231-9CEA-47FA-BFD6-376FA1E0BDE0}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.7">
+    <row r="1" spans="1:15" ht="28.7">
       <c r="A1" s="36" t="s">
         <v>603</v>
       </c>
@@ -11039,7 +12199,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="36" t="s">
         <v>605</v>
       </c>
@@ -11075,7 +12235,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="21" t="s">
         <v>598</v>
       </c>
@@ -11111,12 +12271,12 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="21" t="s">
         <v>80</v>
       </c>
@@ -11152,7 +12312,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="21" t="s">
         <v>162</v>
       </c>
@@ -11188,42 +12348,90 @@
         <v>637</v>
       </c>
     </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.7">
+      <c r="A12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12">
+        <v>34.5</v>
+      </c>
+      <c r="I12">
+        <v>60.5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>744</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="52" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="51" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="50" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="48" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11233,8 +12441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DC95A6-1C20-4ED6-9D52-757DABF4343F}">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -11444,14 +12652,6 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.7">
-      <c r="A26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="27" spans="1:8" ht="15.7">
       <c r="A27" s="6" t="s">
         <v>71</v>
@@ -12685,116 +13885,116 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B9 B11:B24 B34 B26:B32">
-    <cfRule type="duplicateValues" dxfId="38" priority="42"/>
+  <conditionalFormatting sqref="B2:B9 B11:B24 B34 B27:B32">
+    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9 B11:B24 B34:B41 B26:B32">
-    <cfRule type="duplicateValues" dxfId="37" priority="41"/>
+  <conditionalFormatting sqref="B2:B9 B11:B24 B34:B41 B27:B32">
+    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B111">
-    <cfRule type="duplicateValues" dxfId="36" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B80">
-    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B80">
-    <cfRule type="duplicateValues" dxfId="33" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B80">
-    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80">
-    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B132">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B148">
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B153">
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B169">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171:B172">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:B176">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B177 B181:B183">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154:B161">
-    <cfRule type="duplicateValues" dxfId="6" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12802,10 +14002,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3459126E-43B9-4E2C-9C7A-F8309462E19F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -12834,11 +14034,25 @@
         <v>605</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15.7">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13094,8 +14308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D7542A-C953-471E-A69B-C6BB163F2B37}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7"/>
@@ -13121,7 +14335,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13129,10 +14343,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13140,10 +14354,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>707</v>
-      </c>
-      <c r="C4" s="47" t="s">
         <v>705</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13151,7 +14365,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13159,10 +14373,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13170,7 +14384,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13178,7 +14392,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13186,7 +14400,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13194,10 +14408,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.350000000000001" customHeight="1">
@@ -13205,10 +14419,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.350000000000001" customHeight="1">
@@ -13216,7 +14430,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13224,7 +14438,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13232,7 +14446,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13240,10 +14454,10 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13251,7 +14465,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13259,10 +14473,10 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13270,10 +14484,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13284,10 +14498,10 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13298,10 +14512,10 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13309,10 +14523,10 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13320,10 +14534,10 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13334,7 +14548,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13342,10 +14556,10 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13353,7 +14567,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13361,10 +14575,10 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13372,10 +14586,10 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13383,7 +14597,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13391,17 +14605,20 @@
         <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{8BD21A4F-1799-4F85-B8C1-0F8BD671BBA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/seeders/seedsRawData.xlsx
+++ b/seeders/seedsRawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smili\nodeJs\art_collection\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AE2C9F-9BBF-4D11-BC08-BD5F07C4A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02411324-6828-421F-A910-F586D18607E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
+    <workbookView xWindow="59340" yWindow="0" windowWidth="14460" windowHeight="17400" activeTab="7" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
   </bookViews>
   <sheets>
     <sheet name="artist" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="932">
   <si>
     <t>name</t>
   </si>
@@ -2951,6 +2951,78 @@
   </si>
   <si>
     <t>待確認是否有圖可取得，不然就不放這些作品、exhibitionArtwork也刪掉</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WxXYeI3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zsKyza6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bZYBMHB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/414VqdZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HCbfLU8.jpg</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/udcMzmg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NwhA4hV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1hQWekk.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CqUpDYj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4Kh679O.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/StrxRp8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/edfvZIu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vI5hrn4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/O10lhkD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8I3fJb1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vy0BJFZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LVyK5EY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MqS6zl7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Xo5Fswo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NnKowVh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jKzwLdU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GBGtUeM.jpg</t>
   </si>
 </sst>
 </file>
@@ -5410,7 +5482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B7D3C-9641-4757-A4D3-84371419D231}">
   <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
@@ -9381,7 +9453,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="43">
+    <row r="107" spans="1:13" ht="28.7">
       <c r="A107" s="21" t="s">
         <v>420</v>
       </c>
@@ -12353,7 +12425,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.7">
+    <row r="12" spans="1:15" ht="31.35">
       <c r="A12" s="12" t="s">
         <v>151</v>
       </c>
@@ -14199,10 +14271,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D559C658-0E26-48C2-9425-97D0AB2EAD7F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -14260,43 +14332,340 @@
         <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.35">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>923</v>
+      </c>
+      <c r="C6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.35">
+      <c r="A7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.35">
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
         <v>697</v>
-      </c>
-      <c r="C5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="B6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="B7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.35">
-      <c r="A8" s="44" t="s">
-        <v>703</v>
-      </c>
-      <c r="B8" t="s">
-        <v>702</v>
       </c>
       <c r="C8" t="s">
         <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.35">
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>925</v>
+      </c>
+      <c r="C9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.35">
+      <c r="A10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>926</v>
+      </c>
+      <c r="C10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.35">
+      <c r="A11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>927</v>
+      </c>
+      <c r="C11" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.35">
+      <c r="A12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>928</v>
+      </c>
+      <c r="C12" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.35">
+      <c r="A13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C13" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.35">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>930</v>
+      </c>
+      <c r="C14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.35">
+      <c r="A15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>931</v>
+      </c>
+      <c r="C15" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.35">
+      <c r="A16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>910</v>
+      </c>
+      <c r="C16" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C18" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B19" t="s">
+        <v>908</v>
+      </c>
+      <c r="C19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B20" t="s">
+        <v>909</v>
+      </c>
+      <c r="C20" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B21" t="s">
+        <v>910</v>
+      </c>
+      <c r="C21" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B22" t="s">
+        <v>911</v>
+      </c>
+      <c r="C22" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B23" t="s">
+        <v>912</v>
+      </c>
+      <c r="C23" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B24" t="s">
+        <v>915</v>
+      </c>
+      <c r="C24" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B25" t="s">
+        <v>916</v>
+      </c>
+      <c r="C25" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B26" t="s">
+        <v>917</v>
+      </c>
+      <c r="C26" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.35">
+      <c r="A27" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" t="s">
+        <v>702</v>
+      </c>
+      <c r="C27" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.35">
+      <c r="A28" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B28" t="s">
+        <v>911</v>
+      </c>
+      <c r="C28" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.35">
+      <c r="A29" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B29" t="s">
+        <v>917</v>
+      </c>
+      <c r="C29" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.35">
+      <c r="A30" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B30" t="s">
+        <v>918</v>
+      </c>
+      <c r="C30" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.35">
+      <c r="A31" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B31" t="s">
+        <v>919</v>
+      </c>
+      <c r="C31" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.35">
+      <c r="A32" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B32" t="s">
+        <v>920</v>
+      </c>
+      <c r="C32" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.35">
+      <c r="A33" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B33" t="s">
+        <v>921</v>
+      </c>
+      <c r="C33" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.35">
+      <c r="A34" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B34" t="s">
+        <v>922</v>
+      </c>
+      <c r="C34" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.35">
+      <c r="A35" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B35" t="s">
+        <v>923</v>
+      </c>
+      <c r="C35" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seedsRawData.xlsx
+++ b/seeders/seedsRawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smili\nodeJs\art_collection\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02411324-6828-421F-A910-F586D18607E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E924310-267C-41DE-9257-C0AE7AFDE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59340" yWindow="0" windowWidth="14460" windowHeight="17400" activeTab="7" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
+    <workbookView xWindow="45000" yWindow="0" windowWidth="14400" windowHeight="17400" activeTab="2" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
   </bookViews>
   <sheets>
     <sheet name="artist" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="932">
   <si>
     <t>name</t>
   </si>
@@ -907,10 +907,6 @@
     <t>夕陽山居</t>
   </si>
   <si>
-    <t xml:space="preserve"> 54x136cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00023878</t>
   </si>
   <si>
@@ -939,10 +935,6 @@
   </si>
   <si>
     <t>2014</t>
-  </si>
-  <si>
-    <t>137×74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20190417</t>
@@ -1829,10 +1821,6 @@
     <t>青銅</t>
   </si>
   <si>
-    <t>L:29.3cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00002865</t>
   </si>
   <si>
@@ -2389,9 +2377,6 @@
     <t>https://i.imgur.com/Ztv98vn.jpg</t>
   </si>
   <si>
-    <t>https://i.imgur.com/YQePcTf.png</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/QUFpw5R.jpg</t>
   </si>
   <si>
@@ -2950,9 +2935,6 @@
     <t>沒有圖</t>
   </si>
   <si>
-    <t>待確認是否有圖可取得，不然就不放這些作品、exhibitionArtwork也刪掉</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/WxXYeI3.jpg</t>
   </si>
   <si>
@@ -3023,6 +3005,21 @@
   </si>
   <si>
     <t>https://i.imgur.com/GBGtUeM.jpg</t>
+  </si>
+  <si>
+    <t>34.5×137</t>
+  </si>
+  <si>
+    <t>136x54cm</t>
+  </si>
+  <si>
+    <t>74×137</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7oNKh6m.jpg</t>
+  </si>
+  <si>
+    <t>29.3x14.6x18.4</t>
   </si>
 </sst>
 </file>
@@ -3147,7 +3144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3175,6 +3172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3231,7 +3234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3389,6 +3392,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5180,13 +5189,13 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.7">
       <c r="A2" s="2"/>
       <c r="D2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.7">
@@ -5194,13 +5203,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.7">
       <c r="A4" s="2"/>
       <c r="D4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.7">
@@ -5208,13 +5217,13 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.7">
       <c r="A6" s="2"/>
       <c r="D6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.7">
@@ -5222,13 +5231,13 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.7">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.7">
@@ -5236,12 +5245,12 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.7">
@@ -5434,7 +5443,7 @@
     </row>
     <row r="3" spans="1:11" ht="170.35" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B3" s="11">
         <v>44105</v>
@@ -5454,7 +5463,7 @@
     </row>
     <row r="4" spans="1:11" ht="387">
       <c r="A4" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B4" s="11">
         <v>44076</v>
@@ -5482,8 +5491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B7D3C-9641-4757-A4D3-84371419D231}">
   <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L156" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -5512,7 +5521,7 @@
         <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F1" t="s">
         <v>207</v>
@@ -5530,13 +5539,13 @@
         <v>211</v>
       </c>
       <c r="K1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.7">
@@ -5570,10 +5579,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.7">
@@ -5609,10 +5618,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.7">
@@ -5646,10 +5655,10 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.7">
@@ -5683,10 +5692,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.7">
@@ -5720,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.7">
@@ -5757,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.7">
@@ -5794,10 +5803,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.7">
@@ -5831,10 +5840,10 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.7">
@@ -5868,10 +5877,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.7">
@@ -5905,10 +5914,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.7">
@@ -5942,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.7">
@@ -5979,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="M13" s="40" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.7">
@@ -6018,10 +6027,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.7">
@@ -6057,10 +6066,10 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.7">
@@ -6096,10 +6105,10 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.7">
@@ -6135,10 +6144,10 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="M17" s="40" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.7">
@@ -6174,10 +6183,10 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.7">
@@ -6211,10 +6220,10 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.7">
@@ -6250,10 +6259,10 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.7">
@@ -6287,10 +6296,10 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.7">
@@ -6324,10 +6333,10 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.7">
@@ -6361,10 +6370,10 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.7">
@@ -6400,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.7">
@@ -6421,7 +6430,7 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>161</v>
@@ -6439,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.7">
@@ -6460,7 +6469,7 @@
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>165</v>
@@ -6478,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.7">
@@ -6499,7 +6508,7 @@
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>169</v>
@@ -6517,10 +6526,10 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.7">
@@ -6556,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="M29" s="40" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.7">
@@ -6577,7 +6586,7 @@
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>177</v>
@@ -6595,28 +6604,28 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.7">
       <c r="A31" s="12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D31" s="14"/>
       <c r="F31" s="13" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H31">
         <v>37</v>
@@ -6631,10 +6640,10 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.7">
@@ -6668,10 +6677,10 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.7">
@@ -6705,10 +6714,10 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.7">
@@ -6742,10 +6751,10 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="M34" s="40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.7">
@@ -6779,10 +6788,10 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.7">
@@ -6798,7 +6807,7 @@
       <c r="D36" s="29"/>
       <c r="E36" s="14"/>
       <c r="F36" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>195</v>
@@ -6816,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.7">
@@ -6835,7 +6844,7 @@
       <c r="D37" s="29"/>
       <c r="E37" s="14"/>
       <c r="F37" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>198</v>
@@ -6853,10 +6862,10 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.7">
@@ -6872,7 +6881,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="14"/>
       <c r="F38" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>201</v>
@@ -6890,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="M38" s="40" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.7">
@@ -6909,7 +6918,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="14"/>
       <c r="F39" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>204</v>
@@ -6927,31 +6936,31 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H41">
         <v>178</v>
@@ -6966,31 +6975,31 @@
         <v>4</v>
       </c>
       <c r="L41" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M41" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
         <v>131</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H42">
         <v>89.8</v>
@@ -7005,21 +7014,21 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="M42" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="43">
       <c r="A43" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="16"/>
@@ -7027,7 +7036,7 @@
         <v>222</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H43">
         <v>133</v>
@@ -7042,31 +7051,31 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="M43" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H44">
         <v>35</v>
@@ -7081,21 +7090,21 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="M44" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>168</v>
@@ -7105,7 +7114,7 @@
         <v>222</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H45">
         <v>102.5</v>
@@ -7120,31 +7129,31 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M45" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H46">
         <v>35</v>
@@ -7159,10 +7168,10 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M46" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.7">
@@ -7196,10 +7205,10 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="M47" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -7235,21 +7244,21 @@
         <v>2</v>
       </c>
       <c r="L48" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="M48" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="16"/>
@@ -7257,7 +7266,7 @@
         <v>131</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H49">
         <v>135.6</v>
@@ -7272,21 +7281,21 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="M49" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.7">
       <c r="A50" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="16"/>
@@ -7294,7 +7303,7 @@
         <v>222</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H50">
         <v>105.3</v>
@@ -7309,21 +7318,21 @@
         <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="M50" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="16"/>
@@ -7331,7 +7340,7 @@
         <v>222</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H51">
         <v>69.5</v>
@@ -7346,10 +7355,10 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="M51" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="28.7">
@@ -7385,10 +7394,10 @@
         <v>2</v>
       </c>
       <c r="L52" s="46" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="M52" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.7">
@@ -7424,21 +7433,21 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M53" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="16"/>
@@ -7446,7 +7455,7 @@
         <v>222</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H54">
         <v>81.5</v>
@@ -7461,29 +7470,29 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M54" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="28.7">
       <c r="A55" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H55">
         <v>241.5</v>
@@ -7498,10 +7507,10 @@
         <v>2</v>
       </c>
       <c r="L55" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="M55" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.7">
@@ -7537,38 +7546,38 @@
         <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="M56" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>394</v>
+        <v>927</v>
       </c>
       <c r="H57">
+        <v>34.5</v>
+      </c>
+      <c r="I57">
         <v>137</v>
       </c>
-      <c r="I57">
-        <v>34.5</v>
-      </c>
       <c r="J57">
         <v>0</v>
       </c>
@@ -7576,21 +7585,21 @@
         <v>1</v>
       </c>
       <c r="L57" s="46" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="M57" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="16"/>
@@ -7598,7 +7607,7 @@
         <v>222</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H58">
         <v>85</v>
@@ -7613,31 +7622,31 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="M58" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="28.7">
       <c r="A59" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H59">
         <v>137.5</v>
@@ -7649,34 +7658,34 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="M59" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H60">
         <v>137</v>
@@ -7691,21 +7700,21 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="M60" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="16"/>
@@ -7713,7 +7722,7 @@
         <v>222</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H61">
         <v>78</v>
@@ -7728,21 +7737,21 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="M61" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.7">
       <c r="A62" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="16"/>
@@ -7750,7 +7759,7 @@
         <v>222</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H62">
         <v>138.69999999999999</v>
@@ -7765,31 +7774,31 @@
         <v>2</v>
       </c>
       <c r="L62" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="M62" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H63">
         <v>450</v>
@@ -7804,29 +7813,29 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="M63" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.7">
       <c r="A64" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H64">
         <v>172.5</v>
@@ -7841,21 +7850,21 @@
         <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M64" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="16"/>
@@ -7863,7 +7872,7 @@
         <v>222</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H65">
         <v>116</v>
@@ -7878,31 +7887,31 @@
         <v>2</v>
       </c>
       <c r="L65" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="M65" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>266</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>267</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16" t="s">
         <v>131</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H66">
         <v>91</v>
@@ -7917,31 +7926,31 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="M66" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="43">
       <c r="A67" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H67">
         <v>133</v>
@@ -7956,31 +7965,31 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M67" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
         <v>131</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H68">
         <v>103</v>
@@ -7995,31 +8004,31 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="M68" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H69">
         <v>136</v>
@@ -8034,29 +8043,29 @@
         <v>2</v>
       </c>
       <c r="L69" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="M69" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="28.7">
       <c r="A70" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H70">
         <v>242</v>
@@ -8071,21 +8080,21 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M70" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="16"/>
@@ -8093,7 +8102,7 @@
         <v>222</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H71">
         <v>97</v>
@@ -8108,21 +8117,21 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="M71" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>230</v>
@@ -8132,7 +8141,7 @@
         <v>222</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H72">
         <v>164</v>
@@ -8147,10 +8156,10 @@
         <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="M72" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="28.7">
@@ -8184,31 +8193,31 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M73" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H74">
         <v>450</v>
@@ -8223,21 +8232,21 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="M74" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="28.7">
       <c r="A75" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D75" s="32"/>
       <c r="E75" s="16"/>
@@ -8245,7 +8254,7 @@
         <v>222</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H75">
         <v>93.5</v>
@@ -8260,10 +8269,10 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="M75" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="28.7">
@@ -8297,10 +8306,10 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="M76" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="28.7">
@@ -8336,21 +8345,21 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="M77" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="16"/>
@@ -8358,7 +8367,7 @@
         <v>222</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H78">
         <v>34</v>
@@ -8373,21 +8382,21 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="M78" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="57.35">
       <c r="A79" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="16"/>
@@ -8395,7 +8404,7 @@
         <v>222</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H79">
         <v>38.200000000000003</v>
@@ -8410,31 +8419,31 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M79" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H80">
         <v>137</v>
@@ -8449,21 +8458,21 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="M80" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D81" s="32"/>
       <c r="E81" s="16"/>
@@ -8471,7 +8480,7 @@
         <v>222</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H81">
         <v>95.5</v>
@@ -8486,10 +8495,10 @@
         <v>2</v>
       </c>
       <c r="L81" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="M81" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="28.7">
@@ -8523,31 +8532,31 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="M82" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H83">
         <v>450</v>
@@ -8562,10 +8571,10 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="M83" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16.7">
@@ -8586,14 +8595,14 @@
         <v>222</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>261</v>
+        <v>928</v>
       </c>
       <c r="H84">
+        <v>136</v>
+      </c>
+      <c r="I84">
         <v>54</v>
       </c>
-      <c r="I84">
-        <v>136</v>
-      </c>
       <c r="J84">
         <v>0</v>
       </c>
@@ -8601,29 +8610,29 @@
         <v>1</v>
       </c>
       <c r="L84" s="46" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="M84" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="28.7">
       <c r="A85" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D85" s="32"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H85">
         <v>165.5</v>
@@ -8638,31 +8647,31 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M85" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H86">
         <v>137</v>
@@ -8677,38 +8686,38 @@
         <v>1</v>
       </c>
       <c r="L86" s="46" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M86" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="32" t="s">
         <v>270</v>
-      </c>
-      <c r="D87" s="32" t="s">
-        <v>271</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G87" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="H87">
+      <c r="G87" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="H87" s="51">
+        <v>74</v>
+      </c>
+      <c r="I87" s="51">
         <v>137</v>
       </c>
-      <c r="I87">
-        <v>74</v>
-      </c>
       <c r="J87">
         <v>0</v>
       </c>
@@ -8716,33 +8725,33 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="M87" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="28.7">
       <c r="A88" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D88" s="32">
         <v>1931</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H88">
         <v>90.5</v>
@@ -8757,33 +8766,33 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="M88" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D89" s="32">
         <v>1996</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F89" s="16" t="s">
         <v>131</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H89">
         <v>137</v>
@@ -8798,10 +8807,10 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="M89" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="28.7">
@@ -8837,21 +8846,21 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="M90" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="16"/>
@@ -8859,7 +8868,7 @@
         <v>222</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H91">
         <v>23.5</v>
@@ -8874,31 +8883,31 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M91" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="43">
       <c r="A92" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H92">
         <v>133</v>
@@ -8913,31 +8922,31 @@
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M92" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="43">
       <c r="A93" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16" t="s">
         <v>222</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H93">
         <v>133</v>
@@ -8952,31 +8961,31 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="M93" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H94">
         <v>68.5</v>
@@ -8991,31 +9000,31 @@
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="M94" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H95">
         <v>137</v>
@@ -9030,31 +9039,31 @@
         <v>1</v>
       </c>
       <c r="L95" s="46" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M95" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H96">
         <v>450</v>
@@ -9069,10 +9078,10 @@
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="M96" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="28.7">
@@ -9108,31 +9117,31 @@
         <v>4</v>
       </c>
       <c r="L97" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="M97" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20" t="s">
         <v>131</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H98">
         <v>118</v>
@@ -9147,21 +9156,21 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M98" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="32"/>
       <c r="E99" s="16"/>
@@ -9169,7 +9178,7 @@
         <v>222</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H99">
         <v>182</v>
@@ -9184,10 +9193,10 @@
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="M99" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="28.7">
@@ -9221,21 +9230,21 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M100" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="32"/>
       <c r="E101" s="16"/>
@@ -9243,7 +9252,7 @@
         <v>222</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H101">
         <v>131.5</v>
@@ -9258,10 +9267,10 @@
         <v>2</v>
       </c>
       <c r="L101" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="M101" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="43">
@@ -9295,10 +9304,10 @@
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="M102" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="100.35">
@@ -9334,21 +9343,21 @@
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="M103" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D104" s="32"/>
       <c r="E104" s="16"/>
@@ -9356,7 +9365,7 @@
         <v>131</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H104">
         <v>120</v>
@@ -9371,10 +9380,10 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M104" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -9390,7 +9399,7 @@
       <c r="D105" s="35"/>
       <c r="E105" s="24"/>
       <c r="F105" s="24" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G105" s="24" t="s">
         <v>180</v>
@@ -9408,31 +9417,31 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="M105" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D106" s="35" t="s">
         <v>176</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H106">
         <v>44</v>
@@ -9447,21 +9456,21 @@
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="M106" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="28.7">
       <c r="A107" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B107" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D107" s="34"/>
       <c r="E107" s="22"/>
@@ -9469,7 +9478,7 @@
         <v>131</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H107">
         <v>69.5</v>
@@ -9484,21 +9493,21 @@
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="21" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B108" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D108" s="35" t="s">
         <v>110</v>
@@ -9508,7 +9517,7 @@
         <v>157</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H108">
         <v>87</v>
@@ -9523,31 +9532,31 @@
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="M108" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="21" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D109" s="35" t="s">
         <v>110</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H109">
         <v>45</v>
@@ -9562,29 +9571,29 @@
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="M109" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B110" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="24"/>
       <c r="F110" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H110">
         <v>45.5</v>
@@ -9599,28 +9608,28 @@
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="M110" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="28.7">
       <c r="A111" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B111" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G111" s="24" t="s">
         <v>158</v>
@@ -9638,31 +9647,31 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="M111" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G112" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H112">
         <v>38.5</v>
@@ -9677,21 +9686,21 @@
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="M112" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="22"/>
@@ -9699,7 +9708,7 @@
         <v>131</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H113">
         <v>44</v>
@@ -9714,33 +9723,33 @@
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D114" s="35">
         <v>1956</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F114" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H114">
         <v>44</v>
@@ -9755,21 +9764,21 @@
         <v>1</v>
       </c>
       <c r="L114" s="52" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="M114" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="24"/>
@@ -9777,7 +9786,7 @@
         <v>131</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H115">
         <v>62</v>
@@ -9792,29 +9801,29 @@
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="M115" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H116">
         <v>45.5</v>
@@ -9829,27 +9838,27 @@
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="M116" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B117" t="s">
         <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F117" t="s">
         <v>222</v>
       </c>
       <c r="G117" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H117">
         <v>47.8</v>
@@ -9864,21 +9873,21 @@
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="M117" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="24"/>
@@ -9886,7 +9895,7 @@
         <v>131</v>
       </c>
       <c r="G118" s="24" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H118">
         <v>48</v>
@@ -9901,21 +9910,21 @@
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="M118" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D119" s="35" t="s">
         <v>230</v>
@@ -9925,7 +9934,7 @@
         <v>131</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H119">
         <v>31</v>
@@ -9940,10 +9949,10 @@
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="M119" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -9960,7 +9969,7 @@
         <v>1963</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>131</v>
@@ -9981,21 +9990,21 @@
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="M120" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D121" s="35" t="s">
         <v>176</v>
@@ -10005,7 +10014,7 @@
         <v>157</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H121">
         <v>70</v>
@@ -10020,31 +10029,31 @@
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="M121" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H122">
         <v>45</v>
@@ -10059,31 +10068,31 @@
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="M122" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="21" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B123" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H123">
         <v>45</v>
@@ -10098,21 +10107,21 @@
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="M123" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B124" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="24"/>
@@ -10120,7 +10129,7 @@
         <v>157</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H124">
         <v>44</v>
@@ -10135,31 +10144,31 @@
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="M124" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B125" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H125">
         <v>73</v>
@@ -10174,31 +10183,31 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="M125" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B126" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H126">
         <v>29</v>
@@ -10213,31 +10222,31 @@
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="M126" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B127" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H127">
         <v>19.5</v>
@@ -10252,15 +10261,15 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="M127" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="28.7">
       <c r="A128" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B128" s="24" t="s">
         <v>23</v>
@@ -10269,14 +10278,14 @@
         <v>179</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G128" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H128">
         <v>76.7</v>
@@ -10291,29 +10300,29 @@
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="M128" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="28.7">
       <c r="A129" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B129" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="24"/>
       <c r="F129" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G129" s="24" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H129">
         <v>23.6</v>
@@ -10328,21 +10337,21 @@
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="M129" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B130" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D130" s="34"/>
       <c r="E130" s="22"/>
@@ -10350,7 +10359,7 @@
         <v>131</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H130">
         <v>95.5</v>
@@ -10365,21 +10374,21 @@
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="M130" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="28.7">
       <c r="A131" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B131" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D131" s="34"/>
       <c r="E131" s="22"/>
@@ -10387,7 +10396,7 @@
         <v>131</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H131">
         <v>96.5</v>
@@ -10402,21 +10411,21 @@
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B132" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D132" s="34"/>
       <c r="E132" s="22"/>
@@ -10424,7 +10433,7 @@
         <v>131</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H132">
         <v>123</v>
@@ -10439,33 +10448,33 @@
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B133" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D133" s="35">
         <v>1959</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F133" s="24" t="s">
         <v>222</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H133">
         <v>42</v>
@@ -10480,21 +10489,21 @@
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="M133" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="28.7">
       <c r="A134" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B134" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D134" s="34"/>
       <c r="E134" s="22"/>
@@ -10502,7 +10511,7 @@
         <v>131</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H134">
         <v>43</v>
@@ -10517,21 +10526,21 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B135" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D135" s="34"/>
       <c r="E135" s="22"/>
@@ -10539,7 +10548,7 @@
         <v>131</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H135">
         <v>45</v>
@@ -10554,21 +10563,21 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="M135" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B136" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D136" s="34"/>
       <c r="E136" s="22"/>
@@ -10576,7 +10585,7 @@
         <v>131</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H136">
         <v>134</v>
@@ -10591,21 +10600,21 @@
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="M136" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B137" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="24"/>
@@ -10613,7 +10622,7 @@
         <v>157</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H137">
         <v>109</v>
@@ -10628,21 +10637,21 @@
         <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="M137" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B138" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="24"/>
@@ -10650,7 +10659,7 @@
         <v>157</v>
       </c>
       <c r="G138" s="24" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H138">
         <v>158</v>
@@ -10665,31 +10674,31 @@
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="M138" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="21" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B139" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H139">
         <v>74</v>
@@ -10704,21 +10713,21 @@
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="M139" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B140" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="24"/>
@@ -10726,7 +10735,7 @@
         <v>157</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H140">
         <v>80</v>
@@ -10741,33 +10750,33 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="M140" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B141" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D141" s="34">
         <v>1980</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F141" s="22" t="s">
         <v>131</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H141">
         <v>44.5</v>
@@ -10782,31 +10791,31 @@
         <v>1</v>
       </c>
       <c r="L141" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="M141" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="28.7">
       <c r="A142" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G142" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H142">
         <v>34</v>
@@ -10821,29 +10830,29 @@
         <v>1</v>
       </c>
       <c r="L142" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="M142" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D143" s="35"/>
       <c r="E143" s="24"/>
       <c r="F143" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G143" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H143">
         <v>36.5</v>
@@ -10858,21 +10867,21 @@
         <v>1</v>
       </c>
       <c r="L143" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="M143" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="24"/>
@@ -10880,7 +10889,7 @@
         <v>157</v>
       </c>
       <c r="G144" s="24" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H144">
         <v>53</v>
@@ -10895,31 +10904,31 @@
         <v>1</v>
       </c>
       <c r="L144" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="M144" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G145" s="24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H145">
         <v>64</v>
@@ -10934,21 +10943,21 @@
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="M145" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B146" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D146" s="35" t="s">
         <v>230</v>
@@ -10958,7 +10967,7 @@
         <v>157</v>
       </c>
       <c r="G146" s="24" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H146">
         <v>90</v>
@@ -10973,31 +10982,31 @@
         <v>1</v>
       </c>
       <c r="L146" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="M146" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B147" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H147">
         <v>91.5</v>
@@ -11012,21 +11021,21 @@
         <v>1</v>
       </c>
       <c r="L147" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="M147" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B148" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="24"/>
@@ -11034,7 +11043,7 @@
         <v>157</v>
       </c>
       <c r="G148" s="24" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H148">
         <v>115.5</v>
@@ -11048,16 +11057,16 @@
       <c r="K148">
         <v>1</v>
       </c>
-      <c r="L148" t="s">
-        <v>889</v>
+      <c r="L148" s="52" t="s">
+        <v>885</v>
       </c>
       <c r="M148" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="28.7">
       <c r="A149" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B149" s="24" t="s">
         <v>23</v>
@@ -11066,14 +11075,14 @@
         <v>179</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H149">
         <v>77.5</v>
@@ -11088,21 +11097,21 @@
         <v>1</v>
       </c>
       <c r="L149" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="M149" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B150" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D150" s="34" t="s">
         <v>230</v>
@@ -11112,7 +11121,7 @@
         <v>131</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H150">
         <v>129.5</v>
@@ -11127,21 +11136,21 @@
         <v>1</v>
       </c>
       <c r="L150" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="M150" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B151" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D151" s="34"/>
       <c r="E151" s="22"/>
@@ -11149,7 +11158,7 @@
         <v>131</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H151">
         <v>96</v>
@@ -11164,24 +11173,24 @@
         <v>1</v>
       </c>
       <c r="L151" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B152" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="24" t="s">
@@ -11203,31 +11212,31 @@
         <v>1</v>
       </c>
       <c r="L152" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="M152" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B153" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H153">
         <v>39</v>
@@ -11242,31 +11251,31 @@
         <v>1</v>
       </c>
       <c r="L153" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="M153" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B154" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H154">
         <v>60</v>
@@ -11281,15 +11290,15 @@
         <v>1</v>
       </c>
       <c r="L154" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="M154" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B155" s="24" t="s">
         <v>34</v>
@@ -11300,44 +11309,47 @@
       <c r="D155" s="35"/>
       <c r="E155" s="24"/>
       <c r="F155" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="I155">
+        <v>931</v>
+      </c>
+      <c r="H155" s="51">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I155" s="51">
         <v>29.3</v>
       </c>
-      <c r="J155">
-        <v>0</v>
+      <c r="J155" s="51">
+        <v>14.6</v>
       </c>
       <c r="K155">
         <v>1</v>
       </c>
       <c r="L155" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="M155" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="28.7">
       <c r="A156" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B156" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="24"/>
       <c r="F156" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G156" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H156">
         <v>33</v>
@@ -11352,29 +11364,29 @@
         <v>1</v>
       </c>
       <c r="L156" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M156" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="28.7">
       <c r="A157" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B157" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="24"/>
       <c r="F157" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G157" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H157">
         <v>26</v>
@@ -11389,29 +11401,29 @@
         <v>1</v>
       </c>
       <c r="L157" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="M157" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="24"/>
       <c r="F158" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H158">
         <v>61</v>
@@ -11426,21 +11438,21 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M158" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B159" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D159" s="34"/>
       <c r="E159" s="22"/>
@@ -11448,7 +11460,7 @@
         <v>131</v>
       </c>
       <c r="G159" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H159">
         <v>73</v>
@@ -11463,21 +11475,21 @@
         <v>1</v>
       </c>
       <c r="L159" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="M159" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B160" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D160" s="34"/>
       <c r="E160" s="22"/>
@@ -11485,7 +11497,7 @@
         <v>131</v>
       </c>
       <c r="G160" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H160">
         <v>26.8</v>
@@ -11500,21 +11512,21 @@
         <v>1</v>
       </c>
       <c r="L160" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="M160" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B161" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D161" s="34"/>
       <c r="E161" s="22"/>
@@ -11522,7 +11534,7 @@
         <v>131</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H161">
         <v>61.5</v>
@@ -11537,10 +11549,10 @@
         <v>1</v>
       </c>
       <c r="L161" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="28.7">
@@ -11559,7 +11571,7 @@
         <v>131</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H162">
         <v>30</v>
@@ -11574,27 +11586,27 @@
         <v>5</v>
       </c>
       <c r="L162" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="M162" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="26" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B163" t="s">
         <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F163" t="s">
         <v>131</v>
       </c>
       <c r="G163" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H163">
         <v>33</v>
@@ -11609,27 +11621,27 @@
         <v>1</v>
       </c>
       <c r="L163" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="M163" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="26" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B164" t="s">
         <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F164" t="s">
         <v>131</v>
       </c>
       <c r="G164" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H164">
         <v>39</v>
@@ -11643,22 +11655,22 @@
       <c r="K164">
         <v>1</v>
       </c>
-      <c r="L164" t="s">
-        <v>905</v>
+      <c r="L164" s="52" t="s">
+        <v>886</v>
       </c>
       <c r="M164" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B165" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D165" s="34"/>
       <c r="E165" s="22"/>
@@ -11666,7 +11678,7 @@
         <v>222</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H165">
         <v>47</v>
@@ -11680,32 +11692,30 @@
       <c r="K165">
         <v>1</v>
       </c>
-      <c r="L165" s="51" t="s">
-        <v>907</v>
-      </c>
+      <c r="L165" s="53"/>
       <c r="M165" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D166" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E166" s="16"/>
       <c r="F166" s="16" t="s">
         <v>131</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H166">
         <v>40</v>
@@ -11719,8 +11729,9 @@
       <c r="K166">
         <v>1</v>
       </c>
+      <c r="L166" s="54"/>
       <c r="M166" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -11755,19 +11766,20 @@
       <c r="K167">
         <v>2</v>
       </c>
+      <c r="L167" s="54"/>
       <c r="M167" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D168" s="32"/>
       <c r="E168" s="16"/>
@@ -11775,7 +11787,7 @@
         <v>222</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H168">
         <v>146.80000000000001</v>
@@ -11789,19 +11801,20 @@
       <c r="K168">
         <v>4</v>
       </c>
+      <c r="L168" s="54"/>
       <c r="M168" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D169" s="32"/>
       <c r="E169" s="16"/>
@@ -11809,7 +11822,7 @@
         <v>131</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H169">
         <v>53.5</v>
@@ -11823,19 +11836,20 @@
       <c r="K169">
         <v>1</v>
       </c>
+      <c r="L169" s="54"/>
       <c r="M169" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="28.7">
       <c r="A170" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D170" s="32"/>
       <c r="E170" s="16"/>
@@ -11843,7 +11857,7 @@
         <v>131</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H170">
         <v>25</v>
@@ -11857,19 +11871,20 @@
       <c r="K170">
         <v>1</v>
       </c>
+      <c r="L170" s="54"/>
       <c r="M170" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B171" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D171" s="34"/>
       <c r="E171" s="22"/>
@@ -11877,7 +11892,7 @@
         <v>131</v>
       </c>
       <c r="G171" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H171">
         <v>96</v>
@@ -11891,29 +11906,30 @@
       <c r="K171">
         <v>1</v>
       </c>
+      <c r="L171" s="54"/>
       <c r="M171" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="28.7">
       <c r="A172" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G172" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H172">
         <v>81</v>
@@ -11927,29 +11943,30 @@
       <c r="K172">
         <v>1</v>
       </c>
+      <c r="L172" s="54"/>
       <c r="M172" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B173" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D173" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E173" s="16"/>
       <c r="F173" s="16" t="s">
         <v>131</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H173">
         <v>99</v>
@@ -11963,29 +11980,30 @@
       <c r="K173">
         <v>1</v>
       </c>
+      <c r="L173" s="54"/>
       <c r="M173" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="28.7">
       <c r="A174" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B174" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E174" s="24"/>
       <c r="F174" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G174" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H174">
         <v>74.5</v>
@@ -11999,29 +12017,30 @@
       <c r="K174">
         <v>1</v>
       </c>
+      <c r="L174" s="54"/>
       <c r="M174" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="28.7">
       <c r="A175" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B175" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G175" s="24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H175">
         <v>78</v>
@@ -12035,19 +12054,20 @@
       <c r="K175">
         <v>1</v>
       </c>
+      <c r="L175" s="54"/>
       <c r="M175" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B176" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D176" s="34"/>
       <c r="E176" s="22"/>
@@ -12055,7 +12075,7 @@
         <v>222</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H176">
         <v>134</v>
@@ -12069,19 +12089,20 @@
       <c r="K176">
         <v>2</v>
       </c>
+      <c r="L176" s="54"/>
       <c r="M176" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B177" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D177" s="34"/>
       <c r="E177" s="22"/>
@@ -12089,7 +12110,7 @@
         <v>222</v>
       </c>
       <c r="G177" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H177">
         <v>135</v>
@@ -12103,8 +12124,9 @@
       <c r="K177">
         <v>2</v>
       </c>
+      <c r="L177" s="54"/>
       <c r="M177" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -12219,9 +12241,11 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="L114" r:id="rId1" xr:uid="{504E5FCF-E31D-4333-93A1-B431C95D39A6}"/>
+    <hyperlink ref="L148" r:id="rId2" xr:uid="{C8670E59-E458-4176-9F78-DAA5C5A3FD82}"/>
+    <hyperlink ref="L164" r:id="rId3" xr:uid="{119CAA2B-AE1E-4AD2-9CD7-9E70660528E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -12230,30 +12254,30 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData>
     <row r="1" spans="1:15" ht="28.7">
       <c r="A1" s="36" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H1" s="27">
         <v>130</v>
@@ -12268,28 +12292,28 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="36" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H2" s="27">
         <v>27</v>
@@ -12304,28 +12328,28 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="21" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H3">
         <v>130</v>
@@ -12340,12 +12364,12 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -12381,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -12399,7 +12423,7 @@
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>165</v>
@@ -12417,12 +12441,12 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="31.35">
@@ -12456,54 +12480,54 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="O12" s="40" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="54" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="53" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="52" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="51" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="50" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="47" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12525,10 +12549,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.7">
@@ -12777,7 +12801,7 @@
         <v>71</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.7">
@@ -12846,7 +12870,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>213</v>
@@ -12854,7 +12878,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>217</v>
@@ -12862,7 +12886,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>220</v>
@@ -12870,7 +12894,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>224</v>
@@ -12878,7 +12902,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>228</v>
@@ -12886,7 +12910,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>232</v>
@@ -12894,7 +12918,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>235</v>
@@ -12902,7 +12926,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>238</v>
@@ -12910,7 +12934,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>241</v>
@@ -12918,7 +12942,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>244</v>
@@ -12926,7 +12950,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>246</v>
@@ -12934,7 +12958,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>249</v>
@@ -12942,7 +12966,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>252</v>
@@ -12950,7 +12974,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>254</v>
@@ -12958,7 +12982,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>256</v>
@@ -12966,7 +12990,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>259</v>
@@ -12974,623 +12998,623 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.35">
       <c r="A112" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.35">
       <c r="A113" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.35">
       <c r="A114" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.35">
       <c r="A115" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.35">
       <c r="A116" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.35">
       <c r="A117" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.35">
       <c r="A118" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.35">
       <c r="A119" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.35">
       <c r="A120" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.35">
       <c r="A121" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.35">
       <c r="A122" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.35">
       <c r="A123" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.35">
       <c r="A124" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.35">
       <c r="A125" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.35">
       <c r="A126" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.35">
       <c r="A127" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.35">
       <c r="A128" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.35">
       <c r="A129" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.35">
       <c r="A130" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.35">
       <c r="A131" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.35">
       <c r="A132" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.35">
       <c r="A133" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.35">
       <c r="A134" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.35">
       <c r="A135" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B135" s="21" t="s">
         <v>80</v>
@@ -13598,7 +13622,7 @@
     </row>
     <row r="136" spans="1:2" ht="15.35">
       <c r="A136" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B136" s="21" t="s">
         <v>101</v>
@@ -13606,7 +13630,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.35">
       <c r="A137" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B137" s="21" t="s">
         <v>149</v>
@@ -13614,7 +13638,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.35">
       <c r="A138" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>162</v>
@@ -13622,119 +13646,119 @@
     </row>
     <row r="139" spans="1:2" ht="15.35">
       <c r="A139" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.35">
       <c r="A140" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.35">
       <c r="A141" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.35">
       <c r="A142" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.35">
       <c r="A143" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.35">
       <c r="A144" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.35">
       <c r="A145" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.35">
       <c r="A146" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.35">
       <c r="A147" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.35">
       <c r="A148" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.35">
       <c r="A149" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.35">
       <c r="A150" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.35">
       <c r="A151" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.35">
       <c r="A152" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.35">
       <c r="A153" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>178</v>
@@ -13742,218 +13766,218 @@
     </row>
     <row r="154" spans="1:2" ht="15.35">
       <c r="A154" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.35">
       <c r="A155" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.35">
       <c r="A156" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.35">
       <c r="A157" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.35">
       <c r="A158" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.35">
       <c r="A159" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.35">
       <c r="A160" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.35">
       <c r="A161" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.35">
       <c r="A162" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.35">
       <c r="A163" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.35">
       <c r="A164" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.35">
       <c r="A165" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.35">
       <c r="A166" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.35">
       <c r="A167" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.35">
       <c r="A168" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.35">
       <c r="A169" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.35">
       <c r="A170" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.35">
       <c r="A171" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.35">
       <c r="A172" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.35">
       <c r="A173" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.35">
       <c r="A174" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.35">
       <c r="A175" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.35">
       <c r="A176" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.35">
       <c r="A177" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.35">
       <c r="A181" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.35">
       <c r="A182" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.35">
       <c r="A183" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -14087,7 +14111,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.35">
@@ -14095,7 +14119,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.35">
@@ -14103,7 +14127,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.7">
@@ -14146,62 +14170,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -14211,57 +14235,57 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -14273,7 +14297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D559C658-0E26-48C2-9425-97D0AB2EAD7F}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -14285,13 +14309,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.35">
@@ -14299,7 +14323,7 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -14310,10 +14334,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" t="s">
         <v>695</v>
-      </c>
-      <c r="C3" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.35">
@@ -14321,10 +14345,10 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" t="s">
         <v>696</v>
-      </c>
-      <c r="C4" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.35">
@@ -14332,10 +14356,10 @@
         <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C5" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.35">
@@ -14343,10 +14367,10 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C6" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.35">
@@ -14354,10 +14378,10 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C7" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.35">
@@ -14365,10 +14389,10 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.35">
@@ -14376,10 +14400,10 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C9" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.35">
@@ -14387,10 +14411,10 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C10" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.35">
@@ -14398,10 +14422,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C11" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.35">
@@ -14409,10 +14433,10 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C12" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.35">
@@ -14420,10 +14444,10 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C13" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.35">
@@ -14431,10 +14455,10 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C14" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.35">
@@ -14442,10 +14466,10 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C15" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.35">
@@ -14453,219 +14477,219 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C16" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B17" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C17" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B18" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C18" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B19" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C19" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B20" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C20" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B21" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C21" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B22" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C22" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B23" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C23" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B24" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C24" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B25" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C25" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B26" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C26" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.35">
       <c r="A27" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B27" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C27" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.35">
       <c r="A28" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B28" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C28" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.35">
       <c r="A29" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B29" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C29" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.35">
       <c r="A30" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C30" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.35">
       <c r="A31" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B31" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C31" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.35">
       <c r="A32" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B32" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C32" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.35">
       <c r="A33" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B33" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C33" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.35">
       <c r="A34" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B34" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C34" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.35">
       <c r="A35" s="44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B35" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C35" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -14677,8 +14701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D7542A-C953-471E-A69B-C6BB163F2B37}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7"/>
@@ -14693,10 +14717,10 @@
         <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14704,7 +14728,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14712,10 +14736,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14723,10 +14747,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14734,7 +14758,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14742,10 +14766,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14753,7 +14777,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14761,7 +14785,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14769,7 +14793,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14777,10 +14801,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.350000000000001" customHeight="1">
@@ -14788,10 +14812,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.350000000000001" customHeight="1">
@@ -14799,7 +14823,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14807,7 +14831,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14815,7 +14839,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14823,10 +14847,10 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14834,7 +14858,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14842,10 +14866,10 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14853,10 +14877,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14867,10 +14891,10 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14881,10 +14905,10 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14892,10 +14916,10 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>720</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14903,10 +14927,10 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14917,7 +14941,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14925,10 +14949,10 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -14936,7 +14960,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -14944,10 +14968,10 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -14955,10 +14979,10 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14966,7 +14990,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -14974,10 +14998,10 @@
         <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/seeders/seedsRawData.xlsx
+++ b/seeders/seedsRawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smili\nodeJs\art_collection\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E924310-267C-41DE-9257-C0AE7AFDE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8D9E6-A3CB-4398-AE87-14E6DC102EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45000" yWindow="0" windowWidth="14400" windowHeight="17400" activeTab="2" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="2" xr2:uid="{D8701844-A823-4B3C-B3BD-3BDA1D25A239}"/>
   </bookViews>
   <sheets>
     <sheet name="artist" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="1094">
   <si>
     <t>name</t>
   </si>
@@ -3020,6 +3020,492 @@
   </si>
   <si>
     <t>29.3x14.6x18.4</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4dkTPhzm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0qO8s3Xm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/c1G8kJYm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QQVulRIm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JtBAojtm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VnoxP59m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MSntSExm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kAj8WXIm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JLyfezmm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xvYXzWSm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QOYwDemm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fDlleKwm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/09qcIExm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qRdhzDWm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/f3gO20Sm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3LxQrjlm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9w8HsWIm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lJU7Xk8m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/G4exzbqm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fw85ACgm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LGlBcKRm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Je0LoyCm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Z10VyRFm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ce3OzzVm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JA0renbm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/x7JTYEYm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vDmeZK1m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yAfmpmKm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1SuDiqom.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aAoyC2Tm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JhAB3uVm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FjkJ7tKm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZR8pdMkm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lob19iom.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xlopoS9m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6nnn8P7m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lAvacI6m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0Cf1Y1Lm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0KvlcoMm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0rCdU0mm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0vHcKJrm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0y1OV1hm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/395riYSm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3FlSnepm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/62zOFYum.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8RVrZrTm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9ERXAz8m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9nBGTsBm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9QhMGvhm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Agb9Z5Wm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DAcgu2Fm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DrUa3nWm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/E1b5zSym.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Enf2Y6Rm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EQ3tyiXm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EZ8gUO1m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FIvXzYKm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/G1oR3bEm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GsDO5ezm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HolsUtNm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IvU8aa5m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IZjAD2jm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jEE4tewm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KvkPrcFm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kvR3Dd4m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/M2mY4Lxm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/N9TLzEDm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nURTPOzm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OsrUz0Sm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oWCWAUUm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PckYviom.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PFoq00Fm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/phFUHVcm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pJUaWI2m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Q3YVr1mm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QyEWYxsm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/r1XbwxOm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rmNzjF7m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RU4wdxLm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ruS9nfNm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/s5XkYcHm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/scjC2yHm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SDDLbfam.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SNagijYm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/stOHELem.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/t170xN6m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tR8wNmdm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/U4wtUspm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/v1yNjcUm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/V5l6N0Fm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VdbxZvjm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Vn3YwX7m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WIFtsCYm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WLt1sbVm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WUj0NYhm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xAybNnxm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XLeOcssm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XqFksmem.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xqnSk5vm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yZwWaGum.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zNrobM6m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oFauDDpm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Qi9mHzKm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ih9ggS6m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xUNy89gm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mQLoKdJm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dZMQJtHm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H74HIfdm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qnYMz7tm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KUqMOkSm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H8Mt16cm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lwIV92gm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lDYA1Bwm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8ZFxamVm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zP9GmCDm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DvLgNmKm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aTlOtLam.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Z73kPFfm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0UmbJEFm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uZ4bgSCm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HdixVHXm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iZUeN7om.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oUvmijrm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NdB8VzQm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HI0YLJam.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tqOedAYm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/e1pdJkAm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QQyfDjSm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/po1WEgim.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ruWY0gBm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hOaZRbbm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iQN8Yunm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6aWRb3Im.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zmuLD8tm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sajim6Nm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/36NOAwum.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ir9GZXym.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ls6vjvHm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TnYZEyCm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uFd4XkNm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/W3AoXCem.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GMPpX5dm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ERLmr3um.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yLXKRTsm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FS62vvYm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IkZbkZGm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1ZWNpL8m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rRIPeOdm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/U3Sl0eHm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EfgzuNHm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pzA4y0cm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vV982Z4m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kiaOduom.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZrEqyuDm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ST20xqom.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NhrZn0gm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QlOEwgMm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aBl5bEjm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GjASiq0m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Df4o7lzm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CKjXZrjm.jpg</t>
+  </si>
+  <si>
+    <t>url_origin</t>
   </si>
 </sst>
 </file>
@@ -3234,7 +3720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3367,16 +3853,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3400,6 +3880,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5255,131 +5736,127 @@
     </row>
     <row r="15" spans="1:4" ht="15.7">
       <c r="A15" s="1"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="45"/>
     </row>
     <row r="16" spans="1:4" ht="15.7">
       <c r="A16" s="2"/>
-      <c r="C16" s="45"/>
     </row>
     <row r="17" spans="1:3" ht="15.7">
       <c r="A17" s="2"/>
-      <c r="C17" s="45"/>
     </row>
     <row r="18" spans="1:3" ht="15.7">
       <c r="A18" s="2"/>
-      <c r="C18" s="49"/>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="1:3" ht="15.7">
       <c r="A19" s="2"/>
-      <c r="C19" s="47"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:3" ht="15.7">
       <c r="A20" s="2"/>
-      <c r="C20" s="48"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" ht="15.7">
       <c r="A21" s="2"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:3" ht="15.7">
       <c r="A22" s="2"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" ht="15.7">
       <c r="A23" s="2"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:3" ht="15.7">
       <c r="A24" s="2"/>
-      <c r="C24" s="48"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:3" ht="15.7">
       <c r="A25" s="2"/>
-      <c r="C25" s="45"/>
     </row>
     <row r="26" spans="1:3" ht="15.7">
       <c r="A26" s="2"/>
-      <c r="C26" s="48"/>
+      <c r="C26" s="46"/>
     </row>
     <row r="27" spans="1:3" ht="15.7">
       <c r="A27" s="2"/>
-      <c r="C27" s="48"/>
+      <c r="C27" s="46"/>
     </row>
     <row r="28" spans="1:3" ht="15.7">
       <c r="A28" s="2"/>
-      <c r="C28" s="48"/>
+      <c r="C28" s="46"/>
     </row>
     <row r="29" spans="1:3" ht="15.7">
       <c r="A29" s="2"/>
-      <c r="C29" s="48"/>
+      <c r="C29" s="46"/>
     </row>
     <row r="30" spans="1:3" ht="15.7">
       <c r="A30" s="2"/>
-      <c r="C30" s="48"/>
+      <c r="C30" s="46"/>
     </row>
     <row r="31" spans="1:3" ht="15.7">
       <c r="A31" s="2"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="46"/>
     </row>
     <row r="32" spans="1:3" ht="15.7">
       <c r="A32" s="2"/>
-      <c r="C32" s="48"/>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:3" ht="15.7">
       <c r="A33" s="2"/>
-      <c r="C33" s="46"/>
+      <c r="C33" s="45"/>
     </row>
     <row r="34" spans="1:3" ht="15.7">
       <c r="A34" s="2"/>
-      <c r="C34" s="48"/>
+      <c r="C34" s="46"/>
     </row>
     <row r="35" spans="1:3" ht="15.7">
       <c r="A35" s="2"/>
-      <c r="C35" s="46"/>
+      <c r="C35" s="45"/>
     </row>
     <row r="36" spans="1:3" ht="15.7">
       <c r="A36" s="3"/>
-      <c r="C36" s="48"/>
+      <c r="C36" s="46"/>
     </row>
     <row r="37" spans="1:3" ht="15.7">
       <c r="A37" s="4"/>
-      <c r="C37" s="45"/>
     </row>
     <row r="38" spans="1:3" ht="15.7">
       <c r="A38" s="4"/>
-      <c r="C38" s="48"/>
+      <c r="C38" s="46"/>
     </row>
     <row r="39" spans="1:3" ht="15.7">
       <c r="A39" s="4"/>
-      <c r="C39" s="46"/>
+      <c r="C39" s="45"/>
     </row>
     <row r="40" spans="1:3" ht="15.7">
       <c r="A40" s="4"/>
-      <c r="C40" s="48"/>
+      <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:3" ht="15.7">
       <c r="A41" s="4"/>
-      <c r="C41" s="48"/>
+      <c r="C41" s="46"/>
     </row>
     <row r="42" spans="1:3" ht="15.7">
       <c r="A42" s="4"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="46"/>
     </row>
     <row r="43" spans="1:3" ht="15.7">
       <c r="A43" s="4"/>
-      <c r="C43" s="48"/>
+      <c r="C43" s="46"/>
     </row>
     <row r="44" spans="1:3" ht="15.7">
       <c r="A44" s="1"/>
-      <c r="C44" s="48"/>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" spans="1:3" ht="15.7">
       <c r="A45" s="1"/>
-      <c r="C45" s="48"/>
+      <c r="C45" s="46"/>
     </row>
     <row r="46" spans="1:3" ht="15.7">
       <c r="A46" s="5"/>
-      <c r="C46" s="48"/>
+      <c r="C46" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5489,10 +5966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B7D3C-9641-4757-A4D3-84371419D231}">
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -5505,9 +5982,10 @@
     <col min="7" max="7" width="13.41015625" customWidth="1"/>
     <col min="8" max="11" width="8.9375" customWidth="1"/>
     <col min="12" max="12" width="35.703125" customWidth="1"/>
+    <col min="13" max="13" width="37.234375" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -5542,13 +6020,16 @@
         <v>615</v>
       </c>
       <c r="L1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M1" t="s">
         <v>689</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.7">
+    <row r="2" spans="1:14" ht="15.7">
       <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
@@ -5581,11 +6062,14 @@
       <c r="L2" t="s">
         <v>805</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="53" t="s">
+        <v>932</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.7">
+    <row r="3" spans="1:14" ht="15.7">
       <c r="A3" s="12" t="s">
         <v>80</v>
       </c>
@@ -5620,11 +6104,14 @@
       <c r="L3" t="s">
         <v>806</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="53" t="s">
+        <v>933</v>
+      </c>
+      <c r="N3" s="40" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.7">
+    <row r="4" spans="1:14" ht="15.7">
       <c r="A4" s="12" t="s">
         <v>84</v>
       </c>
@@ -5657,11 +6144,14 @@
       <c r="L4" t="s">
         <v>807</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="53" t="s">
+        <v>934</v>
+      </c>
+      <c r="N4" s="40" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.7">
+    <row r="5" spans="1:14" ht="15.7">
       <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
@@ -5694,11 +6184,14 @@
       <c r="L5" t="s">
         <v>808</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="53" t="s">
+        <v>935</v>
+      </c>
+      <c r="N5" s="40" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.7">
+    <row r="6" spans="1:14" ht="15.7">
       <c r="A6" s="15" t="s">
         <v>89</v>
       </c>
@@ -5731,11 +6224,14 @@
       <c r="L6" t="s">
         <v>810</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="53" t="s">
+        <v>936</v>
+      </c>
+      <c r="N6" s="40" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.7">
+    <row r="7" spans="1:14" ht="15.7">
       <c r="A7" s="12" t="s">
         <v>92</v>
       </c>
@@ -5768,11 +6264,14 @@
       <c r="L7" t="s">
         <v>811</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="53" t="s">
+        <v>937</v>
+      </c>
+      <c r="N7" s="40" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.7">
+    <row r="8" spans="1:14" ht="15.7">
       <c r="A8" s="12" t="s">
         <v>95</v>
       </c>
@@ -5805,11 +6304,14 @@
       <c r="L8" t="s">
         <v>812</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="53" t="s">
+        <v>938</v>
+      </c>
+      <c r="N8" s="40" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.7">
+    <row r="9" spans="1:14" ht="15.7">
       <c r="A9" s="12" t="s">
         <v>98</v>
       </c>
@@ -5842,11 +6344,14 @@
       <c r="L9" t="s">
         <v>816</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="53" t="s">
+        <v>939</v>
+      </c>
+      <c r="N9" s="40" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.7">
+    <row r="10" spans="1:14" ht="15.7">
       <c r="A10" s="12" t="s">
         <v>104</v>
       </c>
@@ -5879,11 +6384,14 @@
       <c r="L10" t="s">
         <v>817</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="53" t="s">
+        <v>940</v>
+      </c>
+      <c r="N10" s="40" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.7">
+    <row r="11" spans="1:14" ht="15.7">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -5916,11 +6424,14 @@
       <c r="L11" t="s">
         <v>818</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="53" t="s">
+        <v>941</v>
+      </c>
+      <c r="N11" s="40" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.7">
+    <row r="12" spans="1:14" ht="15.7">
       <c r="A12" s="12" t="s">
         <v>111</v>
       </c>
@@ -5953,11 +6464,14 @@
       <c r="L12" t="s">
         <v>819</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="53" t="s">
+        <v>942</v>
+      </c>
+      <c r="N12" s="40" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.7">
+    <row r="13" spans="1:14" ht="15.7">
       <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
@@ -5990,11 +6504,14 @@
       <c r="L13" t="s">
         <v>820</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="53" t="s">
+        <v>943</v>
+      </c>
+      <c r="N13" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.7">
+    <row r="14" spans="1:14" ht="15.7">
       <c r="A14" s="15" t="s">
         <v>117</v>
       </c>
@@ -6029,11 +6546,14 @@
       <c r="L14" t="s">
         <v>821</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="53" t="s">
+        <v>944</v>
+      </c>
+      <c r="N14" s="40" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.7">
+    <row r="15" spans="1:14" ht="15.7">
       <c r="A15" s="12" t="s">
         <v>120</v>
       </c>
@@ -6068,11 +6588,14 @@
       <c r="L15" t="s">
         <v>822</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="53" t="s">
+        <v>945</v>
+      </c>
+      <c r="N15" s="40" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.7">
+    <row r="16" spans="1:14" ht="15.7">
       <c r="A16" s="12" t="s">
         <v>123</v>
       </c>
@@ -6107,11 +6630,14 @@
       <c r="L16" t="s">
         <v>823</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="53" t="s">
+        <v>946</v>
+      </c>
+      <c r="N16" s="40" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.7">
+    <row r="17" spans="1:14" ht="15.7">
       <c r="A17" s="12" t="s">
         <v>126</v>
       </c>
@@ -6146,11 +6672,14 @@
       <c r="L17" t="s">
         <v>824</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="53" t="s">
+        <v>947</v>
+      </c>
+      <c r="N17" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.7">
+    <row r="18" spans="1:14" ht="15.7">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
@@ -6185,11 +6714,14 @@
       <c r="L18" t="s">
         <v>825</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="53" t="s">
+        <v>948</v>
+      </c>
+      <c r="N18" s="40" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.7">
+    <row r="19" spans="1:14" ht="15.7">
       <c r="A19" s="15" t="s">
         <v>133</v>
       </c>
@@ -6222,11 +6754,14 @@
       <c r="L19" t="s">
         <v>834</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="53" t="s">
+        <v>949</v>
+      </c>
+      <c r="N19" s="40" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.7">
+    <row r="20" spans="1:14" ht="15.7">
       <c r="A20" s="12" t="s">
         <v>136</v>
       </c>
@@ -6261,11 +6796,14 @@
       <c r="L20" t="s">
         <v>835</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="53" t="s">
+        <v>950</v>
+      </c>
+      <c r="N20" s="40" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.7">
+    <row r="21" spans="1:14" ht="15.7">
       <c r="A21" s="15" t="s">
         <v>139</v>
       </c>
@@ -6298,11 +6836,14 @@
       <c r="L21" t="s">
         <v>837</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="53" t="s">
+        <v>951</v>
+      </c>
+      <c r="N21" s="40" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.7">
+    <row r="22" spans="1:14" ht="15.7">
       <c r="A22" s="12" t="s">
         <v>142</v>
       </c>
@@ -6335,11 +6876,14 @@
       <c r="L22" t="s">
         <v>840</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="53" t="s">
+        <v>952</v>
+      </c>
+      <c r="N22" s="40" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.7">
+    <row r="23" spans="1:14" ht="15.7">
       <c r="A23" s="12" t="s">
         <v>145</v>
       </c>
@@ -6372,11 +6916,14 @@
       <c r="L23" t="s">
         <v>841</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="53" t="s">
+        <v>953</v>
+      </c>
+      <c r="N23" s="40" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.7">
+    <row r="25" spans="1:14" ht="15.7">
       <c r="A25" s="12" t="s">
         <v>154</v>
       </c>
@@ -6411,11 +6958,14 @@
       <c r="L25" t="s">
         <v>826</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="53" t="s">
+        <v>954</v>
+      </c>
+      <c r="N25" s="40" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.7">
+    <row r="26" spans="1:14" ht="15.7">
       <c r="A26" s="12" t="s">
         <v>159</v>
       </c>
@@ -6450,11 +7000,14 @@
       <c r="L26" t="s">
         <v>814</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="53" t="s">
+        <v>955</v>
+      </c>
+      <c r="N26" s="40" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.7">
+    <row r="27" spans="1:14" ht="15.7">
       <c r="A27" s="12" t="s">
         <v>162</v>
       </c>
@@ -6489,11 +7042,14 @@
       <c r="L27" t="s">
         <v>832</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="53" t="s">
+        <v>956</v>
+      </c>
+      <c r="N27" s="40" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.7">
+    <row r="28" spans="1:14" ht="15.7">
       <c r="A28" s="12" t="s">
         <v>166</v>
       </c>
@@ -6528,11 +7084,14 @@
       <c r="L28" t="s">
         <v>833</v>
       </c>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="53" t="s">
+        <v>957</v>
+      </c>
+      <c r="N28" s="40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.7">
+    <row r="29" spans="1:14" ht="15.7">
       <c r="A29" s="12" t="s">
         <v>170</v>
       </c>
@@ -6567,11 +7126,14 @@
       <c r="L29" t="s">
         <v>838</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="53" t="s">
+        <v>958</v>
+      </c>
+      <c r="N29" s="40" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.7">
+    <row r="30" spans="1:14" ht="15.7">
       <c r="A30" s="12" t="s">
         <v>174</v>
       </c>
@@ -6606,11 +7168,14 @@
       <c r="L30" t="s">
         <v>836</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="N30" s="40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.7">
+    <row r="31" spans="1:14" ht="15.7">
       <c r="A31" s="12" t="s">
         <v>662</v>
       </c>
@@ -6642,11 +7207,14 @@
       <c r="L31" t="s">
         <v>809</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="53" t="s">
+        <v>960</v>
+      </c>
+      <c r="N31" s="40" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.7">
+    <row r="32" spans="1:14" ht="15.7">
       <c r="A32" s="12" t="s">
         <v>181</v>
       </c>
@@ -6679,11 +7247,14 @@
       <c r="L32" t="s">
         <v>813</v>
       </c>
-      <c r="M32" s="40" t="s">
+      <c r="M32" s="53" t="s">
+        <v>961</v>
+      </c>
+      <c r="N32" s="40" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.7">
+    <row r="33" spans="1:14" ht="15.7">
       <c r="A33" s="12" t="s">
         <v>184</v>
       </c>
@@ -6716,11 +7287,14 @@
       <c r="L33" t="s">
         <v>815</v>
       </c>
-      <c r="M33" s="40" t="s">
+      <c r="M33" s="53" t="s">
+        <v>962</v>
+      </c>
+      <c r="N33" s="40" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.7">
+    <row r="34" spans="1:14" ht="15.7">
       <c r="A34" s="12" t="s">
         <v>187</v>
       </c>
@@ -6753,11 +7327,14 @@
       <c r="L34" t="s">
         <v>827</v>
       </c>
-      <c r="M34" s="40" t="s">
+      <c r="M34" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="N34" s="40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.7">
+    <row r="35" spans="1:14" ht="15.7">
       <c r="A35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6790,11 +7367,14 @@
       <c r="L35" t="s">
         <v>828</v>
       </c>
-      <c r="M35" s="40" t="s">
+      <c r="M35" s="53" t="s">
+        <v>964</v>
+      </c>
+      <c r="N35" s="40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.7">
+    <row r="36" spans="1:14" ht="15.7">
       <c r="A36" s="12" t="s">
         <v>193</v>
       </c>
@@ -6827,11 +7407,14 @@
       <c r="L36" t="s">
         <v>829</v>
       </c>
-      <c r="M36" s="40" t="s">
+      <c r="M36" s="53" t="s">
+        <v>965</v>
+      </c>
+      <c r="N36" s="40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.7">
+    <row r="37" spans="1:14" ht="15.7">
       <c r="A37" s="12" t="s">
         <v>196</v>
       </c>
@@ -6864,11 +7447,14 @@
       <c r="L37" t="s">
         <v>830</v>
       </c>
-      <c r="M37" s="40" t="s">
+      <c r="M37" s="53" t="s">
+        <v>966</v>
+      </c>
+      <c r="N37" s="40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.7">
+    <row r="38" spans="1:14" ht="15.7">
       <c r="A38" s="12" t="s">
         <v>199</v>
       </c>
@@ -6901,11 +7487,14 @@
       <c r="L38" t="s">
         <v>831</v>
       </c>
-      <c r="M38" s="40" t="s">
+      <c r="M38" s="53" t="s">
+        <v>967</v>
+      </c>
+      <c r="N38" s="40" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.7">
+    <row r="39" spans="1:14" ht="15.7">
       <c r="A39" s="12" t="s">
         <v>202</v>
       </c>
@@ -6938,11 +7527,14 @@
       <c r="L39" t="s">
         <v>839</v>
       </c>
-      <c r="M39" s="40" t="s">
+      <c r="M39" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="N39" s="40" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="16" t="s">
         <v>287</v>
       </c>
@@ -6977,11 +7569,14 @@
       <c r="L41" t="s">
         <v>796</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="53" t="s">
+        <v>969</v>
+      </c>
+      <c r="N41" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="16" t="s">
         <v>325</v>
       </c>
@@ -7016,11 +7611,14 @@
       <c r="L42" t="s">
         <v>788</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="53" t="s">
+        <v>970</v>
+      </c>
+      <c r="N42" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="43">
+    <row r="43" spans="1:14" ht="43">
       <c r="A43" s="16" t="s">
         <v>309</v>
       </c>
@@ -7053,11 +7651,14 @@
       <c r="L43" t="s">
         <v>765</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="53" t="s">
+        <v>971</v>
+      </c>
+      <c r="N43" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="20" t="s">
         <v>414</v>
       </c>
@@ -7092,11 +7693,14 @@
       <c r="L44" t="s">
         <v>789</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="53" t="s">
+        <v>972</v>
+      </c>
+      <c r="N44" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="16" t="s">
         <v>376</v>
       </c>
@@ -7131,11 +7735,14 @@
       <c r="L45" t="s">
         <v>794</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="53" t="s">
+        <v>973</v>
+      </c>
+      <c r="N45" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="20" t="s">
         <v>386</v>
       </c>
@@ -7170,11 +7777,14 @@
       <c r="L46" t="s">
         <v>772</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="53" t="s">
+        <v>974</v>
+      </c>
+      <c r="N46" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="28.7">
+    <row r="47" spans="1:14" ht="28.7">
       <c r="A47" s="16" t="s">
         <v>244</v>
       </c>
@@ -7207,11 +7817,14 @@
       <c r="L47" t="s">
         <v>783</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="53" t="s">
+        <v>975</v>
+      </c>
+      <c r="N47" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="16" t="s">
         <v>228</v>
       </c>
@@ -7246,11 +7859,14 @@
       <c r="L48" t="s">
         <v>797</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="53" t="s">
+        <v>976</v>
+      </c>
+      <c r="N48" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="16" t="s">
         <v>302</v>
       </c>
@@ -7283,11 +7899,14 @@
       <c r="L49" t="s">
         <v>760</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="53" t="s">
+        <v>977</v>
+      </c>
+      <c r="N49" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="28.7">
+    <row r="50" spans="1:14" ht="28.7">
       <c r="A50" s="16" t="s">
         <v>352</v>
       </c>
@@ -7320,11 +7939,14 @@
       <c r="L50" t="s">
         <v>761</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="53" t="s">
+        <v>978</v>
+      </c>
+      <c r="N50" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="16" t="s">
         <v>347</v>
       </c>
@@ -7357,11 +7979,14 @@
       <c r="L51" t="s">
         <v>769</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="53" t="s">
+        <v>979</v>
+      </c>
+      <c r="N51" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.7">
+    <row r="52" spans="1:14" ht="28.7">
       <c r="A52" s="16" t="s">
         <v>217</v>
       </c>
@@ -7393,14 +8018,17 @@
       <c r="K52">
         <v>2</v>
       </c>
-      <c r="L52" s="46" t="s">
+      <c r="L52" s="45" t="s">
         <v>758</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="53" t="s">
+        <v>980</v>
+      </c>
+      <c r="N52" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.7">
+    <row r="53" spans="1:14" ht="15.7">
       <c r="A53" s="16" t="s">
         <v>256</v>
       </c>
@@ -7435,11 +8063,14 @@
       <c r="L53" t="s">
         <v>775</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="53" t="s">
+        <v>981</v>
+      </c>
+      <c r="N53" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="16" t="s">
         <v>380</v>
       </c>
@@ -7472,11 +8103,14 @@
       <c r="L54" t="s">
         <v>791</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="53" t="s">
+        <v>982</v>
+      </c>
+      <c r="N54" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="28.7">
+    <row r="55" spans="1:14" ht="28.7">
       <c r="A55" s="16" t="s">
         <v>278</v>
       </c>
@@ -7509,11 +8143,14 @@
       <c r="L55" t="s">
         <v>768</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="53" t="s">
+        <v>983</v>
+      </c>
+      <c r="N55" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.7">
+    <row r="56" spans="1:14" ht="15.7">
       <c r="A56" s="16" t="s">
         <v>213</v>
       </c>
@@ -7548,11 +8185,14 @@
       <c r="L56" t="s">
         <v>776</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="53" t="s">
+        <v>984</v>
+      </c>
+      <c r="N56" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="20" t="s">
         <v>389</v>
       </c>
@@ -7584,14 +8224,17 @@
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="45" t="s">
         <v>756</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="53" t="s">
+        <v>985</v>
+      </c>
+      <c r="N57" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="16" t="s">
         <v>378</v>
       </c>
@@ -7624,11 +8267,14 @@
       <c r="L58" t="s">
         <v>793</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="53" t="s">
+        <v>986</v>
+      </c>
+      <c r="N58" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="28.7">
+    <row r="59" spans="1:14" ht="28.7">
       <c r="A59" s="16" t="s">
         <v>368</v>
       </c>
@@ -7663,11 +8309,14 @@
       <c r="L59" t="s">
         <v>803</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="53" t="s">
+        <v>987</v>
+      </c>
+      <c r="N59" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="16" t="s">
         <v>305</v>
       </c>
@@ -7702,11 +8351,14 @@
       <c r="L60" t="s">
         <v>787</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="53" t="s">
+        <v>988</v>
+      </c>
+      <c r="N60" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="16" t="s">
         <v>371</v>
       </c>
@@ -7739,11 +8391,14 @@
       <c r="L61" t="s">
         <v>802</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="53" t="s">
+        <v>989</v>
+      </c>
+      <c r="N61" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.7">
+    <row r="62" spans="1:14" ht="28.7">
       <c r="A62" s="16" t="s">
         <v>366</v>
       </c>
@@ -7776,11 +8431,14 @@
       <c r="L62" t="s">
         <v>741</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="53" t="s">
+        <v>990</v>
+      </c>
+      <c r="N62" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="20" t="s">
         <v>403</v>
       </c>
@@ -7815,11 +8473,14 @@
       <c r="L63" t="s">
         <v>751</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="53" t="s">
+        <v>991</v>
+      </c>
+      <c r="N63" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="28.7">
+    <row r="64" spans="1:14" ht="28.7">
       <c r="A64" s="16" t="s">
         <v>342</v>
       </c>
@@ -7852,11 +8513,14 @@
       <c r="L64" t="s">
         <v>777</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="53" t="s">
+        <v>992</v>
+      </c>
+      <c r="N64" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="16" t="s">
         <v>358</v>
       </c>
@@ -7889,11 +8553,14 @@
       <c r="L65" t="s">
         <v>748</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="N65" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="16" t="s">
         <v>264</v>
       </c>
@@ -7928,11 +8595,14 @@
       <c r="L66" t="s">
         <v>801</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="53" t="s">
+        <v>994</v>
+      </c>
+      <c r="N66" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="43">
+    <row r="67" spans="1:14" ht="43">
       <c r="A67" s="16" t="s">
         <v>317</v>
       </c>
@@ -7967,11 +8637,14 @@
       <c r="L67" t="s">
         <v>762</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="53" t="s">
+        <v>995</v>
+      </c>
+      <c r="N67" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="16" t="s">
         <v>329</v>
       </c>
@@ -8006,11 +8679,14 @@
       <c r="L68" t="s">
         <v>778</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="53" t="s">
+        <v>996</v>
+      </c>
+      <c r="N68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="16" t="s">
         <v>321</v>
       </c>
@@ -8045,11 +8721,14 @@
       <c r="L69" t="s">
         <v>799</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="53" t="s">
+        <v>997</v>
+      </c>
+      <c r="N69" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.7">
+    <row r="70" spans="1:14" ht="28.7">
       <c r="A70" s="16" t="s">
         <v>281</v>
       </c>
@@ -8082,11 +8761,14 @@
       <c r="L70" t="s">
         <v>767</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="53" t="s">
+        <v>998</v>
+      </c>
+      <c r="N70" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="16" t="s">
         <v>291</v>
       </c>
@@ -8119,11 +8801,14 @@
       <c r="L71" t="s">
         <v>795</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="53" t="s">
+        <v>999</v>
+      </c>
+      <c r="N71" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="16" t="s">
         <v>345</v>
       </c>
@@ -8158,11 +8843,14 @@
       <c r="L72" t="s">
         <v>771</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="53" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N72" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="28.7">
+    <row r="73" spans="1:14" ht="28.7">
       <c r="A73" s="16" t="s">
         <v>241</v>
       </c>
@@ -8195,11 +8883,14 @@
       <c r="L73" t="s">
         <v>784</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="53" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N73" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" s="20" t="s">
         <v>408</v>
       </c>
@@ -8234,11 +8925,14 @@
       <c r="L74" t="s">
         <v>749</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="53" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N74" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.7">
+    <row r="75" spans="1:14" ht="28.7">
       <c r="A75" s="16" t="s">
         <v>360</v>
       </c>
@@ -8271,11 +8965,14 @@
       <c r="L75" t="s">
         <v>743</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="53" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N75" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.7">
+    <row r="76" spans="1:14" ht="28.7">
       <c r="A76" s="16" t="s">
         <v>246</v>
       </c>
@@ -8308,11 +9005,14 @@
       <c r="L76" t="s">
         <v>782</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N76" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.7">
+    <row r="77" spans="1:14" ht="28.7">
       <c r="A77" s="16" t="s">
         <v>238</v>
       </c>
@@ -8347,11 +9047,14 @@
       <c r="L77" t="s">
         <v>785</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N77" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78" s="16" t="s">
         <v>355</v>
       </c>
@@ -8384,11 +9087,14 @@
       <c r="L78" t="s">
         <v>759</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N78" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="57.35">
+    <row r="79" spans="1:14" ht="57.35">
       <c r="A79" s="16" t="s">
         <v>363</v>
       </c>
@@ -8421,11 +9127,14 @@
       <c r="L79" t="s">
         <v>742</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N79" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" s="20" t="s">
         <v>397</v>
       </c>
@@ -8460,11 +9169,14 @@
       <c r="L80" t="s">
         <v>753</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N80" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:14">
       <c r="A81" s="16" t="s">
         <v>374</v>
       </c>
@@ -8497,11 +9209,14 @@
       <c r="L81" t="s">
         <v>798</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N81" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.7">
+    <row r="82" spans="1:14" ht="28.7">
       <c r="A82" s="16" t="s">
         <v>252</v>
       </c>
@@ -8534,11 +9249,14 @@
       <c r="L82" t="s">
         <v>780</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N82" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:14">
       <c r="A83" s="20" t="s">
         <v>406</v>
       </c>
@@ -8573,11 +9291,14 @@
       <c r="L83" t="s">
         <v>750</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="53" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N83" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.7">
+    <row r="84" spans="1:14" ht="16.7">
       <c r="A84" s="16" t="s">
         <v>259</v>
       </c>
@@ -8609,14 +9330,17 @@
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84" s="46" t="s">
+      <c r="L84" s="45" t="s">
         <v>757</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="53" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N84" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="28.7">
+    <row r="85" spans="1:14" ht="28.7">
       <c r="A85" s="16" t="s">
         <v>284</v>
       </c>
@@ -8649,11 +9373,14 @@
       <c r="L85" t="s">
         <v>747</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="53" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N85" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:14">
       <c r="A86" s="20" t="s">
         <v>395</v>
       </c>
@@ -8685,14 +9412,17 @@
       <c r="K86">
         <v>1</v>
       </c>
-      <c r="L86" s="46" t="s">
+      <c r="L86" s="45" t="s">
         <v>754</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="53" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N86" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:14">
       <c r="A87" s="16" t="s">
         <v>268</v>
       </c>
@@ -8712,10 +9442,10 @@
       <c r="G87" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="H87" s="51">
+      <c r="H87" s="49">
         <v>74</v>
       </c>
-      <c r="I87" s="51">
+      <c r="I87" s="49">
         <v>137</v>
       </c>
       <c r="J87">
@@ -8727,11 +9457,14 @@
       <c r="L87" t="s">
         <v>800</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N87" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="28.7">
+    <row r="88" spans="1:14" ht="28.7">
       <c r="A88" s="16" t="s">
         <v>349</v>
       </c>
@@ -8768,11 +9501,14 @@
       <c r="L88" t="s">
         <v>766</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="53" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N88" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:14">
       <c r="A89" s="16" t="s">
         <v>299</v>
       </c>
@@ -8809,11 +9545,14 @@
       <c r="L89" t="s">
         <v>774</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="53" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N89" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="28.7">
+    <row r="90" spans="1:14" ht="28.7">
       <c r="A90" s="16" t="s">
         <v>254</v>
       </c>
@@ -8848,11 +9587,14 @@
       <c r="L90" t="s">
         <v>779</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" s="53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N90" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:14">
       <c r="A91" s="16" t="s">
         <v>275</v>
       </c>
@@ -8885,11 +9627,14 @@
       <c r="L91" t="s">
         <v>770</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" s="53" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N91" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="43">
+    <row r="92" spans="1:14" ht="43">
       <c r="A92" s="16" t="s">
         <v>312</v>
       </c>
@@ -8924,11 +9669,14 @@
       <c r="L92" t="s">
         <v>764</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" s="53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N92" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="43">
+    <row r="93" spans="1:14" ht="43">
       <c r="A93" s="16" t="s">
         <v>315</v>
       </c>
@@ -8963,11 +9711,14 @@
       <c r="L93" t="s">
         <v>763</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" s="53" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N93" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:14">
       <c r="A94" s="20" t="s">
         <v>382</v>
       </c>
@@ -9002,11 +9753,14 @@
       <c r="L94" t="s">
         <v>773</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" s="53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N94" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:14">
       <c r="A95" s="20" t="s">
         <v>393</v>
       </c>
@@ -9038,14 +9792,17 @@
       <c r="K95">
         <v>1</v>
       </c>
-      <c r="L95" s="46" t="s">
+      <c r="L95" s="45" t="s">
         <v>755</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" s="53" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N95" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:14">
       <c r="A96" s="20" t="s">
         <v>399</v>
       </c>
@@ -9080,11 +9837,14 @@
       <c r="L96" t="s">
         <v>752</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" s="53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N96" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28.7">
+    <row r="97" spans="1:14" ht="28.7">
       <c r="A97" s="16" t="s">
         <v>224</v>
       </c>
@@ -9119,11 +9879,14 @@
       <c r="L97" t="s">
         <v>744</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="53" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N97" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:14">
       <c r="A98" s="20" t="s">
         <v>410</v>
       </c>
@@ -9158,11 +9921,14 @@
       <c r="L98" t="s">
         <v>790</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="53" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N98" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:14">
       <c r="A99" s="16" t="s">
         <v>319</v>
       </c>
@@ -9195,11 +9961,14 @@
       <c r="L99" t="s">
         <v>746</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="53" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N99" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="28.7">
+    <row r="100" spans="1:14" ht="28.7">
       <c r="A100" s="16" t="s">
         <v>235</v>
       </c>
@@ -9232,11 +10001,14 @@
       <c r="L100" t="s">
         <v>786</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="53" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N100" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:14">
       <c r="A101" s="16" t="s">
         <v>294</v>
       </c>
@@ -9269,11 +10041,14 @@
       <c r="L101" t="s">
         <v>792</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" s="53" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N101" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="43">
+    <row r="102" spans="1:14" ht="43">
       <c r="A102" s="16" t="s">
         <v>249</v>
       </c>
@@ -9306,11 +10081,14 @@
       <c r="L102" t="s">
         <v>781</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" s="53" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N102" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="100.35">
+    <row r="103" spans="1:14" ht="100.35">
       <c r="A103" s="16" t="s">
         <v>220</v>
       </c>
@@ -9345,11 +10123,14 @@
       <c r="L103" t="s">
         <v>745</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" s="53" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N103" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:14">
       <c r="A104" s="16" t="s">
         <v>261</v>
       </c>
@@ -9382,11 +10163,14 @@
       <c r="L104" t="s">
         <v>804</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" s="53" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N104" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:14">
       <c r="A105" s="21" t="s">
         <v>178</v>
       </c>
@@ -9419,11 +10203,14 @@
       <c r="L105" t="s">
         <v>842</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" s="53" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N105" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:14">
       <c r="A106" s="21" t="s">
         <v>592</v>
       </c>
@@ -9458,11 +10245,14 @@
       <c r="L106" t="s">
         <v>843</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" s="53" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N106" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.7">
+    <row r="107" spans="1:14" ht="28.7">
       <c r="A107" s="21" t="s">
         <v>418</v>
       </c>
@@ -9495,11 +10285,14 @@
       <c r="L107" t="s">
         <v>844</v>
       </c>
-      <c r="M107" s="22" t="s">
+      <c r="M107" s="53" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N107" s="22" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:14">
       <c r="A108" s="21" t="s">
         <v>542</v>
       </c>
@@ -9534,11 +10327,14 @@
       <c r="L108" t="s">
         <v>845</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="53" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N108" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:14">
       <c r="A109" s="21" t="s">
         <v>586</v>
       </c>
@@ -9573,11 +10369,14 @@
       <c r="L109" t="s">
         <v>846</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" s="53" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N109" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:14">
       <c r="A110" s="21" t="s">
         <v>489</v>
       </c>
@@ -9610,11 +10409,14 @@
       <c r="L110" t="s">
         <v>847</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" s="53" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N110" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="28.7">
+    <row r="111" spans="1:14" ht="28.7">
       <c r="A111" s="21" t="s">
         <v>491</v>
       </c>
@@ -9649,11 +10451,14 @@
       <c r="L111" t="s">
         <v>848</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" s="53" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N111" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:14">
       <c r="A112" s="21" t="s">
         <v>522</v>
       </c>
@@ -9688,11 +10493,14 @@
       <c r="L112" t="s">
         <v>849</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" s="53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N112" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:14">
       <c r="A113" s="21" t="s">
         <v>421</v>
       </c>
@@ -9725,11 +10533,14 @@
       <c r="L113" t="s">
         <v>850</v>
       </c>
-      <c r="M113" s="22" t="s">
+      <c r="M113" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N113" s="22" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:14">
       <c r="A114" s="21" t="s">
         <v>532</v>
       </c>
@@ -9763,14 +10574,17 @@
       <c r="K114">
         <v>1</v>
       </c>
-      <c r="L114" s="52" t="s">
+      <c r="L114" s="50" t="s">
         <v>851</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114" s="53" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N114" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:14">
       <c r="A115" s="21" t="s">
         <v>468</v>
       </c>
@@ -9803,12 +10617,15 @@
       <c r="L115" t="s">
         <v>852</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" s="53" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N115" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="50" t="s">
+    <row r="116" spans="1:14">
+      <c r="A116" s="48" t="s">
         <v>483</v>
       </c>
       <c r="B116" s="24" t="s">
@@ -9840,11 +10657,14 @@
       <c r="L116" t="s">
         <v>853</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" s="53" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N116" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:14">
       <c r="A117" s="26" t="s">
         <v>605</v>
       </c>
@@ -9875,11 +10695,14 @@
       <c r="L117" t="s">
         <v>854</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" s="53" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N117" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:14">
       <c r="A118" s="21" t="s">
         <v>471</v>
       </c>
@@ -9912,11 +10735,14 @@
       <c r="L118" t="s">
         <v>855</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" s="53" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N118" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:14">
       <c r="A119" s="21" t="s">
         <v>473</v>
       </c>
@@ -9951,11 +10777,14 @@
       <c r="L119" t="s">
         <v>856</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" s="53" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N119" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:14">
       <c r="A120" s="21" t="s">
         <v>101</v>
       </c>
@@ -9992,11 +10821,14 @@
       <c r="L120" t="s">
         <v>857</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" s="53" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N120" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:14">
       <c r="A121" s="21" t="s">
         <v>544</v>
       </c>
@@ -10031,11 +10863,14 @@
       <c r="L121" t="s">
         <v>858</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" s="53" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N121" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="A122" s="21" t="s">
         <v>547</v>
       </c>
@@ -10070,11 +10905,14 @@
       <c r="L122" t="s">
         <v>859</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="53" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N122" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:14">
       <c r="A123" s="21" t="s">
         <v>550</v>
       </c>
@@ -10109,11 +10947,14 @@
       <c r="L123" t="s">
         <v>860</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" s="53" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N123" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:14">
       <c r="A124" s="21" t="s">
         <v>553</v>
       </c>
@@ -10146,11 +10987,14 @@
       <c r="L124" t="s">
         <v>861</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" s="53" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N124" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:14">
       <c r="A125" s="21" t="s">
         <v>556</v>
       </c>
@@ -10185,11 +11029,14 @@
       <c r="L125" t="s">
         <v>862</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="53" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N125" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:14">
       <c r="A126" s="21" t="s">
         <v>494</v>
       </c>
@@ -10224,11 +11071,14 @@
       <c r="L126" t="s">
         <v>863</v>
       </c>
-      <c r="M126" s="24" t="s">
+      <c r="M126" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N126" s="24" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:14">
       <c r="A127" s="21" t="s">
         <v>497</v>
       </c>
@@ -10263,11 +11113,14 @@
       <c r="L127" t="s">
         <v>864</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" s="53" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N127" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="28.7">
+    <row r="128" spans="1:14" ht="28.7">
       <c r="A128" s="21" t="s">
         <v>511</v>
       </c>
@@ -10302,11 +11155,14 @@
       <c r="L128" t="s">
         <v>865</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" s="53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N128" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="28.7">
+    <row r="129" spans="1:14" ht="28.7">
       <c r="A129" s="21" t="s">
         <v>583</v>
       </c>
@@ -10339,11 +11195,14 @@
       <c r="L129" t="s">
         <v>866</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" s="53" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N129" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:14">
       <c r="A130" s="21" t="s">
         <v>424</v>
       </c>
@@ -10376,11 +11235,14 @@
       <c r="L130" t="s">
         <v>867</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N130" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.7">
+    <row r="131" spans="1:14" ht="28.7">
       <c r="A131" s="21" t="s">
         <v>427</v>
       </c>
@@ -10413,11 +11275,14 @@
       <c r="L131" t="s">
         <v>868</v>
       </c>
-      <c r="M131" s="22" t="s">
+      <c r="M131" s="53" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N131" s="22" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:14">
       <c r="A132" s="21" t="s">
         <v>430</v>
       </c>
@@ -10450,11 +11315,14 @@
       <c r="L132" t="s">
         <v>869</v>
       </c>
-      <c r="M132" s="22" t="s">
+      <c r="M132" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N132" s="22" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:14">
       <c r="A133" s="21" t="s">
         <v>589</v>
       </c>
@@ -10491,11 +11359,14 @@
       <c r="L133" t="s">
         <v>870</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N133" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.7">
+    <row r="134" spans="1:14" ht="28.7">
       <c r="A134" s="21" t="s">
         <v>433</v>
       </c>
@@ -10528,11 +11399,14 @@
       <c r="L134" t="s">
         <v>871</v>
       </c>
-      <c r="M134" s="22" t="s">
+      <c r="M134" s="53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N134" s="22" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:14">
       <c r="A135" s="21" t="s">
         <v>435</v>
       </c>
@@ -10565,11 +11439,14 @@
       <c r="L135" t="s">
         <v>872</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" s="53" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N135" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:14">
       <c r="A136" s="21" t="s">
         <v>438</v>
       </c>
@@ -10602,11 +11479,14 @@
       <c r="L136" t="s">
         <v>873</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" s="53" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:14">
       <c r="A137" s="21" t="s">
         <v>560</v>
       </c>
@@ -10639,11 +11519,14 @@
       <c r="L137" t="s">
         <v>874</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137" s="53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N137" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:14">
       <c r="A138" s="21" t="s">
         <v>563</v>
       </c>
@@ -10676,11 +11559,14 @@
       <c r="L138" t="s">
         <v>875</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N138" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:14">
       <c r="A139" s="21" t="s">
         <v>566</v>
       </c>
@@ -10715,11 +11601,14 @@
       <c r="L139" t="s">
         <v>876</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139" s="53" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N139" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:14">
       <c r="A140" s="21" t="s">
         <v>570</v>
       </c>
@@ -10752,11 +11641,14 @@
       <c r="L140" t="s">
         <v>877</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" s="53" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N140" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:14">
       <c r="A141" s="21" t="s">
         <v>441</v>
       </c>
@@ -10793,11 +11685,14 @@
       <c r="L141" t="s">
         <v>878</v>
       </c>
-      <c r="M141" s="22" t="s">
+      <c r="M141" s="53" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N141" s="22" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="28.7">
+    <row r="142" spans="1:14" ht="28.7">
       <c r="A142" s="21" t="s">
         <v>476</v>
       </c>
@@ -10832,11 +11727,14 @@
       <c r="L142" t="s">
         <v>879</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142" s="53" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N142" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:14">
       <c r="A143" s="21" t="s">
         <v>526</v>
       </c>
@@ -10869,11 +11767,14 @@
       <c r="L143" t="s">
         <v>880</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" s="53" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N143" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:14">
       <c r="A144" s="21" t="s">
         <v>573</v>
       </c>
@@ -10906,11 +11807,14 @@
       <c r="L144" t="s">
         <v>881</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144" s="53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N144" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:14">
       <c r="A145" s="21" t="s">
         <v>576</v>
       </c>
@@ -10945,11 +11849,14 @@
       <c r="L145" t="s">
         <v>882</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145" s="53" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N145" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:14">
       <c r="A146" s="21" t="s">
         <v>580</v>
       </c>
@@ -10984,11 +11891,14 @@
       <c r="L146" t="s">
         <v>883</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146" s="53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N146" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:14">
       <c r="A147" s="21" t="s">
         <v>535</v>
       </c>
@@ -11023,11 +11933,14 @@
       <c r="L147" t="s">
         <v>884</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147" s="53" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N147" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:14">
       <c r="A148" s="21" t="s">
         <v>539</v>
       </c>
@@ -11057,14 +11970,17 @@
       <c r="K148">
         <v>1</v>
       </c>
-      <c r="L148" s="52" t="s">
+      <c r="L148" s="50" t="s">
         <v>885</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148" s="53" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N148" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="28.7">
+    <row r="149" spans="1:14" ht="28.7">
       <c r="A149" s="21" t="s">
         <v>499</v>
       </c>
@@ -11099,11 +12015,14 @@
       <c r="L149" t="s">
         <v>887</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149" s="53" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N149" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:14">
       <c r="A150" s="21" t="s">
         <v>444</v>
       </c>
@@ -11138,11 +12057,14 @@
       <c r="L150" t="s">
         <v>888</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150" s="53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N150" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:14">
       <c r="A151" s="21" t="s">
         <v>447</v>
       </c>
@@ -11175,11 +12097,14 @@
       <c r="L151" t="s">
         <v>889</v>
       </c>
-      <c r="M151" s="22" t="s">
+      <c r="M151" s="53" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N151" s="22" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:14">
       <c r="A152" s="21" t="s">
         <v>528</v>
       </c>
@@ -11214,11 +12139,14 @@
       <c r="L152" t="s">
         <v>890</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152" s="53" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N152" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:14">
       <c r="A153" s="21" t="s">
         <v>517</v>
       </c>
@@ -11253,11 +12181,14 @@
       <c r="L153" t="s">
         <v>891</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153" s="53" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N153" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:14">
       <c r="A154" s="21" t="s">
         <v>514</v>
       </c>
@@ -11292,11 +12223,14 @@
       <c r="L154" t="s">
         <v>892</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N154" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:14">
       <c r="A155" s="21" t="s">
         <v>530</v>
       </c>
@@ -11314,13 +12248,13 @@
       <c r="G155" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="H155" s="51">
+      <c r="H155" s="49">
         <v>18.399999999999999</v>
       </c>
-      <c r="I155" s="51">
+      <c r="I155" s="49">
         <v>29.3</v>
       </c>
-      <c r="J155" s="51">
+      <c r="J155" s="49">
         <v>14.6</v>
       </c>
       <c r="K155">
@@ -11329,11 +12263,14 @@
       <c r="L155" t="s">
         <v>893</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155" s="53" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N155" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="28.7">
+    <row r="156" spans="1:14" ht="28.7">
       <c r="A156" s="21" t="s">
         <v>479</v>
       </c>
@@ -11366,11 +12303,14 @@
       <c r="L156" t="s">
         <v>894</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156" s="53" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N156" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="28.7">
+    <row r="157" spans="1:14" ht="28.7">
       <c r="A157" s="21" t="s">
         <v>520</v>
       </c>
@@ -11403,11 +12343,14 @@
       <c r="L157" t="s">
         <v>895</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157" s="53" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N157" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:14">
       <c r="A158" s="21" t="s">
         <v>486</v>
       </c>
@@ -11440,11 +12383,14 @@
       <c r="L158" t="s">
         <v>896</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158" s="53" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N158" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:14">
       <c r="A159" s="21" t="s">
         <v>450</v>
       </c>
@@ -11477,11 +12423,14 @@
       <c r="L159" t="s">
         <v>897</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N159" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:14">
       <c r="A160" s="21" t="s">
         <v>453</v>
       </c>
@@ -11514,11 +12463,14 @@
       <c r="L160" t="s">
         <v>898</v>
       </c>
-      <c r="M160" s="22" t="s">
+      <c r="M160" s="53" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N160" s="22" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:14">
       <c r="A161" s="21" t="s">
         <v>456</v>
       </c>
@@ -11551,11 +12503,14 @@
       <c r="L161" t="s">
         <v>899</v>
       </c>
-      <c r="M161" s="22" t="s">
+      <c r="M161" s="53" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N161" s="22" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="28.7">
+    <row r="162" spans="1:14" ht="28.7">
       <c r="A162" s="21" t="s">
         <v>149</v>
       </c>
@@ -11588,11 +12543,14 @@
       <c r="L162" t="s">
         <v>900</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N162" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:14">
       <c r="A163" s="26" t="s">
         <v>608</v>
       </c>
@@ -11623,11 +12581,14 @@
       <c r="L163" t="s">
         <v>901</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163" s="53" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N163" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:14">
       <c r="A164" s="26" t="s">
         <v>611</v>
       </c>
@@ -11655,14 +12616,17 @@
       <c r="K164">
         <v>1</v>
       </c>
-      <c r="L164" s="52" t="s">
+      <c r="L164" s="50" t="s">
         <v>886</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164" s="53" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N164" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:14">
       <c r="A165" s="21" t="s">
         <v>458</v>
       </c>
@@ -11692,12 +12656,12 @@
       <c r="K165">
         <v>1</v>
       </c>
-      <c r="L165" s="53"/>
-      <c r="M165" t="s">
+      <c r="L165" s="51"/>
+      <c r="N165" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:14">
       <c r="A166" s="16" t="s">
         <v>335</v>
       </c>
@@ -11729,12 +12693,12 @@
       <c r="K166">
         <v>1</v>
       </c>
-      <c r="L166" s="54"/>
-      <c r="M166" t="s">
+      <c r="L166" s="52"/>
+      <c r="N166" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:14">
       <c r="A167" s="16" t="s">
         <v>232</v>
       </c>
@@ -11766,12 +12730,12 @@
       <c r="K167">
         <v>2</v>
       </c>
-      <c r="L167" s="54"/>
-      <c r="M167" t="s">
+      <c r="L167" s="52"/>
+      <c r="N167" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:14">
       <c r="A168" s="16" t="s">
         <v>296</v>
       </c>
@@ -11801,12 +12765,12 @@
       <c r="K168">
         <v>4</v>
       </c>
-      <c r="L168" s="54"/>
-      <c r="M168" t="s">
+      <c r="L168" s="52"/>
+      <c r="N168" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:14">
       <c r="A169" s="16" t="s">
         <v>332</v>
       </c>
@@ -11836,12 +12800,12 @@
       <c r="K169">
         <v>1</v>
       </c>
-      <c r="L169" s="54"/>
-      <c r="M169" t="s">
+      <c r="L169" s="52"/>
+      <c r="N169" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="28.7">
+    <row r="170" spans="1:14" ht="28.7">
       <c r="A170" s="16" t="s">
         <v>339</v>
       </c>
@@ -11871,12 +12835,12 @@
       <c r="K170">
         <v>1</v>
       </c>
-      <c r="L170" s="54"/>
-      <c r="M170" t="s">
+      <c r="L170" s="52"/>
+      <c r="N170" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:14">
       <c r="A171" s="21" t="s">
         <v>461</v>
       </c>
@@ -11906,12 +12870,12 @@
       <c r="K171">
         <v>1</v>
       </c>
-      <c r="L171" s="54"/>
-      <c r="M171" s="22" t="s">
+      <c r="L171" s="52"/>
+      <c r="N171" s="22" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="28.7">
+    <row r="172" spans="1:14" ht="28.7">
       <c r="A172" s="21" t="s">
         <v>502</v>
       </c>
@@ -11943,12 +12907,12 @@
       <c r="K172">
         <v>1</v>
       </c>
-      <c r="L172" s="54"/>
-      <c r="M172" t="s">
+      <c r="L172" s="52"/>
+      <c r="N172" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:14">
       <c r="A173" s="16" t="s">
         <v>271</v>
       </c>
@@ -11980,12 +12944,12 @@
       <c r="K173">
         <v>1</v>
       </c>
-      <c r="L173" s="54"/>
-      <c r="M173" t="s">
+      <c r="L173" s="52"/>
+      <c r="N173" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="28.7">
+    <row r="174" spans="1:14" ht="28.7">
       <c r="A174" s="21" t="s">
         <v>506</v>
       </c>
@@ -12017,12 +12981,12 @@
       <c r="K174">
         <v>1</v>
       </c>
-      <c r="L174" s="54"/>
-      <c r="M174" t="s">
+      <c r="L174" s="52"/>
+      <c r="N174" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="28.7">
+    <row r="175" spans="1:14" ht="28.7">
       <c r="A175" s="21" t="s">
         <v>509</v>
       </c>
@@ -12054,12 +13018,12 @@
       <c r="K175">
         <v>1</v>
       </c>
-      <c r="L175" s="54"/>
-      <c r="M175" t="s">
+      <c r="L175" s="52"/>
+      <c r="N175" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:14">
       <c r="A176" s="23" t="s">
         <v>463</v>
       </c>
@@ -12089,12 +13053,12 @@
       <c r="K176">
         <v>2</v>
       </c>
-      <c r="L176" s="54"/>
-      <c r="M176" s="22" t="s">
+      <c r="L176" s="52"/>
+      <c r="N176" s="22" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:14">
       <c r="A177" s="23" t="s">
         <v>466</v>
       </c>
@@ -12124,16 +13088,16 @@
       <c r="K177">
         <v>2</v>
       </c>
-      <c r="L177" s="54"/>
-      <c r="M177" s="22" t="s">
+      <c r="L177" s="52"/>
+      <c r="N177" s="22" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
-      <c r="M178" s="22"/>
+    <row r="178" spans="1:14">
+      <c r="N178" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:M183">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:N183">
     <sortCondition ref="L41:L183"/>
     <sortCondition ref="A41:A183"/>
   </sortState>
@@ -14709,7 +15673,7 @@
   <cols>
     <col min="1" max="1" width="8.9375" style="1"/>
     <col min="2" max="2" width="8.9375" customWidth="1"/>
-    <col min="3" max="3" width="12" style="46" customWidth="1"/>
+    <col min="3" max="3" width="12" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14719,7 +15683,7 @@
       <c r="B1" t="s">
         <v>690</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>689</v>
       </c>
     </row>
@@ -14727,7 +15691,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" t="s">
         <v>715</v>
       </c>
     </row>
@@ -14738,7 +15702,7 @@
       <c r="B3" t="s">
         <v>702</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" t="s">
         <v>716</v>
       </c>
     </row>
@@ -14749,7 +15713,7 @@
       <c r="B4" t="s">
         <v>702</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>713</v>
       </c>
     </row>
@@ -14757,7 +15721,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>714</v>
       </c>
     </row>
@@ -14768,7 +15732,7 @@
       <c r="B6" t="s">
         <v>702</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>717</v>
       </c>
     </row>
@@ -14776,7 +15740,7 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="46" t="s">
         <v>718</v>
       </c>
     </row>
@@ -14784,7 +15748,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>729</v>
       </c>
     </row>
@@ -14792,7 +15756,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>733</v>
       </c>
     </row>
@@ -14803,7 +15767,7 @@
       <c r="B10" t="s">
         <v>702</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>736</v>
       </c>
     </row>
@@ -14814,7 +15778,7 @@
       <c r="B11" t="s">
         <v>702</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" t="s">
         <v>719</v>
       </c>
     </row>
@@ -14822,7 +15786,7 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>720</v>
       </c>
     </row>
@@ -14830,7 +15794,7 @@
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>727</v>
       </c>
     </row>
@@ -14838,7 +15802,7 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>724</v>
       </c>
     </row>
@@ -14849,7 +15813,7 @@
       <c r="B15" t="s">
         <v>702</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>725</v>
       </c>
     </row>
@@ -14857,7 +15821,7 @@
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>726</v>
       </c>
     </row>
@@ -14868,7 +15832,7 @@
       <c r="B17" t="s">
         <v>702</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
         <v>730</v>
       </c>
     </row>
@@ -14879,7 +15843,7 @@
       <c r="B18" t="s">
         <v>702</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="46" t="s">
         <v>731</v>
       </c>
     </row>
@@ -14893,7 +15857,7 @@
       <c r="B20" t="s">
         <v>702</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="46" t="s">
         <v>732</v>
       </c>
     </row>
@@ -14907,7 +15871,7 @@
       <c r="B22" t="s">
         <v>702</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="46" t="s">
         <v>739</v>
       </c>
     </row>
@@ -14918,7 +15882,7 @@
       <c r="B23" t="s">
         <v>702</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" t="s">
         <v>930</v>
       </c>
     </row>
@@ -14929,7 +15893,7 @@
       <c r="B24" t="s">
         <v>702</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="46" t="s">
         <v>728</v>
       </c>
     </row>
@@ -14940,7 +15904,7 @@
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="46" t="s">
         <v>721</v>
       </c>
     </row>
@@ -14951,7 +15915,7 @@
       <c r="B27" t="s">
         <v>702</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="46" t="s">
         <v>722</v>
       </c>
     </row>
@@ -14959,7 +15923,7 @@
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="46" t="s">
         <v>737</v>
       </c>
     </row>
@@ -14970,7 +15934,7 @@
       <c r="B29" t="s">
         <v>702</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="46" t="s">
         <v>738</v>
       </c>
     </row>
@@ -14981,7 +15945,7 @@
       <c r="B30" t="s">
         <v>702</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="46" t="s">
         <v>734</v>
       </c>
     </row>
@@ -14989,7 +15953,7 @@
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="46" t="s">
         <v>735</v>
       </c>
     </row>
@@ -15000,7 +15964,7 @@
       <c r="B32" t="s">
         <v>702</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="46" t="s">
         <v>723</v>
       </c>
     </row>
